--- a/Sample_Bank_Data/SEP 2024.xlsx
+++ b/Sample_Bank_Data/SEP 2024.xlsx
@@ -1,27 +1,29 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28816"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28906"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\91636\Downloads\OneDrive_2025-04-23\Sample Bank Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="5" documentId="13_ncr:1_{1F82B4A7-168E-4DA2-A4F5-82C44763C1CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6A2A437F-1875-4C21-B52C-2889E01E3361}"/>
+  <xr:revisionPtr revIDLastSave="17" documentId="13_ncr:1_{1F82B4A7-168E-4DA2-A4F5-82C44763C1CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E782C2D3-AA59-4433-8D9D-710A40CC3E6F}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" firstSheet="7" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" firstSheet="3" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Collateral Types" sheetId="12" r:id="rId1"/>
     <sheet name="CUSTOMER" sheetId="6" r:id="rId2"/>
     <sheet name="fact risk" sheetId="1" r:id="rId3"/>
-    <sheet name="Fact writeen-off" sheetId="8" r:id="rId4"/>
-    <sheet name="fact restructred" sheetId="10" r:id="rId5"/>
-    <sheet name="rating" sheetId="5" r:id="rId6"/>
-    <sheet name="Rating and PDS&amp;P_x0009_Moody's_x0009_Fitch_x0009_" sheetId="11" r:id="rId7"/>
-    <sheet name="Risk Limit" sheetId="13" r:id="rId8"/>
-    <sheet name="STAGING" sheetId="7" r:id="rId9"/>
+    <sheet name="Provision" sheetId="14" r:id="rId4"/>
+    <sheet name="Fact writeen-off" sheetId="8" r:id="rId5"/>
+    <sheet name="fact restructred" sheetId="10" r:id="rId6"/>
+    <sheet name="rating" sheetId="5" r:id="rId7"/>
+    <sheet name="Rating and PDS&amp;P_x0009_Moody's_x0009_Fitch_x0009_" sheetId="11" r:id="rId8"/>
+    <sheet name="PD" sheetId="15" r:id="rId9"/>
+    <sheet name="Risk Limit" sheetId="13" r:id="rId10"/>
+    <sheet name="STAGING" sheetId="7" r:id="rId11"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'fact risk'!$B$1:$AD$51</definedName>
@@ -47,7 +49,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="828" uniqueCount="235">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="814" uniqueCount="217">
   <si>
     <t>Types of Collaterals</t>
   </si>
@@ -358,6 +360,12 @@
     <t>3E</t>
   </si>
   <si>
+    <t>Provision Stages</t>
+  </si>
+  <si>
+    <t>3F</t>
+  </si>
+  <si>
     <t>Company</t>
   </si>
   <si>
@@ -580,163 +588,103 @@
     <t>Internal Rating</t>
   </si>
   <si>
+    <t>AAA</t>
+  </si>
+  <si>
+    <t>Aaa</t>
+  </si>
+  <si>
+    <t>AA+</t>
+  </si>
+  <si>
+    <t>Aa1</t>
+  </si>
+  <si>
+    <t>Aa2</t>
+  </si>
+  <si>
+    <t>Baa1</t>
+  </si>
+  <si>
+    <t>Baa2</t>
+  </si>
+  <si>
+    <t>BBB-</t>
+  </si>
+  <si>
+    <t>Baa3</t>
+  </si>
+  <si>
+    <t>Ba1</t>
+  </si>
+  <si>
+    <t>BB</t>
+  </si>
+  <si>
+    <t>Ba2</t>
+  </si>
+  <si>
+    <t>BB-</t>
+  </si>
+  <si>
+    <t>Ba3</t>
+  </si>
+  <si>
+    <t>B1</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>B2</t>
+  </si>
+  <si>
+    <t>B-</t>
+  </si>
+  <si>
+    <t>B3</t>
+  </si>
+  <si>
+    <t>CCC+</t>
+  </si>
+  <si>
+    <t>Caa1</t>
+  </si>
+  <si>
+    <t>CCC</t>
+  </si>
+  <si>
+    <t>Caa2</t>
+  </si>
+  <si>
+    <t>CCC-</t>
+  </si>
+  <si>
+    <t>Caa3</t>
+  </si>
+  <si>
+    <t>CC</t>
+  </si>
+  <si>
+    <t>Ca</t>
+  </si>
+  <si>
+    <t>C</t>
+  </si>
+  <si>
+    <t>SD</t>
+  </si>
+  <si>
+    <t>DDD</t>
+  </si>
+  <si>
+    <t>D</t>
+  </si>
+  <si>
+    <t>DD</t>
+  </si>
+  <si>
     <t>PD 2024</t>
-  </si>
-  <si>
-    <t>AAA</t>
-  </si>
-  <si>
-    <t>Aaa</t>
-  </si>
-  <si>
-    <t>0.0020%</t>
-  </si>
-  <si>
-    <t>AA+</t>
-  </si>
-  <si>
-    <t>Aa1</t>
-  </si>
-  <si>
-    <t>0.0232%</t>
-  </si>
-  <si>
-    <t>Aa2</t>
-  </si>
-  <si>
-    <t>0.0518%</t>
-  </si>
-  <si>
-    <t>0.1112%</t>
-  </si>
-  <si>
-    <t>0.2080%</t>
-  </si>
-  <si>
-    <t>0.3796%</t>
-  </si>
-  <si>
-    <t>0.5940%</t>
-  </si>
-  <si>
-    <t>Baa1</t>
-  </si>
-  <si>
-    <t>0.9130%</t>
-  </si>
-  <si>
-    <t>Baa2</t>
-  </si>
-  <si>
-    <t>1.3200%</t>
-  </si>
-  <si>
-    <t>BBB-</t>
-  </si>
-  <si>
-    <t>Baa3</t>
-  </si>
-  <si>
-    <t>2.6180%</t>
-  </si>
-  <si>
-    <t>Ba1</t>
-  </si>
-  <si>
-    <t>4.6200%</t>
-  </si>
-  <si>
-    <t>BB</t>
-  </si>
-  <si>
-    <t>Ba2</t>
-  </si>
-  <si>
-    <t>7.4800%</t>
-  </si>
-  <si>
-    <t>BB-</t>
-  </si>
-  <si>
-    <t>Ba3</t>
-  </si>
-  <si>
-    <t>10.7690%</t>
-  </si>
-  <si>
-    <t>B1</t>
-  </si>
-  <si>
-    <t>15.2350%</t>
-  </si>
-  <si>
-    <t>B</t>
-  </si>
-  <si>
-    <t>B2</t>
-  </si>
-  <si>
-    <t>19.9420%</t>
-  </si>
-  <si>
-    <t>B-</t>
-  </si>
-  <si>
-    <t>B3</t>
-  </si>
-  <si>
-    <t>26.4440%</t>
-  </si>
-  <si>
-    <t>CCC+</t>
-  </si>
-  <si>
-    <t>Caa1</t>
-  </si>
-  <si>
-    <t>35.7268%</t>
-  </si>
-  <si>
-    <t>CCC</t>
-  </si>
-  <si>
-    <t>Caa2</t>
-  </si>
-  <si>
-    <t>48.2680%</t>
-  </si>
-  <si>
-    <t>CCC-</t>
-  </si>
-  <si>
-    <t>Caa3</t>
-  </si>
-  <si>
-    <t>72.8662%</t>
-  </si>
-  <si>
-    <t>CC</t>
-  </si>
-  <si>
-    <t>Ca</t>
-  </si>
-  <si>
-    <t>100.0000%</t>
-  </si>
-  <si>
-    <t>C</t>
-  </si>
-  <si>
-    <t>SD</t>
-  </si>
-  <si>
-    <t>DDD</t>
-  </si>
-  <si>
-    <t>D</t>
-  </si>
-  <si>
-    <t>DD</t>
   </si>
   <si>
     <t>Internal risk rating</t>
@@ -1312,6 +1260,270 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4B544F5F-0950-4088-9E92-9369CD9B8522}">
+  <dimension ref="A1:J18"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="21.42578125" customWidth="1"/>
+    <col min="2" max="2" width="22.7109375" customWidth="1"/>
+    <col min="3" max="3" width="10" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="22.85546875" customWidth="1"/>
+    <col min="6" max="6" width="23.42578125" customWidth="1"/>
+    <col min="9" max="9" width="21.85546875" customWidth="1"/>
+    <col min="10" max="10" width="22.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10">
+      <c r="A1" s="27" t="s">
+        <v>212</v>
+      </c>
+      <c r="B1" s="27" t="s">
+        <v>213</v>
+      </c>
+      <c r="E1" s="28" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1" s="28" t="s">
+        <v>214</v>
+      </c>
+      <c r="I1" s="29" t="s">
+        <v>215</v>
+      </c>
+      <c r="J1" s="29" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
+      <c r="A2" s="30">
+        <v>1</v>
+      </c>
+      <c r="B2" s="32">
+        <v>126000000</v>
+      </c>
+      <c r="E2" s="31" t="s">
+        <v>12</v>
+      </c>
+      <c r="F2" s="32">
+        <v>100000000</v>
+      </c>
+      <c r="I2">
+        <v>1</v>
+      </c>
+      <c r="J2" s="32">
+        <v>550000000</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
+      <c r="A3" s="30">
+        <v>2</v>
+      </c>
+      <c r="B3" s="32">
+        <v>111600000</v>
+      </c>
+      <c r="E3" s="31" t="s">
+        <v>40</v>
+      </c>
+      <c r="F3" s="32">
+        <v>300000000</v>
+      </c>
+      <c r="I3">
+        <v>2</v>
+      </c>
+      <c r="J3" s="32">
+        <v>500000000</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
+      <c r="A4" s="30">
+        <v>3</v>
+      </c>
+      <c r="B4" s="32">
+        <v>110800000</v>
+      </c>
+      <c r="E4" s="31" t="s">
+        <v>15</v>
+      </c>
+      <c r="F4" s="32">
+        <v>390000000</v>
+      </c>
+      <c r="I4">
+        <v>3</v>
+      </c>
+      <c r="J4" s="32">
+        <v>800000000</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
+      <c r="A5" s="30">
+        <v>4</v>
+      </c>
+      <c r="B5" s="32">
+        <v>103680000</v>
+      </c>
+      <c r="E5" s="31" t="s">
+        <v>47</v>
+      </c>
+      <c r="F5" s="32">
+        <v>180000000</v>
+      </c>
+      <c r="I5">
+        <v>4</v>
+      </c>
+      <c r="J5" s="32">
+        <v>1050000000</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
+      <c r="A6" s="30">
+        <v>5</v>
+      </c>
+      <c r="B6" s="32">
+        <v>102272000</v>
+      </c>
+      <c r="E6" s="31" t="s">
+        <v>30</v>
+      </c>
+      <c r="F6" s="32">
+        <v>270000000</v>
+      </c>
+      <c r="I6">
+        <v>5</v>
+      </c>
+      <c r="J6" s="32">
+        <v>350000000</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
+      <c r="A7" s="30">
+        <v>6</v>
+      </c>
+      <c r="B7" s="32">
+        <v>97200000</v>
+      </c>
+      <c r="E7" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="F7" s="32">
+        <v>560000000</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
+      <c r="A8" s="30">
+        <v>7</v>
+      </c>
+      <c r="B8" s="32">
+        <v>67392000</v>
+      </c>
+      <c r="E8" s="31" t="s">
+        <v>25</v>
+      </c>
+      <c r="F8" s="32">
+        <v>200000000</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
+      <c r="A9" s="30">
+        <v>8</v>
+      </c>
+      <c r="B9" s="32">
+        <v>58968000</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10">
+      <c r="A10" s="30">
+        <v>9</v>
+      </c>
+      <c r="B10" s="32">
+        <v>50544000</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10">
+      <c r="A11" s="30">
+        <v>10</v>
+      </c>
+      <c r="B11" s="32">
+        <v>42120000</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10">
+      <c r="A12" s="30">
+        <v>11</v>
+      </c>
+      <c r="B12" s="32">
+        <v>28080000</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10">
+      <c r="A13" s="30">
+        <v>12</v>
+      </c>
+      <c r="B13" s="32">
+        <v>21060000</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10">
+      <c r="A14" s="30">
+        <v>13</v>
+      </c>
+      <c r="B14" s="32">
+        <v>14040000</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10">
+      <c r="A15" s="30">
+        <v>14</v>
+      </c>
+      <c r="B15" s="32">
+        <v>11232000</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10">
+      <c r="A16" s="30">
+        <v>15</v>
+      </c>
+      <c r="B16" s="32">
+        <v>8424000</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17" s="30">
+        <v>16</v>
+      </c>
+      <c r="B17" s="32">
+        <v>4492800</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18" s="30">
+        <v>17</v>
+      </c>
+      <c r="B18" s="32">
+        <v>1123200</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F2FE4088-AF22-41A1-89D6-9412CB39B032}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A6EAC753-FD4B-4174-9852-2B0C91699448}">
   <dimension ref="B1:F51"/>
@@ -2211,8 +2423,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AD52"/>
   <sheetViews>
-    <sheetView topLeftCell="P11" workbookViewId="0">
-      <selection activeCell="Y30" sqref="Y30"/>
+    <sheetView topLeftCell="P1" workbookViewId="0">
+      <selection activeCell="Y2" sqref="Y2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -7660,6 +7872,59 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{633DF118-3C92-40C6-90EC-28E5B60B8F9B}">
+  <dimension ref="B1:B7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B1" sqref="B1:B7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="2" max="2" width="18.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:2">
+      <c r="B1" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="2" spans="2:2">
+      <c r="B2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="2:2">
+      <c r="B3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="2:2">
+      <c r="B4" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="5" spans="2:2">
+      <c r="B5" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="6" spans="2:2">
+      <c r="B6" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="7" spans="2:2">
+      <c r="B7" t="s">
+        <v>104</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0525FA23-3CAD-4855-B532-1A977B48E93A}">
   <dimension ref="B2:G42"/>
   <sheetViews>
@@ -7679,27 +7944,27 @@
   <sheetData>
     <row r="2" spans="2:7">
       <c r="B2" s="13" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="C2" s="13" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="D2" s="14" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="E2" s="14" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="F2" s="18" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="G2" s="14" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
     </row>
     <row r="3" spans="2:7" ht="41.25" customHeight="1">
       <c r="B3" s="15" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="C3" s="16">
         <v>26957145.599999998</v>
@@ -7708,20 +7973,20 @@
         <v>2024</v>
       </c>
       <c r="E3" s="14" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="F3" s="17">
         <f t="shared" ref="F3:F42" ca="1" si="0">(C3*0.2) + RANDBETWEEN(0, 25000)</f>
-        <v>5402547.1200000001</v>
+        <v>5412985.1200000001</v>
       </c>
       <c r="G3" s="16">
         <f t="shared" ref="G3:G42" ca="1" si="1">C3-F3</f>
-        <v>21554598.479999997</v>
+        <v>21544160.479999997</v>
       </c>
     </row>
     <row r="4" spans="2:7">
       <c r="B4" s="15" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="C4" s="16">
         <v>40426848</v>
@@ -7730,20 +7995,20 @@
         <v>2023</v>
       </c>
       <c r="E4" s="14" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="F4" s="17">
         <f t="shared" ca="1" si="0"/>
-        <v>8102399.6000000006</v>
+        <v>8085831.6000000006</v>
       </c>
       <c r="G4" s="16">
         <f t="shared" ca="1" si="1"/>
-        <v>32324448.399999999</v>
+        <v>32341016.399999999</v>
       </c>
     </row>
     <row r="5" spans="2:7">
       <c r="B5" s="15" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="C5" s="16">
         <v>53896550.399999999</v>
@@ -7752,20 +8017,20 @@
         <v>2022</v>
       </c>
       <c r="E5" s="14" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="F5" s="17">
         <f t="shared" ca="1" si="0"/>
-        <v>10799226.08</v>
+        <v>10782771.08</v>
       </c>
       <c r="G5" s="16">
         <f t="shared" ca="1" si="1"/>
-        <v>43097324.32</v>
+        <v>43113779.32</v>
       </c>
     </row>
     <row r="6" spans="2:7" ht="30">
       <c r="B6" s="15" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="C6" s="16">
         <v>67366252.799999997</v>
@@ -7774,20 +8039,20 @@
         <v>2019</v>
       </c>
       <c r="E6" s="14" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="F6" s="17">
         <f t="shared" ca="1" si="0"/>
-        <v>13489836.560000001</v>
+        <v>13479015.560000001</v>
       </c>
       <c r="G6" s="16">
         <f t="shared" ca="1" si="1"/>
-        <v>53876416.239999995</v>
+        <v>53887237.239999995</v>
       </c>
     </row>
     <row r="7" spans="2:7" ht="30">
       <c r="B7" s="15" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="C7" s="16">
         <v>80835955.199999988</v>
@@ -7796,20 +8061,20 @@
         <v>2024</v>
       </c>
       <c r="E7" s="14" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="F7" s="17">
         <f t="shared" ca="1" si="0"/>
-        <v>16171635.039999999</v>
+        <v>16189551.039999999</v>
       </c>
       <c r="G7" s="16">
         <f t="shared" ca="1" si="1"/>
-        <v>64664320.159999989</v>
+        <v>64646404.159999989</v>
       </c>
     </row>
     <row r="8" spans="2:7">
       <c r="B8" s="15" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="C8" s="16">
         <v>94305657.600000009</v>
@@ -7818,20 +8083,20 @@
         <v>2023</v>
       </c>
       <c r="E8" s="14" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="F8" s="17">
         <f t="shared" ca="1" si="0"/>
-        <v>18882571.520000003</v>
+        <v>18869664.520000003</v>
       </c>
       <c r="G8" s="16">
         <f t="shared" ca="1" si="1"/>
-        <v>75423086.080000013</v>
+        <v>75435993.080000013</v>
       </c>
     </row>
     <row r="9" spans="2:7" ht="30">
       <c r="B9" s="15" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="C9" s="16">
         <v>107760576</v>
@@ -7840,20 +8105,20 @@
         <v>2022</v>
       </c>
       <c r="E9" s="14" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="F9" s="17">
         <f t="shared" ca="1" si="0"/>
-        <v>21553404.200000003</v>
+        <v>21561080.200000003</v>
       </c>
       <c r="G9" s="16">
         <f t="shared" ca="1" si="1"/>
-        <v>86207171.799999997</v>
+        <v>86199495.799999997</v>
       </c>
     </row>
     <row r="10" spans="2:7">
       <c r="B10" s="15" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="C10" s="16">
         <v>121082438.39999999</v>
@@ -7862,20 +8127,20 @@
         <v>2019</v>
       </c>
       <c r="E10" s="14" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="F10" s="17">
         <f t="shared" ca="1" si="0"/>
-        <v>24220290.68</v>
+        <v>24233359.68</v>
       </c>
       <c r="G10" s="16">
         <f t="shared" ca="1" si="1"/>
-        <v>96862147.719999999</v>
+        <v>96849078.719999999</v>
       </c>
     </row>
     <row r="11" spans="2:7" ht="30">
       <c r="B11" s="15" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="C11" s="16">
         <v>133073740.8</v>
@@ -7884,20 +8149,20 @@
         <v>2024</v>
       </c>
       <c r="E11" s="14" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="F11" s="17">
         <f t="shared" ca="1" si="0"/>
-        <v>26639037.16</v>
+        <v>26620542.16</v>
       </c>
       <c r="G11" s="16">
         <f t="shared" ca="1" si="1"/>
-        <v>106434703.64</v>
+        <v>106453198.64</v>
       </c>
     </row>
     <row r="12" spans="2:7">
       <c r="B12" s="15" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="C12" s="16">
         <v>146543443.19999999</v>
@@ -7906,20 +8171,20 @@
         <v>2023</v>
       </c>
       <c r="E12" s="14" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="F12" s="17">
         <f t="shared" ca="1" si="0"/>
-        <v>29326701.640000001</v>
+        <v>29326416.640000001</v>
       </c>
       <c r="G12" s="16">
         <f t="shared" ca="1" si="1"/>
-        <v>117216741.55999999</v>
+        <v>117217026.55999999</v>
       </c>
     </row>
     <row r="13" spans="2:7">
       <c r="B13" s="15" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="C13" s="16">
         <v>16608345.6</v>
@@ -7928,20 +8193,20 @@
         <v>2022</v>
       </c>
       <c r="E13" s="14" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="F13" s="17">
         <f t="shared" ca="1" si="0"/>
-        <v>3336032.12</v>
+        <v>3331513.12</v>
       </c>
       <c r="G13" s="16">
         <f t="shared" ca="1" si="1"/>
-        <v>13272313.48</v>
+        <v>13276832.48</v>
       </c>
     </row>
     <row r="14" spans="2:7">
       <c r="B14" s="15" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="C14" s="16">
         <v>33034848</v>
@@ -7950,20 +8215,20 @@
         <v>2019</v>
       </c>
       <c r="E14" s="14" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="F14" s="17">
         <f t="shared" ca="1" si="0"/>
-        <v>6614146.6000000006</v>
+        <v>6608761.6000000006</v>
       </c>
       <c r="G14" s="16">
         <f t="shared" ca="1" si="1"/>
-        <v>26420701.399999999</v>
+        <v>26426086.399999999</v>
       </c>
     </row>
     <row r="15" spans="2:7" ht="30">
       <c r="B15" s="15" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="C15" s="16">
         <v>49461350.399999999</v>
@@ -7972,20 +8237,20 @@
         <v>2020</v>
       </c>
       <c r="E15" s="14" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="F15" s="17">
         <f t="shared" ca="1" si="0"/>
-        <v>9916055.0800000001</v>
+        <v>9907328.0800000001</v>
       </c>
       <c r="G15" s="16">
         <f t="shared" ca="1" si="1"/>
-        <v>39545295.32</v>
+        <v>39554022.32</v>
       </c>
     </row>
     <row r="16" spans="2:7">
       <c r="B16" s="15" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="C16" s="16">
         <v>65887852.800000004</v>
@@ -7994,20 +8259,20 @@
         <v>2020</v>
       </c>
       <c r="E16" s="14" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="F16" s="17">
         <f t="shared" ca="1" si="0"/>
-        <v>13188240.560000002</v>
+        <v>13195101.560000002</v>
       </c>
       <c r="G16" s="16">
         <f t="shared" ca="1" si="1"/>
-        <v>52699612.240000002</v>
+        <v>52692751.240000002</v>
       </c>
     </row>
     <row r="17" spans="2:7">
       <c r="B17" s="15" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="C17" s="16">
         <v>82314355.199999988</v>
@@ -8016,20 +8281,20 @@
         <v>2020</v>
       </c>
       <c r="E17" s="14" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="F17" s="17">
         <f t="shared" ca="1" si="0"/>
-        <v>16476656.039999999</v>
+        <v>16468502.039999999</v>
       </c>
       <c r="G17" s="16">
         <f t="shared" ca="1" si="1"/>
-        <v>65837699.159999989</v>
+        <v>65845853.159999989</v>
       </c>
     </row>
     <row r="18" spans="2:7">
       <c r="B18" s="15" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="C18" s="16">
         <v>98740857.600000009</v>
@@ -8038,20 +8303,20 @@
         <v>2020</v>
       </c>
       <c r="E18" s="14" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="F18" s="17">
         <f t="shared" ca="1" si="0"/>
-        <v>19760841.520000003</v>
+        <v>19767885.520000003</v>
       </c>
       <c r="G18" s="16">
         <f t="shared" ca="1" si="1"/>
-        <v>78980016.080000013</v>
+        <v>78972972.080000013</v>
       </c>
     </row>
     <row r="19" spans="2:7" ht="30">
       <c r="B19" s="15" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="C19" s="16">
         <v>115152576</v>
@@ -8060,20 +8325,20 @@
         <v>2020</v>
       </c>
       <c r="E19" s="14" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="F19" s="17">
         <f t="shared" ca="1" si="0"/>
-        <v>23052059.200000003</v>
+        <v>23044801.200000003</v>
       </c>
       <c r="G19" s="16">
         <f t="shared" ca="1" si="1"/>
-        <v>92100516.799999997</v>
+        <v>92107774.799999997</v>
       </c>
     </row>
     <row r="20" spans="2:7">
       <c r="B20" s="15" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="C20" s="16">
         <v>131431238.39999999</v>
@@ -8082,20 +8347,20 @@
         <v>2020</v>
       </c>
       <c r="E20" s="14" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="F20" s="17">
         <f t="shared" ca="1" si="0"/>
-        <v>26296199.68</v>
+        <v>26305724.68</v>
       </c>
       <c r="G20" s="16">
         <f t="shared" ca="1" si="1"/>
-        <v>105135038.72</v>
+        <v>105125513.72</v>
       </c>
     </row>
     <row r="21" spans="2:7" ht="30">
       <c r="B21" s="15" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="C21" s="16">
         <v>146379340.79999998</v>
@@ -8104,20 +8369,20 @@
         <v>2017</v>
       </c>
       <c r="E21" s="14" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="F21" s="17">
         <f t="shared" ca="1" si="0"/>
-        <v>29278773.159999996</v>
+        <v>29295197.159999996</v>
       </c>
       <c r="G21" s="16">
         <f t="shared" ca="1" si="1"/>
-        <v>117100567.63999999</v>
+        <v>117084143.63999999</v>
       </c>
     </row>
     <row r="22" spans="2:7">
       <c r="B22" s="15" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="C22" s="16">
         <v>14965843.200000001</v>
@@ -8126,20 +8391,20 @@
         <v>2017</v>
       </c>
       <c r="E22" s="14" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="F22" s="17">
         <f t="shared" ca="1" si="0"/>
-        <v>3004335.6400000006</v>
+        <v>3016865.6400000006</v>
       </c>
       <c r="G22" s="16">
         <f t="shared" ca="1" si="1"/>
-        <v>11961507.560000001</v>
+        <v>11948977.560000001</v>
       </c>
     </row>
     <row r="23" spans="2:7">
       <c r="B23" s="15" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="C23" s="16">
         <v>31392345.599999998</v>
@@ -8148,20 +8413,20 @@
         <v>2017</v>
       </c>
       <c r="E23" s="14" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="F23" s="17">
         <f t="shared" ca="1" si="0"/>
-        <v>6290287.1200000001</v>
+        <v>6284913.1200000001</v>
       </c>
       <c r="G23" s="16">
         <f t="shared" ca="1" si="1"/>
-        <v>25102058.479999997</v>
+        <v>25107432.479999997</v>
       </c>
     </row>
     <row r="24" spans="2:7">
       <c r="B24" s="15" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="C24" s="16">
         <v>47818848</v>
@@ -8170,20 +8435,20 @@
         <v>2017</v>
       </c>
       <c r="E24" s="14" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="F24" s="17">
         <f t="shared" ca="1" si="0"/>
-        <v>9584797.5999999996</v>
+        <v>9573585.5999999996</v>
       </c>
       <c r="G24" s="16">
         <f t="shared" ca="1" si="1"/>
-        <v>38234050.399999999</v>
+        <v>38245262.399999999</v>
       </c>
     </row>
     <row r="25" spans="2:7" ht="30">
       <c r="B25" s="15" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="C25" s="16">
         <v>64245350.399999999</v>
@@ -8192,20 +8457,20 @@
         <v>2017</v>
       </c>
       <c r="E25" s="14" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="F25" s="17">
         <f t="shared" ca="1" si="0"/>
-        <v>12869404.08</v>
+        <v>12872594.08</v>
       </c>
       <c r="G25" s="16">
         <f t="shared" ca="1" si="1"/>
-        <v>51375946.32</v>
+        <v>51372756.32</v>
       </c>
     </row>
     <row r="26" spans="2:7">
       <c r="B26" s="15" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="C26" s="16">
         <v>80671852.799999997</v>
@@ -8214,20 +8479,20 @@
         <v>2017</v>
       </c>
       <c r="E26" s="14" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="F26" s="17">
         <f t="shared" ca="1" si="0"/>
-        <v>16158838.560000001</v>
+        <v>16154357.560000001</v>
       </c>
       <c r="G26" s="16">
         <f t="shared" ca="1" si="1"/>
-        <v>64513014.239999995</v>
+        <v>64517495.239999995</v>
       </c>
     </row>
     <row r="27" spans="2:7" ht="30">
       <c r="B27" s="15" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="C27" s="16">
         <v>97098355.199999988</v>
@@ -8236,20 +8501,20 @@
         <v>2017</v>
       </c>
       <c r="E27" s="14" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="F27" s="17">
         <f t="shared" ca="1" si="0"/>
-        <v>19443731.039999999</v>
+        <v>19432537.039999999</v>
       </c>
       <c r="G27" s="16">
         <f t="shared" ca="1" si="1"/>
-        <v>77654624.159999996</v>
+        <v>77665818.159999996</v>
       </c>
     </row>
     <row r="28" spans="2:7">
       <c r="B28" s="15" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="C28" s="16">
         <v>113524857.60000001</v>
@@ -8258,20 +8523,20 @@
         <v>2015</v>
       </c>
       <c r="E28" s="14" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="F28" s="17">
         <f t="shared" ca="1" si="0"/>
-        <v>22705947.520000003</v>
+        <v>22718368.520000003</v>
       </c>
       <c r="G28" s="16">
         <f t="shared" ca="1" si="1"/>
-        <v>90818910.080000013</v>
+        <v>90806489.080000013</v>
       </c>
     </row>
     <row r="29" spans="2:7">
       <c r="B29" s="15" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="C29" s="16">
         <v>129936576</v>
@@ -8280,20 +8545,20 @@
         <v>2015</v>
       </c>
       <c r="E29" s="14" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="F29" s="17">
         <f t="shared" ca="1" si="0"/>
-        <v>25994755.200000003</v>
+        <v>25988262.200000003</v>
       </c>
       <c r="G29" s="16">
         <f t="shared" ca="1" si="1"/>
-        <v>103941820.8</v>
+        <v>103948313.8</v>
       </c>
     </row>
     <row r="30" spans="2:7" ht="30">
       <c r="B30" s="15" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="C30" s="16">
         <v>146215238.40000001</v>
@@ -8302,20 +8567,20 @@
         <v>2015</v>
       </c>
       <c r="E30" s="14" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="F30" s="17">
         <f t="shared" ca="1" si="0"/>
-        <v>29251209.680000003</v>
+        <v>29260376.680000003</v>
       </c>
       <c r="G30" s="16">
         <f t="shared" ca="1" si="1"/>
-        <v>116964028.72</v>
+        <v>116954861.72</v>
       </c>
     </row>
     <row r="31" spans="2:7">
       <c r="B31" s="15" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="C31" s="16">
         <v>28107340.799999997</v>
@@ -8324,20 +8589,20 @@
         <v>2015</v>
       </c>
       <c r="E31" s="14" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="F31" s="17">
         <f t="shared" ca="1" si="0"/>
-        <v>5621823.1600000001</v>
+        <v>5624754.1600000001</v>
       </c>
       <c r="G31" s="16">
         <f t="shared" ca="1" si="1"/>
-        <v>22485517.639999997</v>
+        <v>22482586.639999997</v>
       </c>
     </row>
     <row r="32" spans="2:7">
       <c r="B32" s="15" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="C32" s="16">
         <v>44533843.199999996</v>
@@ -8346,20 +8611,20 @@
         <v>2015</v>
       </c>
       <c r="E32" s="14" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="F32" s="17">
         <f t="shared" ca="1" si="0"/>
-        <v>8920585.6399999987</v>
+        <v>8911603.6399999987</v>
       </c>
       <c r="G32" s="16">
         <f t="shared" ca="1" si="1"/>
-        <v>35613257.559999995</v>
+        <v>35622239.559999995</v>
       </c>
     </row>
     <row r="33" spans="2:7" ht="30">
       <c r="B33" s="15" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="C33" s="16">
         <v>60960345.599999994</v>
@@ -8368,20 +8633,20 @@
         <v>2015</v>
       </c>
       <c r="E33" s="14" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="F33" s="17">
         <f t="shared" ca="1" si="0"/>
-        <v>12204372.119999999</v>
+        <v>12201947.119999999</v>
       </c>
       <c r="G33" s="16">
         <f t="shared" ca="1" si="1"/>
-        <v>48755973.479999997</v>
+        <v>48758398.479999997</v>
       </c>
     </row>
     <row r="34" spans="2:7">
       <c r="B34" s="15" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="C34" s="16">
         <v>77386848</v>
@@ -8390,20 +8655,20 @@
         <v>2015</v>
       </c>
       <c r="E34" s="14" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="F34" s="17">
         <f t="shared" ca="1" si="0"/>
-        <v>15486091.600000001</v>
+        <v>15499585.600000001</v>
       </c>
       <c r="G34" s="16">
         <f t="shared" ca="1" si="1"/>
-        <v>61900756.399999999</v>
+        <v>61887262.399999999</v>
       </c>
     </row>
     <row r="35" spans="2:7">
       <c r="B35" s="15" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="C35" s="16">
         <v>93813350.399999991</v>
@@ -8412,20 +8677,20 @@
         <v>2015</v>
       </c>
       <c r="E35" s="14" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="F35" s="17">
         <f t="shared" ca="1" si="0"/>
-        <v>18777712.079999998</v>
+        <v>18772995.079999998</v>
       </c>
       <c r="G35" s="16">
         <f t="shared" ca="1" si="1"/>
-        <v>75035638.319999993</v>
+        <v>75040355.319999993</v>
       </c>
     </row>
     <row r="36" spans="2:7" ht="30">
       <c r="B36" s="15" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="C36" s="16">
         <v>110239852.8</v>
@@ -8434,20 +8699,20 @@
         <v>2015</v>
       </c>
       <c r="E36" s="14" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="F36" s="17">
         <f t="shared" ca="1" si="0"/>
-        <v>22065277.560000002</v>
+        <v>22071247.560000002</v>
       </c>
       <c r="G36" s="16">
         <f t="shared" ca="1" si="1"/>
-        <v>88174575.239999995</v>
+        <v>88168605.239999995</v>
       </c>
     </row>
     <row r="37" spans="2:7">
       <c r="B37" s="15" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="C37" s="16">
         <v>126666355.19999999</v>
@@ -8456,20 +8721,20 @@
         <v>2015</v>
       </c>
       <c r="E37" s="14" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="F37" s="17">
         <f t="shared" ca="1" si="0"/>
-        <v>25338924.039999999</v>
+        <v>25354408.039999999</v>
       </c>
       <c r="G37" s="16">
         <f t="shared" ca="1" si="1"/>
-        <v>101327431.16</v>
+        <v>101311947.16</v>
       </c>
     </row>
     <row r="38" spans="2:7">
       <c r="B38" s="15" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="C38" s="16">
         <v>143092857.59999999</v>
@@ -8478,20 +8743,20 @@
         <v>2015</v>
       </c>
       <c r="E38" s="14" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="F38" s="17">
         <f t="shared" ca="1" si="0"/>
-        <v>28643012.52</v>
+        <v>28629938.52</v>
       </c>
       <c r="G38" s="16">
         <f t="shared" ca="1" si="1"/>
-        <v>114449845.08</v>
+        <v>114462919.08</v>
       </c>
     </row>
     <row r="39" spans="2:7" ht="30">
       <c r="B39" s="15" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="C39" s="16">
         <v>26448576</v>
@@ -8500,20 +8765,20 @@
         <v>2015</v>
       </c>
       <c r="E39" s="14" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="F39" s="17">
         <f t="shared" ca="1" si="0"/>
-        <v>5300890.2</v>
+        <v>5299906.2</v>
       </c>
       <c r="G39" s="16">
         <f t="shared" ca="1" si="1"/>
-        <v>21147685.800000001</v>
+        <v>21148669.800000001</v>
       </c>
     </row>
     <row r="40" spans="2:7">
       <c r="B40" s="15" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="C40" s="16">
         <v>42727238.399999999</v>
@@ -8522,20 +8787,20 @@
         <v>2015</v>
       </c>
       <c r="E40" s="14" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="F40" s="17">
         <f t="shared" ca="1" si="0"/>
-        <v>8560746.6799999997</v>
+        <v>8546681.6799999997</v>
       </c>
       <c r="G40" s="16">
         <f t="shared" ca="1" si="1"/>
-        <v>34166491.719999999</v>
+        <v>34180556.719999999</v>
       </c>
     </row>
     <row r="41" spans="2:7">
       <c r="B41" s="15" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="C41" s="16">
         <v>57675340.800000004</v>
@@ -8544,20 +8809,20 @@
         <v>2015</v>
       </c>
       <c r="E41" s="14" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="F41" s="17">
         <f t="shared" ca="1" si="0"/>
-        <v>11545792.160000002</v>
+        <v>11551153.160000002</v>
       </c>
       <c r="G41" s="16">
         <f t="shared" ca="1" si="1"/>
-        <v>46129548.640000001</v>
+        <v>46124187.640000001</v>
       </c>
     </row>
     <row r="42" spans="2:7">
       <c r="B42" s="15" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="C42" s="16">
         <v>74101843.200000003</v>
@@ -8566,15 +8831,15 @@
         <v>2015</v>
       </c>
       <c r="E42" s="14" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="F42" s="17">
         <f t="shared" ca="1" si="0"/>
-        <v>14843497.640000001</v>
+        <v>14824054.640000001</v>
       </c>
       <c r="G42" s="16">
         <f t="shared" ca="1" si="1"/>
-        <v>59258345.560000002</v>
+        <v>59277788.560000002</v>
       </c>
     </row>
   </sheetData>
@@ -8582,7 +8847,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F67618C1-C8A0-47B6-8B25-F487EA031E1F}">
   <dimension ref="B2:F44"/>
   <sheetViews>
@@ -8610,10 +8875,10 @@
         <v>75</v>
       </c>
       <c r="E2" s="20" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="F2" s="20" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
     </row>
     <row r="3" spans="2:6">
@@ -8720,7 +8985,7 @@
     </row>
     <row r="43" spans="2:6">
       <c r="B43" s="19" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="C43" s="19">
         <v>6</v>
@@ -8738,7 +9003,7 @@
     </row>
     <row r="44" spans="2:6">
       <c r="B44" s="19" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="C44" s="19">
         <v>7</v>
@@ -8759,7 +9024,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{63958FAE-3AAE-44C0-9CCD-F6FFBDEF2641}">
   <dimension ref="A1:H51"/>
   <sheetViews>
@@ -8793,13 +9058,13 @@
         <v>80</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="G1" s="8" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="H1" s="8" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
     </row>
     <row r="2" spans="1:8">
@@ -8819,10 +9084,10 @@
         <v>4</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="H2" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -8844,10 +9109,10 @@
       </c>
       <c r="F3" s="3"/>
       <c r="G3" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="H3" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -8868,10 +9133,10 @@
         <v>10</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="H4" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -8892,10 +9157,10 @@
         <v>11</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="H5" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -8916,10 +9181,10 @@
         <v>13</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="H6" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -8941,10 +9206,10 @@
         <v>5</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="H7" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -8966,10 +9231,10 @@
         <v>7</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="H8" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -8991,10 +9256,10 @@
         <v>10</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="H9" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -9016,10 +9281,10 @@
         <v>11</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="H10" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -9041,10 +9306,10 @@
         <v>13</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="H11" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -9066,7 +9331,7 @@
         <v>6</v>
       </c>
       <c r="F12" s="3" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -9088,10 +9353,10 @@
         <v>7</v>
       </c>
       <c r="F13" s="3" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="H13" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -9113,7 +9378,7 @@
         <v>10</v>
       </c>
       <c r="F14" s="3" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -9136,7 +9401,7 @@
       </c>
       <c r="F15" s="3"/>
       <c r="G15" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -9158,7 +9423,7 @@
         <v>13</v>
       </c>
       <c r="F16" s="3" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -9180,10 +9445,10 @@
         <v>6</v>
       </c>
       <c r="F17" s="3" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="H17" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -9205,7 +9470,7 @@
         <v>8</v>
       </c>
       <c r="F18" s="3" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -9227,7 +9492,7 @@
         <v>10</v>
       </c>
       <c r="F19" s="3" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -9249,7 +9514,7 @@
         <v>11</v>
       </c>
       <c r="F20" s="3" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -9272,7 +9537,7 @@
       </c>
       <c r="F21" s="3"/>
       <c r="G21" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -9294,7 +9559,7 @@
         <v>5</v>
       </c>
       <c r="F22" s="3" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -9316,7 +9581,7 @@
         <v>8</v>
       </c>
       <c r="F23" s="3" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -9338,7 +9603,7 @@
         <v>10</v>
       </c>
       <c r="F24" s="3" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -9360,7 +9625,7 @@
         <v>11</v>
       </c>
       <c r="F25" s="3" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -9382,7 +9647,7 @@
         <v>13</v>
       </c>
       <c r="F26" s="3" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -9404,7 +9669,7 @@
         <v>6</v>
       </c>
       <c r="F27" s="3" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -9426,10 +9691,10 @@
         <v>8</v>
       </c>
       <c r="F28" s="3" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="H28" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -9451,10 +9716,10 @@
         <v>10</v>
       </c>
       <c r="F29" s="3" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="H29" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -9476,7 +9741,7 @@
         <v>12</v>
       </c>
       <c r="F30" s="3" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -9498,7 +9763,7 @@
         <v>13</v>
       </c>
       <c r="F31" s="3" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -9521,7 +9786,7 @@
       </c>
       <c r="F32" s="3"/>
       <c r="G32" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -9543,10 +9808,10 @@
         <v>8</v>
       </c>
       <c r="F33" s="3" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="H33" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -9568,10 +9833,10 @@
         <v>10</v>
       </c>
       <c r="F34" s="3" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="H34" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -9593,10 +9858,10 @@
         <v>12</v>
       </c>
       <c r="F35" s="3" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="H35" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -9618,10 +9883,10 @@
         <v>13</v>
       </c>
       <c r="F36" s="3" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="H36" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -9643,7 +9908,7 @@
         <v>6</v>
       </c>
       <c r="F37" s="3" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -9665,7 +9930,7 @@
         <v>8</v>
       </c>
       <c r="F38" s="3" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -9687,7 +9952,7 @@
         <v>10</v>
       </c>
       <c r="F39" s="3" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -9709,10 +9974,10 @@
         <v>12</v>
       </c>
       <c r="F40" s="3" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="H40" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -9734,10 +9999,10 @@
         <v>13</v>
       </c>
       <c r="F41" s="3" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="H41" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -9759,7 +10024,7 @@
         <v>4</v>
       </c>
       <c r="F42" s="3" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -9781,7 +10046,7 @@
         <v>9</v>
       </c>
       <c r="F43" s="3" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -9803,7 +10068,7 @@
         <v>10</v>
       </c>
       <c r="F44" s="3" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -9825,7 +10090,7 @@
         <v>12</v>
       </c>
       <c r="F45" s="3" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -9847,7 +10112,7 @@
         <v>13</v>
       </c>
       <c r="F46" s="3" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -9869,7 +10134,7 @@
         <v>5</v>
       </c>
       <c r="F47" s="3" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -9891,7 +10156,7 @@
         <v>9</v>
       </c>
       <c r="F48" s="3" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
     </row>
     <row r="49" spans="1:6">
@@ -9913,7 +10178,7 @@
         <v>10</v>
       </c>
       <c r="F49" s="3" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
     </row>
     <row r="50" spans="1:6">
@@ -9935,7 +10200,7 @@
         <v>12</v>
       </c>
       <c r="F50" s="3" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
     </row>
     <row r="51" spans="1:6">
@@ -9957,552 +10222,7 @@
         <v>13</v>
       </c>
       <c r="F51" s="3" t="s">
-        <v>166</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0ABFBA4B-6F4E-444D-93B2-E23E2D3BEB6D}">
-  <dimension ref="A1:I25"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F1" sqref="F1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:9" ht="30">
-      <c r="A1" s="23" t="s">
-        <v>172</v>
-      </c>
-      <c r="B1" s="23" t="s">
-        <v>173</v>
-      </c>
-      <c r="C1" s="23" t="s">
-        <v>174</v>
-      </c>
-      <c r="D1" s="23" t="s">
-        <v>175</v>
-      </c>
-      <c r="E1" s="24" t="s">
-        <v>176</v>
-      </c>
-      <c r="I1" s="23" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9">
-      <c r="A2" t="s">
-        <v>178</v>
-      </c>
-      <c r="B2" t="s">
-        <v>179</v>
-      </c>
-      <c r="C2" t="s">
-        <v>178</v>
-      </c>
-      <c r="D2">
-        <v>21</v>
-      </c>
-      <c r="E2">
-        <v>1</v>
-      </c>
-      <c r="H2" t="s">
-        <v>179</v>
-      </c>
-      <c r="I2" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9">
-      <c r="A3" t="s">
-        <v>181</v>
-      </c>
-      <c r="B3" t="s">
-        <v>182</v>
-      </c>
-      <c r="C3" t="s">
-        <v>181</v>
-      </c>
-      <c r="D3">
-        <v>20</v>
-      </c>
-      <c r="E3">
-        <v>2</v>
-      </c>
-      <c r="H3" t="s">
-        <v>182</v>
-      </c>
-      <c r="I3" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9">
-      <c r="A4" t="s">
-        <v>170</v>
-      </c>
-      <c r="B4" t="s">
-        <v>184</v>
-      </c>
-      <c r="C4" t="s">
-        <v>170</v>
-      </c>
-      <c r="D4">
-        <v>19</v>
-      </c>
-      <c r="E4">
-        <v>3</v>
-      </c>
-      <c r="H4" t="s">
-        <v>184</v>
-      </c>
-      <c r="I4" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9">
-      <c r="A5" t="s">
-        <v>160</v>
-      </c>
-      <c r="B5" t="s">
-        <v>161</v>
-      </c>
-      <c r="C5" t="s">
-        <v>160</v>
-      </c>
-      <c r="D5">
-        <v>18</v>
-      </c>
-      <c r="E5">
-        <v>4</v>
-      </c>
-      <c r="H5" t="s">
-        <v>161</v>
-      </c>
-      <c r="I5" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9">
-      <c r="A6" t="s">
-        <v>163</v>
-      </c>
-      <c r="B6" t="s">
-        <v>162</v>
-      </c>
-      <c r="C6" t="s">
-        <v>163</v>
-      </c>
-      <c r="D6">
-        <v>17</v>
-      </c>
-      <c r="E6">
-        <v>5</v>
-      </c>
-      <c r="H6" t="s">
-        <v>162</v>
-      </c>
-      <c r="I6" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9">
-      <c r="A7" t="s">
-        <v>158</v>
-      </c>
-      <c r="B7" t="s">
-        <v>159</v>
-      </c>
-      <c r="C7" t="s">
-        <v>158</v>
-      </c>
-      <c r="D7">
-        <v>16</v>
-      </c>
-      <c r="E7">
-        <v>6</v>
-      </c>
-      <c r="H7" t="s">
-        <v>159</v>
-      </c>
-      <c r="I7" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9">
-      <c r="A8" t="s">
-        <v>167</v>
-      </c>
-      <c r="B8" t="s">
-        <v>164</v>
-      </c>
-      <c r="C8" t="s">
-        <v>167</v>
-      </c>
-      <c r="D8">
-        <v>15</v>
-      </c>
-      <c r="E8">
-        <v>7</v>
-      </c>
-      <c r="H8" t="s">
-        <v>164</v>
-      </c>
-      <c r="I8" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9">
-      <c r="A9" t="s">
-        <v>166</v>
-      </c>
-      <c r="B9" t="s">
-        <v>190</v>
-      </c>
-      <c r="C9" t="s">
-        <v>166</v>
-      </c>
-      <c r="D9">
-        <v>14</v>
-      </c>
-      <c r="E9">
-        <v>8</v>
-      </c>
-      <c r="H9" t="s">
-        <v>190</v>
-      </c>
-      <c r="I9" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9">
-      <c r="A10" t="s">
-        <v>165</v>
-      </c>
-      <c r="B10" t="s">
-        <v>192</v>
-      </c>
-      <c r="C10" t="s">
-        <v>165</v>
-      </c>
-      <c r="D10">
-        <v>13</v>
-      </c>
-      <c r="E10">
-        <v>9</v>
-      </c>
-      <c r="H10" t="s">
-        <v>192</v>
-      </c>
-      <c r="I10" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9">
-      <c r="A11" t="s">
-        <v>194</v>
-      </c>
-      <c r="B11" t="s">
-        <v>195</v>
-      </c>
-      <c r="C11" t="s">
-        <v>194</v>
-      </c>
-      <c r="D11">
-        <v>12</v>
-      </c>
-      <c r="E11">
-        <v>10</v>
-      </c>
-      <c r="H11" t="s">
-        <v>195</v>
-      </c>
-      <c r="I11" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9">
-      <c r="A12" t="s">
-        <v>171</v>
-      </c>
-      <c r="B12" t="s">
-        <v>197</v>
-      </c>
-      <c r="C12" t="s">
-        <v>171</v>
-      </c>
-      <c r="D12">
-        <v>11</v>
-      </c>
-      <c r="E12">
-        <v>11</v>
-      </c>
-      <c r="H12" t="s">
-        <v>197</v>
-      </c>
-      <c r="I12" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9">
-      <c r="A13" t="s">
-        <v>199</v>
-      </c>
-      <c r="B13" t="s">
-        <v>200</v>
-      </c>
-      <c r="C13" t="s">
-        <v>199</v>
-      </c>
-      <c r="D13">
-        <v>10</v>
-      </c>
-      <c r="E13">
-        <v>12</v>
-      </c>
-      <c r="H13" t="s">
-        <v>200</v>
-      </c>
-      <c r="I13" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9">
-      <c r="A14" t="s">
-        <v>202</v>
-      </c>
-      <c r="B14" t="s">
-        <v>203</v>
-      </c>
-      <c r="C14" t="s">
-        <v>202</v>
-      </c>
-      <c r="D14">
-        <v>9</v>
-      </c>
-      <c r="E14">
-        <v>13</v>
-      </c>
-      <c r="H14" t="s">
-        <v>203</v>
-      </c>
-      <c r="I14" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9">
-      <c r="A15" t="s">
-        <v>169</v>
-      </c>
-      <c r="B15" t="s">
-        <v>205</v>
-      </c>
-      <c r="C15" t="s">
-        <v>169</v>
-      </c>
-      <c r="D15">
-        <v>8</v>
-      </c>
-      <c r="E15">
-        <v>14</v>
-      </c>
-      <c r="H15" t="s">
-        <v>205</v>
-      </c>
-      <c r="I15" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9">
-      <c r="A16" t="s">
-        <v>207</v>
-      </c>
-      <c r="B16" t="s">
-        <v>208</v>
-      </c>
-      <c r="C16" t="s">
-        <v>207</v>
-      </c>
-      <c r="D16">
-        <v>7</v>
-      </c>
-      <c r="E16">
-        <v>15</v>
-      </c>
-      <c r="H16" t="s">
-        <v>208</v>
-      </c>
-      <c r="I16" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9">
-      <c r="A17" t="s">
-        <v>210</v>
-      </c>
-      <c r="B17" t="s">
-        <v>211</v>
-      </c>
-      <c r="C17" t="s">
-        <v>210</v>
-      </c>
-      <c r="D17">
-        <v>6</v>
-      </c>
-      <c r="E17">
-        <v>16</v>
-      </c>
-      <c r="H17" t="s">
-        <v>211</v>
-      </c>
-      <c r="I17" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9">
-      <c r="A18" t="s">
-        <v>213</v>
-      </c>
-      <c r="B18" t="s">
-        <v>214</v>
-      </c>
-      <c r="C18" t="s">
-        <v>213</v>
-      </c>
-      <c r="D18">
-        <v>5</v>
-      </c>
-      <c r="E18">
-        <v>17</v>
-      </c>
-      <c r="H18" t="s">
-        <v>214</v>
-      </c>
-      <c r="I18" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9">
-      <c r="A19" t="s">
-        <v>216</v>
-      </c>
-      <c r="B19" t="s">
-        <v>217</v>
-      </c>
-      <c r="C19" t="s">
-        <v>216</v>
-      </c>
-      <c r="D19">
-        <v>4</v>
-      </c>
-      <c r="E19">
-        <v>17</v>
-      </c>
-      <c r="H19" t="s">
-        <v>217</v>
-      </c>
-      <c r="I19" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9">
-      <c r="A20" t="s">
-        <v>219</v>
-      </c>
-      <c r="B20" t="s">
-        <v>220</v>
-      </c>
-      <c r="C20" t="s">
-        <v>219</v>
-      </c>
-      <c r="D20">
-        <v>3</v>
-      </c>
-      <c r="E20">
-        <v>17</v>
-      </c>
-      <c r="H20" t="s">
-        <v>220</v>
-      </c>
-      <c r="I20" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9">
-      <c r="A21" t="s">
-        <v>222</v>
-      </c>
-      <c r="B21" t="s">
-        <v>223</v>
-      </c>
-      <c r="C21" t="s">
-        <v>222</v>
-      </c>
-      <c r="D21">
-        <v>2</v>
-      </c>
-      <c r="E21">
-        <v>17</v>
-      </c>
-      <c r="H21" t="s">
-        <v>223</v>
-      </c>
-      <c r="I21" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9">
-      <c r="C22" t="s">
-        <v>225</v>
-      </c>
-      <c r="D22">
-        <v>2</v>
-      </c>
-      <c r="E22">
-        <v>17</v>
-      </c>
-      <c r="H22" t="s">
-        <v>225</v>
-      </c>
-      <c r="I22" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9">
-      <c r="A23" t="s">
-        <v>226</v>
-      </c>
-      <c r="B23" t="s">
-        <v>225</v>
-      </c>
-      <c r="C23" t="s">
-        <v>227</v>
-      </c>
-      <c r="D23">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9">
-      <c r="A24" t="s">
-        <v>228</v>
-      </c>
-      <c r="C24" t="s">
-        <v>229</v>
-      </c>
-      <c r="D24">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9">
-      <c r="C25" t="s">
-        <v>228</v>
-      </c>
-      <c r="D25">
-        <v>1</v>
+        <v>168</v>
       </c>
     </row>
   </sheetData>
@@ -10511,250 +10231,414 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4B544F5F-0950-4088-9E92-9369CD9B8522}">
-  <dimension ref="A1:J18"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0ABFBA4B-6F4E-444D-93B2-E23E2D3BEB6D}">
+  <dimension ref="A1:E25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J22" sqref="H1:J22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="1" width="21.42578125" customWidth="1"/>
-    <col min="2" max="2" width="22.7109375" customWidth="1"/>
-    <col min="3" max="3" width="10" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="22.85546875" customWidth="1"/>
-    <col min="6" max="6" width="23.42578125" customWidth="1"/>
-    <col min="9" max="9" width="21.85546875" customWidth="1"/>
-    <col min="10" max="10" width="22.7109375" customWidth="1"/>
-  </cols>
   <sheetData>
-    <row r="1" spans="1:10">
-      <c r="A1" s="27" t="s">
-        <v>230</v>
-      </c>
-      <c r="B1" s="27" t="s">
-        <v>231</v>
-      </c>
-      <c r="E1" s="28" t="s">
+    <row r="1" spans="1:5" ht="30.75">
+      <c r="A1" s="23" t="s">
+        <v>174</v>
+      </c>
+      <c r="B1" s="23" t="s">
+        <v>175</v>
+      </c>
+      <c r="C1" s="23" t="s">
+        <v>176</v>
+      </c>
+      <c r="D1" s="23" t="s">
+        <v>177</v>
+      </c>
+      <c r="E1" s="24" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" t="s">
+        <v>179</v>
+      </c>
+      <c r="B2" t="s">
+        <v>180</v>
+      </c>
+      <c r="C2" t="s">
+        <v>179</v>
+      </c>
+      <c r="D2">
+        <v>21</v>
+      </c>
+      <c r="E2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" t="s">
+        <v>181</v>
+      </c>
+      <c r="B3" t="s">
+        <v>182</v>
+      </c>
+      <c r="C3" t="s">
+        <v>181</v>
+      </c>
+      <c r="D3">
+        <v>20</v>
+      </c>
+      <c r="E3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" t="s">
+        <v>172</v>
+      </c>
+      <c r="B4" t="s">
+        <v>183</v>
+      </c>
+      <c r="C4" t="s">
+        <v>172</v>
+      </c>
+      <c r="D4">
+        <v>19</v>
+      </c>
+      <c r="E4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" t="s">
+        <v>162</v>
+      </c>
+      <c r="B5" t="s">
+        <v>163</v>
+      </c>
+      <c r="C5" t="s">
+        <v>162</v>
+      </c>
+      <c r="D5">
+        <v>18</v>
+      </c>
+      <c r="E5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" t="s">
+        <v>165</v>
+      </c>
+      <c r="B6" t="s">
+        <v>164</v>
+      </c>
+      <c r="C6" t="s">
+        <v>165</v>
+      </c>
+      <c r="D6">
+        <v>17</v>
+      </c>
+      <c r="E6">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" t="s">
+        <v>160</v>
+      </c>
+      <c r="B7" t="s">
+        <v>161</v>
+      </c>
+      <c r="C7" t="s">
+        <v>160</v>
+      </c>
+      <c r="D7">
+        <v>16</v>
+      </c>
+      <c r="E7">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" t="s">
+        <v>169</v>
+      </c>
+      <c r="B8" t="s">
+        <v>166</v>
+      </c>
+      <c r="C8" t="s">
+        <v>169</v>
+      </c>
+      <c r="D8">
+        <v>15</v>
+      </c>
+      <c r="E8">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" t="s">
+        <v>168</v>
+      </c>
+      <c r="B9" t="s">
+        <v>184</v>
+      </c>
+      <c r="C9" t="s">
+        <v>168</v>
+      </c>
+      <c r="D9">
+        <v>14</v>
+      </c>
+      <c r="E9">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" t="s">
+        <v>167</v>
+      </c>
+      <c r="B10" t="s">
+        <v>185</v>
+      </c>
+      <c r="C10" t="s">
+        <v>167</v>
+      </c>
+      <c r="D10">
+        <v>13</v>
+      </c>
+      <c r="E10">
         <v>9</v>
       </c>
-      <c r="F1" s="28" t="s">
-        <v>232</v>
-      </c>
-      <c r="I1" s="29" t="s">
-        <v>233</v>
-      </c>
-      <c r="J1" s="29" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10">
-      <c r="A2" s="30">
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" t="s">
+        <v>186</v>
+      </c>
+      <c r="B11" t="s">
+        <v>187</v>
+      </c>
+      <c r="C11" t="s">
+        <v>186</v>
+      </c>
+      <c r="D11">
+        <v>12</v>
+      </c>
+      <c r="E11">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12" t="s">
+        <v>173</v>
+      </c>
+      <c r="B12" t="s">
+        <v>188</v>
+      </c>
+      <c r="C12" t="s">
+        <v>173</v>
+      </c>
+      <c r="D12">
+        <v>11</v>
+      </c>
+      <c r="E12">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13" t="s">
+        <v>189</v>
+      </c>
+      <c r="B13" t="s">
+        <v>190</v>
+      </c>
+      <c r="C13" t="s">
+        <v>189</v>
+      </c>
+      <c r="D13">
+        <v>10</v>
+      </c>
+      <c r="E13">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14" t="s">
+        <v>191</v>
+      </c>
+      <c r="B14" t="s">
+        <v>192</v>
+      </c>
+      <c r="C14" t="s">
+        <v>191</v>
+      </c>
+      <c r="D14">
+        <v>9</v>
+      </c>
+      <c r="E14">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="A15" t="s">
+        <v>171</v>
+      </c>
+      <c r="B15" t="s">
+        <v>193</v>
+      </c>
+      <c r="C15" t="s">
+        <v>171</v>
+      </c>
+      <c r="D15">
+        <v>8</v>
+      </c>
+      <c r="E15">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="A16" t="s">
+        <v>194</v>
+      </c>
+      <c r="B16" t="s">
+        <v>195</v>
+      </c>
+      <c r="C16" t="s">
+        <v>194</v>
+      </c>
+      <c r="D16">
+        <v>7</v>
+      </c>
+      <c r="E16">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
+      <c r="A17" t="s">
+        <v>196</v>
+      </c>
+      <c r="B17" t="s">
+        <v>197</v>
+      </c>
+      <c r="C17" t="s">
+        <v>196</v>
+      </c>
+      <c r="D17">
+        <v>6</v>
+      </c>
+      <c r="E17">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
+      <c r="A18" t="s">
+        <v>198</v>
+      </c>
+      <c r="B18" t="s">
+        <v>199</v>
+      </c>
+      <c r="C18" t="s">
+        <v>198</v>
+      </c>
+      <c r="D18">
+        <v>5</v>
+      </c>
+      <c r="E18">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5">
+      <c r="A19" t="s">
+        <v>200</v>
+      </c>
+      <c r="B19" t="s">
+        <v>201</v>
+      </c>
+      <c r="C19" t="s">
+        <v>200</v>
+      </c>
+      <c r="D19">
+        <v>4</v>
+      </c>
+      <c r="E19">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5">
+      <c r="A20" t="s">
+        <v>202</v>
+      </c>
+      <c r="B20" t="s">
+        <v>203</v>
+      </c>
+      <c r="C20" t="s">
+        <v>202</v>
+      </c>
+      <c r="D20">
+        <v>3</v>
+      </c>
+      <c r="E20">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5">
+      <c r="A21" t="s">
+        <v>204</v>
+      </c>
+      <c r="B21" t="s">
+        <v>205</v>
+      </c>
+      <c r="C21" t="s">
+        <v>204</v>
+      </c>
+      <c r="D21">
+        <v>2</v>
+      </c>
+      <c r="E21">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5">
+      <c r="C22" t="s">
+        <v>206</v>
+      </c>
+      <c r="D22">
+        <v>2</v>
+      </c>
+      <c r="E22">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5">
+      <c r="A23" t="s">
+        <v>207</v>
+      </c>
+      <c r="B23" t="s">
+        <v>206</v>
+      </c>
+      <c r="C23" t="s">
+        <v>208</v>
+      </c>
+      <c r="D23">
         <v>1</v>
       </c>
-      <c r="B2" s="32">
-        <v>126000000</v>
-      </c>
-      <c r="E2" s="31" t="s">
-        <v>12</v>
-      </c>
-      <c r="F2" s="32">
-        <v>100000000</v>
-      </c>
-      <c r="I2">
+    </row>
+    <row r="24" spans="1:5">
+      <c r="A24" t="s">
+        <v>209</v>
+      </c>
+      <c r="C24" t="s">
+        <v>210</v>
+      </c>
+      <c r="D24">
         <v>1</v>
       </c>
-      <c r="J2" s="32">
-        <v>550000000</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10">
-      <c r="A3" s="30">
-        <v>2</v>
-      </c>
-      <c r="B3" s="32">
-        <v>111600000</v>
-      </c>
-      <c r="E3" s="31" t="s">
-        <v>40</v>
-      </c>
-      <c r="F3" s="32">
-        <v>300000000</v>
-      </c>
-      <c r="I3">
-        <v>2</v>
-      </c>
-      <c r="J3" s="32">
-        <v>500000000</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10">
-      <c r="A4" s="30">
-        <v>3</v>
-      </c>
-      <c r="B4" s="32">
-        <v>110800000</v>
-      </c>
-      <c r="E4" s="31" t="s">
-        <v>15</v>
-      </c>
-      <c r="F4" s="32">
-        <v>390000000</v>
-      </c>
-      <c r="I4">
-        <v>3</v>
-      </c>
-      <c r="J4" s="32">
-        <v>800000000</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10">
-      <c r="A5" s="30">
-        <v>4</v>
-      </c>
-      <c r="B5" s="32">
-        <v>103680000</v>
-      </c>
-      <c r="E5" s="31" t="s">
-        <v>47</v>
-      </c>
-      <c r="F5" s="32">
-        <v>180000000</v>
-      </c>
-      <c r="I5">
-        <v>4</v>
-      </c>
-      <c r="J5" s="32">
-        <v>1050000000</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10">
-      <c r="A6" s="30">
-        <v>5</v>
-      </c>
-      <c r="B6" s="32">
-        <v>102272000</v>
-      </c>
-      <c r="E6" s="31" t="s">
-        <v>30</v>
-      </c>
-      <c r="F6" s="32">
-        <v>270000000</v>
-      </c>
-      <c r="I6">
-        <v>5</v>
-      </c>
-      <c r="J6" s="32">
-        <v>350000000</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10">
-      <c r="A7" s="30">
-        <v>6</v>
-      </c>
-      <c r="B7" s="32">
-        <v>97200000</v>
-      </c>
-      <c r="E7" s="31" t="s">
-        <v>20</v>
-      </c>
-      <c r="F7" s="32">
-        <v>560000000</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10">
-      <c r="A8" s="30">
-        <v>7</v>
-      </c>
-      <c r="B8" s="32">
-        <v>67392000</v>
-      </c>
-      <c r="E8" s="31" t="s">
-        <v>25</v>
-      </c>
-      <c r="F8" s="32">
-        <v>200000000</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10">
-      <c r="A9" s="30">
-        <v>8</v>
-      </c>
-      <c r="B9" s="32">
-        <v>58968000</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10">
-      <c r="A10" s="30">
-        <v>9</v>
-      </c>
-      <c r="B10" s="32">
-        <v>50544000</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10">
-      <c r="A11" s="30">
-        <v>10</v>
-      </c>
-      <c r="B11" s="32">
-        <v>42120000</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10">
-      <c r="A12" s="30">
-        <v>11</v>
-      </c>
-      <c r="B12" s="32">
-        <v>28080000</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10">
-      <c r="A13" s="30">
-        <v>12</v>
-      </c>
-      <c r="B13" s="32">
-        <v>21060000</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10">
-      <c r="A14" s="30">
-        <v>13</v>
-      </c>
-      <c r="B14" s="32">
-        <v>14040000</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10">
-      <c r="A15" s="30">
-        <v>14</v>
-      </c>
-      <c r="B15" s="32">
-        <v>11232000</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10">
-      <c r="A16" s="30">
-        <v>15</v>
-      </c>
-      <c r="B16" s="32">
-        <v>8424000</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2">
-      <c r="A17" s="30">
-        <v>16</v>
-      </c>
-      <c r="B17" s="32">
-        <v>4492800</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2">
-      <c r="A18" s="30">
-        <v>17</v>
-      </c>
-      <c r="B18" s="32">
-        <v>1123200</v>
+    </row>
+    <row r="25" spans="1:5">
+      <c r="C25" t="s">
+        <v>209</v>
+      </c>
+      <c r="D25">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -10763,13 +10647,253 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F2FE4088-AF22-41A1-89D6-9412CB39B032}">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B8B61E57-9209-46ED-8A6F-5D0730452F3F}">
+  <dimension ref="A1:C22"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:3" ht="30.75">
+      <c r="A1" s="23" t="s">
+        <v>175</v>
+      </c>
+      <c r="B1" s="24" t="s">
+        <v>178</v>
+      </c>
+      <c r="C1" s="23" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" t="s">
+        <v>180</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2">
+        <v>2E-3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" t="s">
+        <v>182</v>
+      </c>
+      <c r="B3">
+        <v>2</v>
+      </c>
+      <c r="C3">
+        <v>2.3199999999999998E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" t="s">
+        <v>183</v>
+      </c>
+      <c r="B4">
+        <v>3</v>
+      </c>
+      <c r="C4">
+        <v>5.1799999999999999E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" t="s">
+        <v>163</v>
+      </c>
+      <c r="B5">
+        <v>4</v>
+      </c>
+      <c r="C5">
+        <v>0.11119999999999999</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" t="s">
+        <v>164</v>
+      </c>
+      <c r="B6">
+        <v>5</v>
+      </c>
+      <c r="C6">
+        <v>0.20799999999999999</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" t="s">
+        <v>161</v>
+      </c>
+      <c r="B7">
+        <v>6</v>
+      </c>
+      <c r="C7">
+        <v>0.37959999999999999</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" t="s">
+        <v>166</v>
+      </c>
+      <c r="B8">
+        <v>7</v>
+      </c>
+      <c r="C8">
+        <v>0.59399999999999997</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" t="s">
+        <v>184</v>
+      </c>
+      <c r="B9">
+        <v>8</v>
+      </c>
+      <c r="C9">
+        <v>0.91300000000000003</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" t="s">
+        <v>185</v>
+      </c>
+      <c r="B10">
+        <v>9</v>
+      </c>
+      <c r="C10">
+        <v>1.32</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" t="s">
+        <v>187</v>
+      </c>
+      <c r="B11">
+        <v>10</v>
+      </c>
+      <c r="C11">
+        <v>2.6179999999999999</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" t="s">
+        <v>188</v>
+      </c>
+      <c r="B12">
+        <v>11</v>
+      </c>
+      <c r="C12">
+        <v>4.62</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" t="s">
+        <v>190</v>
+      </c>
+      <c r="B13">
+        <v>12</v>
+      </c>
+      <c r="C13">
+        <v>7.48</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14" t="s">
+        <v>192</v>
+      </c>
+      <c r="B14">
+        <v>13</v>
+      </c>
+      <c r="C14">
+        <v>10.769</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" t="s">
+        <v>193</v>
+      </c>
+      <c r="B15">
+        <v>14</v>
+      </c>
+      <c r="C15">
+        <v>15.234999999999999</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16" t="s">
+        <v>195</v>
+      </c>
+      <c r="B16">
+        <v>15</v>
+      </c>
+      <c r="C16">
+        <v>19.942</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" t="s">
+        <v>197</v>
+      </c>
+      <c r="B17">
+        <v>16</v>
+      </c>
+      <c r="C17">
+        <v>26.443999999999999</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" t="s">
+        <v>199</v>
+      </c>
+      <c r="B18">
+        <v>17</v>
+      </c>
+      <c r="C18">
+        <v>35.726799999999997</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" t="s">
+        <v>201</v>
+      </c>
+      <c r="B19">
+        <v>17</v>
+      </c>
+      <c r="C19">
+        <v>48.268000000000001</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" t="s">
+        <v>203</v>
+      </c>
+      <c r="B20">
+        <v>17</v>
+      </c>
+      <c r="C20">
+        <v>72.866200000000006</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21" t="s">
+        <v>205</v>
+      </c>
+      <c r="B21">
+        <v>17</v>
+      </c>
+      <c r="C21">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22" t="s">
+        <v>206</v>
+      </c>
+      <c r="C22">
+        <v>100</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Sample_Bank_Data/SEP 2024.xlsx
+++ b/Sample_Bank_Data/SEP 2024.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28926"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28928"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\91636\Downloads\data\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2" documentId="13_ncr:1_{42FDEC2A-8242-4E00-8B33-4E96A87043E5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{390B5C8A-DC99-4B6C-8689-7027A8C07AB4}"/>
+  <xr:revisionPtr revIDLastSave="3" documentId="13_ncr:1_{42FDEC2A-8242-4E00-8B33-4E96A87043E5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{766CC15E-1136-4BB7-9957-FB67927D6B7C}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" firstSheet="3" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -50,7 +50,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1780" uniqueCount="393">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1780" uniqueCount="308">
   <si>
     <t>Collateral Types</t>
   </si>
@@ -520,370 +520,115 @@
     <t>Shares6</t>
   </si>
   <si>
+    <t>Land6</t>
+  </si>
+  <si>
+    <t>Risk Free Assest2</t>
+  </si>
+  <si>
+    <t>Gold4</t>
+  </si>
+  <si>
+    <t>Others4</t>
+  </si>
+  <si>
+    <t>Land7</t>
+  </si>
+  <si>
+    <t>Land8</t>
+  </si>
+  <si>
+    <t>Shares7</t>
+  </si>
+  <si>
+    <t>Shares9</t>
+  </si>
+  <si>
+    <t>Others5</t>
+  </si>
+  <si>
+    <t>Others6</t>
+  </si>
+  <si>
+    <t>Building7</t>
+  </si>
+  <si>
+    <t>Land9</t>
+  </si>
+  <si>
+    <t>Cash3</t>
+  </si>
+  <si>
+    <t>Risk Free Assest3</t>
+  </si>
+  <si>
+    <t>Others7</t>
+  </si>
+  <si>
+    <t>Cash4</t>
+  </si>
+  <si>
+    <t>Risk Free Assest4</t>
+  </si>
+  <si>
+    <t>Others8</t>
+  </si>
+  <si>
+    <t>Others9</t>
+  </si>
+  <si>
+    <t>Building8</t>
+  </si>
+  <si>
+    <t>Building9</t>
+  </si>
+  <si>
+    <t>Cash5</t>
+  </si>
+  <si>
+    <t>Gold5</t>
+  </si>
+  <si>
+    <t>Gold6</t>
+  </si>
+  <si>
+    <t>Risk Free Assest5</t>
+  </si>
+  <si>
+    <t>Shares8</t>
+  </si>
+  <si>
+    <t>Cash6</t>
+  </si>
+  <si>
+    <t>Gold7</t>
+  </si>
+  <si>
+    <t>Risk Free Assest6</t>
+  </si>
+  <si>
+    <t>Risk Free Assest7</t>
+  </si>
+  <si>
+    <t>Risk Free Assest8</t>
+  </si>
+  <si>
+    <t>Risk Free Assest9</t>
+  </si>
+  <si>
+    <t>Cash7</t>
+  </si>
+  <si>
+    <t>Shares10</t>
+  </si>
+  <si>
+    <t>Shares11</t>
+  </si>
+  <si>
+    <t>Shares12</t>
+  </si>
+  <si>
     <t>Building6</t>
-  </si>
-  <si>
-    <t>Land6</t>
-  </si>
-  <si>
-    <t>Risk Free Assest2</t>
-  </si>
-  <si>
-    <t>Gold4</t>
-  </si>
-  <si>
-    <t>Others4</t>
-  </si>
-  <si>
-    <t>Land7</t>
-  </si>
-  <si>
-    <t>Land8</t>
-  </si>
-  <si>
-    <t>Shares7</t>
-  </si>
-  <si>
-    <t>Shares8</t>
-  </si>
-  <si>
-    <t>Others5</t>
-  </si>
-  <si>
-    <t>Shares9</t>
-  </si>
-  <si>
-    <t>Shares10</t>
-  </si>
-  <si>
-    <t>Others6</t>
-  </si>
-  <si>
-    <t>Building7</t>
-  </si>
-  <si>
-    <t>Land9</t>
-  </si>
-  <si>
-    <t>Cash3</t>
-  </si>
-  <si>
-    <t>Risk Free Assest3</t>
-  </si>
-  <si>
-    <t>Others7</t>
-  </si>
-  <si>
-    <t>Cash4</t>
-  </si>
-  <si>
-    <t>Risk Free Assest4</t>
-  </si>
-  <si>
-    <t>Others8</t>
-  </si>
-  <si>
-    <t>Land10</t>
-  </si>
-  <si>
-    <t>Land11</t>
-  </si>
-  <si>
-    <t>Others9</t>
-  </si>
-  <si>
-    <t>Shares11</t>
-  </si>
-  <si>
-    <t>Shares12</t>
-  </si>
-  <si>
-    <t>Others10</t>
-  </si>
-  <si>
-    <t>Land12</t>
-  </si>
-  <si>
-    <t>Building8</t>
-  </si>
-  <si>
-    <t>Others11</t>
-  </si>
-  <si>
-    <t>Shares13</t>
-  </si>
-  <si>
-    <t>Shares14</t>
-  </si>
-  <si>
-    <t>Others12</t>
-  </si>
-  <si>
-    <t>Building9</t>
-  </si>
-  <si>
-    <t>Building10</t>
-  </si>
-  <si>
-    <t>Others13</t>
-  </si>
-  <si>
-    <t>Cash5</t>
-  </si>
-  <si>
-    <t>Gold5</t>
-  </si>
-  <si>
-    <t>Others14</t>
-  </si>
-  <si>
-    <t>Shares15</t>
-  </si>
-  <si>
-    <t>Shares16</t>
-  </si>
-  <si>
-    <t>Others15</t>
-  </si>
-  <si>
-    <t>Building11</t>
-  </si>
-  <si>
-    <t>Building12</t>
-  </si>
-  <si>
-    <t>Shares17</t>
-  </si>
-  <si>
-    <t>Shares18</t>
-  </si>
-  <si>
-    <t>Others16</t>
-  </si>
-  <si>
-    <t>Others17</t>
-  </si>
-  <si>
-    <t>Others18</t>
-  </si>
-  <si>
-    <t>Land13</t>
-  </si>
-  <si>
-    <t>Building13</t>
-  </si>
-  <si>
-    <t>Gold6</t>
-  </si>
-  <si>
-    <t>Risk Free Assest5</t>
-  </si>
-  <si>
-    <t>Others19</t>
-  </si>
-  <si>
-    <t>Building14</t>
-  </si>
-  <si>
-    <t>Land14</t>
-  </si>
-  <si>
-    <t>Shares19</t>
-  </si>
-  <si>
-    <t>Shares20</t>
-  </si>
-  <si>
-    <t>Others20</t>
-  </si>
-  <si>
-    <t>Others21</t>
-  </si>
-  <si>
-    <t>Cash6</t>
-  </si>
-  <si>
-    <t>Gold7</t>
-  </si>
-  <si>
-    <t>Shares21</t>
-  </si>
-  <si>
-    <t>Shares22</t>
-  </si>
-  <si>
-    <t>Others22</t>
-  </si>
-  <si>
-    <t>Land15</t>
-  </si>
-  <si>
-    <t>Building15</t>
-  </si>
-  <si>
-    <t>Risk Free Assest6</t>
-  </si>
-  <si>
-    <t>Risk Free Assest7</t>
-  </si>
-  <si>
-    <t>Others23</t>
-  </si>
-  <si>
-    <t>Shares23</t>
-  </si>
-  <si>
-    <t>Shares24</t>
-  </si>
-  <si>
-    <t>Others24</t>
-  </si>
-  <si>
-    <t>Gold8</t>
-  </si>
-  <si>
-    <t>Risk Free Assest8</t>
-  </si>
-  <si>
-    <t>Others25</t>
-  </si>
-  <si>
-    <t>Risk Free Assest9</t>
-  </si>
-  <si>
-    <t>Risk Free Assest10</t>
-  </si>
-  <si>
-    <t>Shares25</t>
-  </si>
-  <si>
-    <t>Shares26</t>
-  </si>
-  <si>
-    <t>Others26</t>
-  </si>
-  <si>
-    <t>Land16</t>
-  </si>
-  <si>
-    <t>Building16</t>
-  </si>
-  <si>
-    <t>Land17</t>
-  </si>
-  <si>
-    <t>Building17</t>
-  </si>
-  <si>
-    <t>Shares27</t>
-  </si>
-  <si>
-    <t>Shares28</t>
-  </si>
-  <si>
-    <t>Others27</t>
-  </si>
-  <si>
-    <t>Building18</t>
-  </si>
-  <si>
-    <t>Building19</t>
-  </si>
-  <si>
-    <t>Cash7</t>
-  </si>
-  <si>
-    <t>Risk Free Assest11</t>
-  </si>
-  <si>
-    <t>Building20</t>
-  </si>
-  <si>
-    <t>Building21</t>
-  </si>
-  <si>
-    <t>Cash8</t>
-  </si>
-  <si>
-    <t>Risk Free Assest12</t>
-  </si>
-  <si>
-    <t>Shares29</t>
-  </si>
-  <si>
-    <t>Shares30</t>
-  </si>
-  <si>
-    <t>Building22</t>
-  </si>
-  <si>
-    <t>Building23</t>
-  </si>
-  <si>
-    <t>Others28</t>
-  </si>
-  <si>
-    <t>Building24</t>
-  </si>
-  <si>
-    <t>Land18</t>
-  </si>
-  <si>
-    <t>Cash9</t>
-  </si>
-  <si>
-    <t>Gold9</t>
-  </si>
-  <si>
-    <t>Shares31</t>
-  </si>
-  <si>
-    <t>Shares32</t>
-  </si>
-  <si>
-    <t>Others29</t>
-  </si>
-  <si>
-    <t>Cash10</t>
-  </si>
-  <si>
-    <t>Risk Free Assest13</t>
-  </si>
-  <si>
-    <t>Others30</t>
-  </si>
-  <si>
-    <t>Building25</t>
-  </si>
-  <si>
-    <t>Land19</t>
-  </si>
-  <si>
-    <t>Shares33</t>
-  </si>
-  <si>
-    <t>Shares34</t>
-  </si>
-  <si>
-    <t>Shares35</t>
-  </si>
-  <si>
-    <t>Shares36</t>
-  </si>
-  <si>
-    <t>Others31</t>
-  </si>
-  <si>
-    <t>Building26</t>
-  </si>
-  <si>
-    <t>Land20</t>
-  </si>
-  <si>
-    <t>Gold10</t>
-  </si>
-  <si>
-    <t>Risk Free Assest14</t>
   </si>
   <si>
     <t>Provision Stages</t>
@@ -1930,21 +1675,21 @@
   <sheetData>
     <row r="1" spans="1:4" ht="30" customHeight="1">
       <c r="A1" s="32" t="s">
-        <v>350</v>
+        <v>265</v>
       </c>
       <c r="B1" s="33" t="s">
-        <v>353</v>
+        <v>268</v>
       </c>
       <c r="C1" s="32" t="s">
-        <v>386</v>
+        <v>301</v>
       </c>
       <c r="D1" s="32" t="s">
-        <v>387</v>
+        <v>302</v>
       </c>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" t="s">
-        <v>355</v>
+        <v>270</v>
       </c>
       <c r="B2">
         <v>1</v>
@@ -1958,7 +1703,7 @@
     </row>
     <row r="3" spans="1:4">
       <c r="A3" t="s">
-        <v>357</v>
+        <v>272</v>
       </c>
       <c r="B3">
         <v>2</v>
@@ -1972,7 +1717,7 @@
     </row>
     <row r="4" spans="1:4">
       <c r="A4" t="s">
-        <v>358</v>
+        <v>273</v>
       </c>
       <c r="B4">
         <v>3</v>
@@ -1986,7 +1731,7 @@
     </row>
     <row r="5" spans="1:4">
       <c r="A5" t="s">
-        <v>338</v>
+        <v>253</v>
       </c>
       <c r="B5">
         <v>4</v>
@@ -2000,7 +1745,7 @@
     </row>
     <row r="6" spans="1:4">
       <c r="A6" t="s">
-        <v>339</v>
+        <v>254</v>
       </c>
       <c r="B6">
         <v>5</v>
@@ -2014,7 +1759,7 @@
     </row>
     <row r="7" spans="1:4">
       <c r="A7" t="s">
-        <v>336</v>
+        <v>251</v>
       </c>
       <c r="B7">
         <v>6</v>
@@ -2028,7 +1773,7 @@
     </row>
     <row r="8" spans="1:4">
       <c r="A8" t="s">
-        <v>341</v>
+        <v>256</v>
       </c>
       <c r="B8">
         <v>7</v>
@@ -2042,7 +1787,7 @@
     </row>
     <row r="9" spans="1:4">
       <c r="A9" t="s">
-        <v>359</v>
+        <v>274</v>
       </c>
       <c r="B9">
         <v>8</v>
@@ -2056,7 +1801,7 @@
     </row>
     <row r="10" spans="1:4">
       <c r="A10" t="s">
-        <v>360</v>
+        <v>275</v>
       </c>
       <c r="B10">
         <v>9</v>
@@ -2070,7 +1815,7 @@
     </row>
     <row r="11" spans="1:4">
       <c r="A11" t="s">
-        <v>362</v>
+        <v>277</v>
       </c>
       <c r="B11">
         <v>10</v>
@@ -2084,7 +1829,7 @@
     </row>
     <row r="12" spans="1:4">
       <c r="A12" t="s">
-        <v>363</v>
+        <v>278</v>
       </c>
       <c r="B12">
         <v>11</v>
@@ -2098,7 +1843,7 @@
     </row>
     <row r="13" spans="1:4">
       <c r="A13" t="s">
-        <v>365</v>
+        <v>280</v>
       </c>
       <c r="B13">
         <v>12</v>
@@ -2112,7 +1857,7 @@
     </row>
     <row r="14" spans="1:4">
       <c r="A14" t="s">
-        <v>367</v>
+        <v>282</v>
       </c>
       <c r="B14">
         <v>13</v>
@@ -2126,7 +1871,7 @@
     </row>
     <row r="15" spans="1:4">
       <c r="A15" t="s">
-        <v>368</v>
+        <v>283</v>
       </c>
       <c r="B15">
         <v>14</v>
@@ -2140,7 +1885,7 @@
     </row>
     <row r="16" spans="1:4">
       <c r="A16" t="s">
-        <v>370</v>
+        <v>285</v>
       </c>
       <c r="B16">
         <v>15</v>
@@ -2154,7 +1899,7 @@
     </row>
     <row r="17" spans="1:4">
       <c r="A17" t="s">
-        <v>372</v>
+        <v>287</v>
       </c>
       <c r="B17">
         <v>16</v>
@@ -2168,7 +1913,7 @@
     </row>
     <row r="18" spans="1:4">
       <c r="A18" t="s">
-        <v>374</v>
+        <v>289</v>
       </c>
       <c r="B18">
         <v>17</v>
@@ -2182,7 +1927,7 @@
     </row>
     <row r="19" spans="1:4">
       <c r="A19" t="s">
-        <v>376</v>
+        <v>291</v>
       </c>
       <c r="B19">
         <v>17</v>
@@ -2196,7 +1941,7 @@
     </row>
     <row r="20" spans="1:4">
       <c r="A20" t="s">
-        <v>378</v>
+        <v>293</v>
       </c>
       <c r="B20">
         <v>17</v>
@@ -2210,7 +1955,7 @@
     </row>
     <row r="21" spans="1:4">
       <c r="A21" t="s">
-        <v>380</v>
+        <v>295</v>
       </c>
       <c r="B21">
         <v>17</v>
@@ -2224,7 +1969,7 @@
     </row>
     <row r="22" spans="1:4">
       <c r="A22" t="s">
-        <v>381</v>
+        <v>296</v>
       </c>
       <c r="C22">
         <v>100</v>
@@ -2259,22 +2004,22 @@
   <sheetData>
     <row r="1" spans="1:10">
       <c r="A1" s="16" t="s">
-        <v>388</v>
+        <v>303</v>
       </c>
       <c r="B1" s="16" t="s">
-        <v>389</v>
+        <v>304</v>
       </c>
       <c r="E1" s="17" t="s">
         <v>28</v>
       </c>
       <c r="F1" s="17" t="s">
-        <v>390</v>
+        <v>305</v>
       </c>
       <c r="I1" s="18" t="s">
-        <v>391</v>
+        <v>306</v>
       </c>
       <c r="J1" s="18" t="s">
-        <v>392</v>
+        <v>307</v>
       </c>
     </row>
     <row r="2" spans="1:10">
@@ -9412,7 +9157,7 @@
         <v>125</v>
       </c>
       <c r="I27" t="s">
-        <v>156</v>
+        <v>126</v>
       </c>
       <c r="J27">
         <v>2</v>
@@ -9444,7 +9189,7 @@
         <v>125</v>
       </c>
       <c r="I28" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="J28">
         <v>5</v>
@@ -9476,7 +9221,7 @@
         <v>133</v>
       </c>
       <c r="I29" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="J29">
         <v>5</v>
@@ -9508,7 +9253,7 @@
         <v>133</v>
       </c>
       <c r="I30" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="J30">
         <v>2</v>
@@ -9540,7 +9285,7 @@
         <v>128</v>
       </c>
       <c r="I31" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="J31">
         <v>3</v>
@@ -9572,7 +9317,7 @@
         <v>125</v>
       </c>
       <c r="I32" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="J32">
         <v>5</v>
@@ -9604,7 +9349,7 @@
         <v>125</v>
       </c>
       <c r="I33" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="J33">
         <v>2</v>
@@ -9636,7 +9381,7 @@
         <v>140</v>
       </c>
       <c r="I34" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="J34">
         <v>2</v>
@@ -9668,7 +9413,7 @@
         <v>140</v>
       </c>
       <c r="I35" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="J35">
         <v>2</v>
@@ -9700,7 +9445,7 @@
         <v>128</v>
       </c>
       <c r="I36" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="J36">
         <v>4</v>
@@ -9732,7 +9477,7 @@
         <v>140</v>
       </c>
       <c r="I37" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="J37">
         <v>2</v>
@@ -9764,7 +9509,7 @@
         <v>140</v>
       </c>
       <c r="I38" t="s">
-        <v>167</v>
+        <v>141</v>
       </c>
       <c r="J38">
         <v>2</v>
@@ -9796,7 +9541,7 @@
         <v>128</v>
       </c>
       <c r="I39" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="J39">
         <v>5</v>
@@ -9828,7 +9573,7 @@
         <v>125</v>
       </c>
       <c r="I40" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="J40">
         <v>4</v>
@@ -9860,7 +9605,7 @@
         <v>125</v>
       </c>
       <c r="I41" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="J41">
         <v>4</v>
@@ -9892,7 +9637,7 @@
         <v>133</v>
       </c>
       <c r="I42" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="J42">
         <v>5</v>
@@ -9924,7 +9669,7 @@
         <v>133</v>
       </c>
       <c r="I43" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="J43">
         <v>3</v>
@@ -9956,7 +9701,7 @@
         <v>128</v>
       </c>
       <c r="I44" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="J44">
         <v>5</v>
@@ -9988,7 +9733,7 @@
         <v>133</v>
       </c>
       <c r="I45" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="J45">
         <v>2</v>
@@ -10020,7 +9765,7 @@
         <v>133</v>
       </c>
       <c r="I46" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="J46">
         <v>4</v>
@@ -10052,7 +9797,7 @@
         <v>128</v>
       </c>
       <c r="I47" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="J47">
         <v>3</v>
@@ -10084,7 +9829,7 @@
         <v>125</v>
       </c>
       <c r="I48" t="s">
-        <v>177</v>
+        <v>161</v>
       </c>
       <c r="J48">
         <v>4</v>
@@ -10116,7 +9861,7 @@
         <v>125</v>
       </c>
       <c r="I49" t="s">
-        <v>178</v>
+        <v>130</v>
       </c>
       <c r="J49">
         <v>4</v>
@@ -10148,7 +9893,7 @@
         <v>128</v>
       </c>
       <c r="I50" t="s">
-        <v>179</v>
+        <v>174</v>
       </c>
       <c r="J50">
         <v>2</v>
@@ -10180,7 +9925,7 @@
         <v>140</v>
       </c>
       <c r="I51" t="s">
-        <v>180</v>
+        <v>144</v>
       </c>
       <c r="J51">
         <v>2</v>
@@ -10212,7 +9957,7 @@
         <v>140</v>
       </c>
       <c r="I52" t="s">
-        <v>181</v>
+        <v>143</v>
       </c>
       <c r="J52">
         <v>3</v>
@@ -10244,7 +9989,7 @@
         <v>128</v>
       </c>
       <c r="I53" t="s">
-        <v>182</v>
+        <v>129</v>
       </c>
       <c r="J53">
         <v>2</v>
@@ -10276,7 +10021,7 @@
         <v>125</v>
       </c>
       <c r="I54" t="s">
-        <v>183</v>
+        <v>130</v>
       </c>
       <c r="J54">
         <v>2</v>
@@ -10308,7 +10053,7 @@
         <v>125</v>
       </c>
       <c r="I55" t="s">
-        <v>184</v>
+        <v>175</v>
       </c>
       <c r="J55">
         <v>5</v>
@@ -10340,7 +10085,7 @@
         <v>128</v>
       </c>
       <c r="I56" t="s">
-        <v>185</v>
+        <v>136</v>
       </c>
       <c r="J56">
         <v>3</v>
@@ -10372,7 +10117,7 @@
         <v>140</v>
       </c>
       <c r="I57" t="s">
-        <v>186</v>
+        <v>144</v>
       </c>
       <c r="J57">
         <v>3</v>
@@ -10404,7 +10149,7 @@
         <v>140</v>
       </c>
       <c r="I58" t="s">
-        <v>187</v>
+        <v>143</v>
       </c>
       <c r="J58">
         <v>2</v>
@@ -10436,7 +10181,7 @@
         <v>128</v>
       </c>
       <c r="I59" t="s">
-        <v>188</v>
+        <v>145</v>
       </c>
       <c r="J59">
         <v>4</v>
@@ -10468,7 +10213,7 @@
         <v>125</v>
       </c>
       <c r="I60" t="s">
-        <v>189</v>
+        <v>176</v>
       </c>
       <c r="J60">
         <v>5</v>
@@ -10500,7 +10245,7 @@
         <v>125</v>
       </c>
       <c r="I61" t="s">
-        <v>190</v>
+        <v>126</v>
       </c>
       <c r="J61">
         <v>1</v>
@@ -10532,7 +10277,7 @@
         <v>128</v>
       </c>
       <c r="I62" t="s">
-        <v>191</v>
+        <v>159</v>
       </c>
       <c r="J62">
         <v>1</v>
@@ -10564,7 +10309,7 @@
         <v>133</v>
       </c>
       <c r="I63" t="s">
-        <v>192</v>
+        <v>177</v>
       </c>
       <c r="J63">
         <v>2</v>
@@ -10596,7 +10341,7 @@
         <v>133</v>
       </c>
       <c r="I64" t="s">
-        <v>193</v>
+        <v>178</v>
       </c>
       <c r="J64">
         <v>2</v>
@@ -10628,7 +10373,7 @@
         <v>128</v>
       </c>
       <c r="I65" t="s">
-        <v>194</v>
+        <v>164</v>
       </c>
       <c r="J65">
         <v>2</v>
@@ -10660,7 +10405,7 @@
         <v>140</v>
       </c>
       <c r="I66" t="s">
-        <v>195</v>
+        <v>155</v>
       </c>
       <c r="J66">
         <v>5</v>
@@ -10692,7 +10437,7 @@
         <v>140</v>
       </c>
       <c r="I67" t="s">
-        <v>196</v>
+        <v>141</v>
       </c>
       <c r="J67">
         <v>4</v>
@@ -10724,7 +10469,7 @@
         <v>128</v>
       </c>
       <c r="I68" t="s">
-        <v>197</v>
+        <v>165</v>
       </c>
       <c r="J68">
         <v>2</v>
@@ -10756,7 +10501,7 @@
         <v>125</v>
       </c>
       <c r="I69" t="s">
-        <v>198</v>
+        <v>175</v>
       </c>
       <c r="J69">
         <v>4</v>
@@ -10788,7 +10533,7 @@
         <v>125</v>
       </c>
       <c r="I70" t="s">
-        <v>199</v>
+        <v>137</v>
       </c>
       <c r="J70">
         <v>2</v>
@@ -10820,7 +10565,7 @@
         <v>140</v>
       </c>
       <c r="I71" t="s">
-        <v>200</v>
+        <v>142</v>
       </c>
       <c r="J71">
         <v>2</v>
@@ -10852,7 +10597,7 @@
         <v>140</v>
       </c>
       <c r="I72" t="s">
-        <v>201</v>
+        <v>162</v>
       </c>
       <c r="J72">
         <v>2</v>
@@ -10884,7 +10629,7 @@
         <v>128</v>
       </c>
       <c r="I73" t="s">
-        <v>202</v>
+        <v>170</v>
       </c>
       <c r="J73">
         <v>4</v>
@@ -10916,7 +10661,7 @@
         <v>128</v>
       </c>
       <c r="I74" t="s">
-        <v>203</v>
+        <v>173</v>
       </c>
       <c r="J74">
         <v>5</v>
@@ -10948,7 +10693,7 @@
         <v>128</v>
       </c>
       <c r="I75" t="s">
-        <v>204</v>
+        <v>174</v>
       </c>
       <c r="J75">
         <v>5</v>
@@ -10980,7 +10725,7 @@
         <v>125</v>
       </c>
       <c r="I76" t="s">
-        <v>205</v>
+        <v>127</v>
       </c>
       <c r="J76">
         <v>3</v>
@@ -11012,7 +10757,7 @@
         <v>125</v>
       </c>
       <c r="I77" t="s">
-        <v>206</v>
+        <v>138</v>
       </c>
       <c r="J77">
         <v>1</v>
@@ -11044,7 +10789,7 @@
         <v>133</v>
       </c>
       <c r="I78" t="s">
-        <v>207</v>
+        <v>179</v>
       </c>
       <c r="J78">
         <v>1</v>
@@ -11076,7 +10821,7 @@
         <v>133</v>
       </c>
       <c r="I79" t="s">
-        <v>208</v>
+        <v>180</v>
       </c>
       <c r="J79">
         <v>5</v>
@@ -11108,7 +10853,7 @@
         <v>128</v>
       </c>
       <c r="I80" t="s">
-        <v>209</v>
+        <v>174</v>
       </c>
       <c r="J80">
         <v>1</v>
@@ -11140,7 +10885,7 @@
         <v>125</v>
       </c>
       <c r="I81" t="s">
-        <v>210</v>
+        <v>137</v>
       </c>
       <c r="J81">
         <v>2</v>
@@ -11172,7 +10917,7 @@
         <v>125</v>
       </c>
       <c r="I82" t="s">
-        <v>211</v>
+        <v>156</v>
       </c>
       <c r="J82">
         <v>3</v>
@@ -11204,7 +10949,7 @@
         <v>140</v>
       </c>
       <c r="I83" t="s">
-        <v>212</v>
+        <v>181</v>
       </c>
       <c r="J83">
         <v>1</v>
@@ -11236,7 +10981,7 @@
         <v>140</v>
       </c>
       <c r="I84" t="s">
-        <v>213</v>
+        <v>144</v>
       </c>
       <c r="J84">
         <v>5</v>
@@ -11268,7 +11013,7 @@
         <v>128</v>
       </c>
       <c r="I85" t="s">
-        <v>214</v>
+        <v>170</v>
       </c>
       <c r="J85">
         <v>4</v>
@@ -11300,7 +11045,7 @@
         <v>128</v>
       </c>
       <c r="I86" t="s">
-        <v>215</v>
+        <v>145</v>
       </c>
       <c r="J86">
         <v>3</v>
@@ -11332,7 +11077,7 @@
         <v>133</v>
       </c>
       <c r="I87" t="s">
-        <v>216</v>
+        <v>182</v>
       </c>
       <c r="J87">
         <v>4</v>
@@ -11364,7 +11109,7 @@
         <v>133</v>
       </c>
       <c r="I88" t="s">
-        <v>217</v>
+        <v>183</v>
       </c>
       <c r="J88">
         <v>3</v>
@@ -11396,7 +11141,7 @@
         <v>140</v>
       </c>
       <c r="I89" t="s">
-        <v>218</v>
+        <v>143</v>
       </c>
       <c r="J89">
         <v>2</v>
@@ -11428,7 +11173,7 @@
         <v>140</v>
       </c>
       <c r="I90" t="s">
-        <v>219</v>
+        <v>163</v>
       </c>
       <c r="J90">
         <v>5</v>
@@ -11460,7 +11205,7 @@
         <v>128</v>
       </c>
       <c r="I91" t="s">
-        <v>220</v>
+        <v>174</v>
       </c>
       <c r="J91">
         <v>2</v>
@@ -11492,7 +11237,7 @@
         <v>125</v>
       </c>
       <c r="I92" t="s">
-        <v>221</v>
+        <v>156</v>
       </c>
       <c r="J92">
         <v>3</v>
@@ -11524,7 +11269,7 @@
         <v>125</v>
       </c>
       <c r="I93" t="s">
-        <v>222</v>
+        <v>175</v>
       </c>
       <c r="J93">
         <v>4</v>
@@ -11556,7 +11301,7 @@
         <v>133</v>
       </c>
       <c r="I94" t="s">
-        <v>223</v>
+        <v>184</v>
       </c>
       <c r="J94">
         <v>5</v>
@@ -11588,7 +11333,7 @@
         <v>133</v>
       </c>
       <c r="I95" t="s">
-        <v>224</v>
+        <v>185</v>
       </c>
       <c r="J95">
         <v>1</v>
@@ -11620,7 +11365,7 @@
         <v>128</v>
       </c>
       <c r="I96" t="s">
-        <v>225</v>
+        <v>164</v>
       </c>
       <c r="J96">
         <v>5</v>
@@ -11652,7 +11397,7 @@
         <v>140</v>
       </c>
       <c r="I97" t="s">
-        <v>226</v>
+        <v>142</v>
       </c>
       <c r="J97">
         <v>2</v>
@@ -11684,7 +11429,7 @@
         <v>140</v>
       </c>
       <c r="I98" t="s">
-        <v>227</v>
+        <v>155</v>
       </c>
       <c r="J98">
         <v>2</v>
@@ -11716,7 +11461,7 @@
         <v>128</v>
       </c>
       <c r="I99" t="s">
-        <v>228</v>
+        <v>164</v>
       </c>
       <c r="J99">
         <v>3</v>
@@ -11748,7 +11493,7 @@
         <v>133</v>
       </c>
       <c r="I100" t="s">
-        <v>229</v>
+        <v>148</v>
       </c>
       <c r="J100">
         <v>2</v>
@@ -11780,7 +11525,7 @@
         <v>133</v>
       </c>
       <c r="I101" t="s">
-        <v>230</v>
+        <v>186</v>
       </c>
       <c r="J101">
         <v>3</v>
@@ -11812,7 +11557,7 @@
         <v>128</v>
       </c>
       <c r="I102" t="s">
-        <v>231</v>
+        <v>129</v>
       </c>
       <c r="J102">
         <v>4</v>
@@ -11844,7 +11589,7 @@
         <v>133</v>
       </c>
       <c r="I103" t="s">
-        <v>232</v>
+        <v>187</v>
       </c>
       <c r="J103">
         <v>3</v>
@@ -11876,7 +11621,7 @@
         <v>133</v>
       </c>
       <c r="I104" t="s">
-        <v>233</v>
+        <v>152</v>
       </c>
       <c r="J104">
         <v>3</v>
@@ -11908,7 +11653,7 @@
         <v>140</v>
       </c>
       <c r="I105" t="s">
-        <v>234</v>
+        <v>154</v>
       </c>
       <c r="J105">
         <v>1</v>
@@ -11940,7 +11685,7 @@
         <v>140</v>
       </c>
       <c r="I106" t="s">
-        <v>235</v>
+        <v>162</v>
       </c>
       <c r="J106">
         <v>4</v>
@@ -11972,7 +11717,7 @@
         <v>128</v>
       </c>
       <c r="I107" t="s">
-        <v>236</v>
+        <v>164</v>
       </c>
       <c r="J107">
         <v>5</v>
@@ -12004,7 +11749,7 @@
         <v>125</v>
       </c>
       <c r="I108" t="s">
-        <v>237</v>
+        <v>150</v>
       </c>
       <c r="J108">
         <v>1</v>
@@ -12036,7 +11781,7 @@
         <v>125</v>
       </c>
       <c r="I109" t="s">
-        <v>238</v>
+        <v>146</v>
       </c>
       <c r="J109">
         <v>5</v>
@@ -12068,7 +11813,7 @@
         <v>125</v>
       </c>
       <c r="I110" t="s">
-        <v>239</v>
+        <v>147</v>
       </c>
       <c r="J110">
         <v>3</v>
@@ -12100,7 +11845,7 @@
         <v>125</v>
       </c>
       <c r="I111" t="s">
-        <v>240</v>
+        <v>137</v>
       </c>
       <c r="J111">
         <v>1</v>
@@ -12132,7 +11877,7 @@
         <v>140</v>
       </c>
       <c r="I112" t="s">
-        <v>241</v>
+        <v>144</v>
       </c>
       <c r="J112">
         <v>4</v>
@@ -12164,7 +11909,7 @@
         <v>140</v>
       </c>
       <c r="I113" t="s">
-        <v>242</v>
+        <v>143</v>
       </c>
       <c r="J113">
         <v>3</v>
@@ -12196,7 +11941,7 @@
         <v>128</v>
       </c>
       <c r="I114" t="s">
-        <v>243</v>
+        <v>159</v>
       </c>
       <c r="J114">
         <v>2</v>
@@ -12228,7 +11973,7 @@
         <v>125</v>
       </c>
       <c r="I115" t="s">
-        <v>244</v>
+        <v>138</v>
       </c>
       <c r="J115">
         <v>1</v>
@@ -12260,7 +12005,7 @@
         <v>125</v>
       </c>
       <c r="I116" t="s">
-        <v>245</v>
+        <v>131</v>
       </c>
       <c r="J116">
         <v>4</v>
@@ -12292,7 +12037,7 @@
         <v>133</v>
       </c>
       <c r="I117" t="s">
-        <v>246</v>
+        <v>188</v>
       </c>
       <c r="J117">
         <v>1</v>
@@ -12324,7 +12069,7 @@
         <v>133</v>
       </c>
       <c r="I118" t="s">
-        <v>247</v>
+        <v>157</v>
       </c>
       <c r="J118">
         <v>4</v>
@@ -12356,7 +12101,7 @@
         <v>125</v>
       </c>
       <c r="I119" t="s">
-        <v>248</v>
+        <v>146</v>
       </c>
       <c r="J119">
         <v>1</v>
@@ -12388,7 +12133,7 @@
         <v>125</v>
       </c>
       <c r="I120" t="s">
-        <v>249</v>
+        <v>126</v>
       </c>
       <c r="J120">
         <v>5</v>
@@ -12420,7 +12165,7 @@
         <v>133</v>
       </c>
       <c r="I121" t="s">
-        <v>250</v>
+        <v>177</v>
       </c>
       <c r="J121">
         <v>3</v>
@@ -12452,7 +12197,7 @@
         <v>133</v>
       </c>
       <c r="I122" t="s">
-        <v>251</v>
+        <v>157</v>
       </c>
       <c r="J122">
         <v>3</v>
@@ -12484,7 +12229,7 @@
         <v>140</v>
       </c>
       <c r="I123" t="s">
-        <v>252</v>
+        <v>142</v>
       </c>
       <c r="J123">
         <v>3</v>
@@ -12516,7 +12261,7 @@
         <v>140</v>
       </c>
       <c r="I124" t="s">
-        <v>253</v>
+        <v>189</v>
       </c>
       <c r="J124">
         <v>5</v>
@@ -12548,7 +12293,7 @@
         <v>125</v>
       </c>
       <c r="I125" t="s">
-        <v>254</v>
+        <v>176</v>
       </c>
       <c r="J125">
         <v>4</v>
@@ -12580,7 +12325,7 @@
         <v>125</v>
       </c>
       <c r="I126" t="s">
-        <v>255</v>
+        <v>166</v>
       </c>
       <c r="J126">
         <v>4</v>
@@ -12612,7 +12357,7 @@
         <v>128</v>
       </c>
       <c r="I127" t="s">
-        <v>256</v>
+        <v>174</v>
       </c>
       <c r="J127">
         <v>1</v>
@@ -12644,7 +12389,7 @@
         <v>125</v>
       </c>
       <c r="I128" t="s">
-        <v>257</v>
+        <v>175</v>
       </c>
       <c r="J128">
         <v>2</v>
@@ -12676,7 +12421,7 @@
         <v>125</v>
       </c>
       <c r="I129" t="s">
-        <v>258</v>
+        <v>151</v>
       </c>
       <c r="J129">
         <v>3</v>
@@ -12708,7 +12453,7 @@
         <v>133</v>
       </c>
       <c r="I130" t="s">
-        <v>259</v>
+        <v>134</v>
       </c>
       <c r="J130">
         <v>5</v>
@@ -12740,7 +12485,7 @@
         <v>133</v>
       </c>
       <c r="I131" t="s">
-        <v>260</v>
+        <v>153</v>
       </c>
       <c r="J131">
         <v>4</v>
@@ -12772,7 +12517,7 @@
         <v>140</v>
       </c>
       <c r="I132" t="s">
-        <v>261</v>
+        <v>141</v>
       </c>
       <c r="J132">
         <v>3</v>
@@ -12804,7 +12549,7 @@
         <v>140</v>
       </c>
       <c r="I133" t="s">
-        <v>262</v>
+        <v>190</v>
       </c>
       <c r="J133">
         <v>3</v>
@@ -12836,7 +12581,7 @@
         <v>128</v>
       </c>
       <c r="I134" t="s">
-        <v>263</v>
+        <v>170</v>
       </c>
       <c r="J134">
         <v>2</v>
@@ -12868,7 +12613,7 @@
         <v>133</v>
       </c>
       <c r="I135" t="s">
-        <v>264</v>
+        <v>149</v>
       </c>
       <c r="J135">
         <v>2</v>
@@ -12900,7 +12645,7 @@
         <v>133</v>
       </c>
       <c r="I136" t="s">
-        <v>265</v>
+        <v>172</v>
       </c>
       <c r="J136">
         <v>3</v>
@@ -12932,7 +12677,7 @@
         <v>128</v>
       </c>
       <c r="I137" t="s">
-        <v>266</v>
+        <v>145</v>
       </c>
       <c r="J137">
         <v>2</v>
@@ -12964,7 +12709,7 @@
         <v>125</v>
       </c>
       <c r="I138" t="s">
-        <v>267</v>
+        <v>137</v>
       </c>
       <c r="J138">
         <v>1</v>
@@ -12996,7 +12741,7 @@
         <v>125</v>
       </c>
       <c r="I139" t="s">
-        <v>268</v>
+        <v>130</v>
       </c>
       <c r="J139">
         <v>1</v>
@@ -13028,7 +12773,7 @@
         <v>140</v>
       </c>
       <c r="I140" t="s">
-        <v>269</v>
+        <v>155</v>
       </c>
       <c r="J140">
         <v>2</v>
@@ -13060,7 +12805,7 @@
         <v>140</v>
       </c>
       <c r="I141" t="s">
-        <v>270</v>
+        <v>141</v>
       </c>
       <c r="J141">
         <v>1</v>
@@ -13092,7 +12837,7 @@
         <v>140</v>
       </c>
       <c r="I142" t="s">
-        <v>271</v>
+        <v>181</v>
       </c>
       <c r="J142">
         <v>3</v>
@@ -13124,7 +12869,7 @@
         <v>140</v>
       </c>
       <c r="I143" t="s">
-        <v>272</v>
+        <v>191</v>
       </c>
       <c r="J143">
         <v>5</v>
@@ -13156,7 +12901,7 @@
         <v>128</v>
       </c>
       <c r="I144" t="s">
-        <v>273</v>
+        <v>173</v>
       </c>
       <c r="J144">
         <v>2</v>
@@ -13188,7 +12933,7 @@
         <v>125</v>
       </c>
       <c r="I145" t="s">
-        <v>274</v>
+        <v>192</v>
       </c>
       <c r="J145">
         <v>2</v>
@@ -13220,7 +12965,7 @@
         <v>125</v>
       </c>
       <c r="I146" t="s">
-        <v>275</v>
+        <v>151</v>
       </c>
       <c r="J146">
         <v>2</v>
@@ -13252,7 +12997,7 @@
         <v>133</v>
       </c>
       <c r="I147" t="s">
-        <v>276</v>
+        <v>135</v>
       </c>
       <c r="J147">
         <v>4</v>
@@ -13284,7 +13029,7 @@
         <v>133</v>
       </c>
       <c r="I148" t="s">
-        <v>277</v>
+        <v>169</v>
       </c>
       <c r="J148">
         <v>2</v>
@@ -13310,7 +13055,7 @@
   <sheetData>
     <row r="1" spans="2:2">
       <c r="B1" t="s">
-        <v>278</v>
+        <v>193</v>
       </c>
     </row>
     <row r="2" spans="2:2">
@@ -13340,7 +13085,7 @@
     </row>
     <row r="7" spans="2:2">
       <c r="B7" t="s">
-        <v>279</v>
+        <v>194</v>
       </c>
     </row>
   </sheetData>
@@ -13368,27 +13113,27 @@
   <sheetData>
     <row r="2" spans="2:7">
       <c r="B2" s="23" t="s">
-        <v>280</v>
+        <v>195</v>
       </c>
       <c r="C2" s="23" t="s">
-        <v>281</v>
+        <v>196</v>
       </c>
       <c r="D2" s="24" t="s">
-        <v>282</v>
+        <v>197</v>
       </c>
       <c r="E2" s="24" t="s">
-        <v>283</v>
+        <v>198</v>
       </c>
       <c r="F2" s="25" t="s">
-        <v>284</v>
+        <v>199</v>
       </c>
       <c r="G2" s="24" t="s">
-        <v>285</v>
+        <v>200</v>
       </c>
     </row>
     <row r="3" spans="2:7" ht="41.25" customHeight="1">
       <c r="B3" s="26" t="s">
-        <v>286</v>
+        <v>201</v>
       </c>
       <c r="C3" s="27">
         <v>26957145.600000001</v>
@@ -13397,20 +13142,20 @@
         <v>2024</v>
       </c>
       <c r="E3" s="24" t="s">
-        <v>287</v>
+        <v>202</v>
       </c>
       <c r="F3" s="28">
         <f t="shared" ref="F3:F42" ca="1" si="0">(C3*0.2) + RANDBETWEEN(0, 25000)</f>
-        <v>5392628.120000001</v>
+        <v>5397441.120000001</v>
       </c>
       <c r="G3" s="27">
         <f t="shared" ref="G3:G42" ca="1" si="1">C3-F3</f>
-        <v>21564517.48</v>
+        <v>21559704.48</v>
       </c>
     </row>
     <row r="4" spans="2:7">
       <c r="B4" s="26" t="s">
-        <v>288</v>
+        <v>203</v>
       </c>
       <c r="C4" s="27">
         <v>40426848</v>
@@ -13419,20 +13164,20 @@
         <v>2023</v>
       </c>
       <c r="E4" s="24" t="s">
-        <v>287</v>
+        <v>202</v>
       </c>
       <c r="F4" s="28">
         <f t="shared" ca="1" si="0"/>
-        <v>8099681.6000000006</v>
+        <v>8099573.6000000006</v>
       </c>
       <c r="G4" s="27">
         <f t="shared" ca="1" si="1"/>
-        <v>32327166.399999999</v>
+        <v>32327274.399999999</v>
       </c>
     </row>
     <row r="5" spans="2:7">
       <c r="B5" s="26" t="s">
-        <v>289</v>
+        <v>204</v>
       </c>
       <c r="C5" s="27">
         <v>53896550.399999999</v>
@@ -13441,20 +13186,20 @@
         <v>2022</v>
       </c>
       <c r="E5" s="24" t="s">
-        <v>287</v>
+        <v>202</v>
       </c>
       <c r="F5" s="28">
         <f t="shared" ca="1" si="0"/>
-        <v>10803271.08</v>
+        <v>10789093.08</v>
       </c>
       <c r="G5" s="27">
         <f t="shared" ca="1" si="1"/>
-        <v>43093279.32</v>
+        <v>43107457.32</v>
       </c>
     </row>
     <row r="6" spans="2:7" ht="30" customHeight="1">
       <c r="B6" s="26" t="s">
-        <v>290</v>
+        <v>205</v>
       </c>
       <c r="C6" s="27">
         <v>67366252.799999997</v>
@@ -13463,20 +13208,20 @@
         <v>2019</v>
       </c>
       <c r="E6" s="24" t="s">
-        <v>287</v>
+        <v>202</v>
       </c>
       <c r="F6" s="28">
         <f t="shared" ca="1" si="0"/>
-        <v>13485712.560000001</v>
+        <v>13474779.560000001</v>
       </c>
       <c r="G6" s="27">
         <f t="shared" ca="1" si="1"/>
-        <v>53880540.239999995</v>
+        <v>53891473.239999995</v>
       </c>
     </row>
     <row r="7" spans="2:7" ht="30" customHeight="1">
       <c r="B7" s="26" t="s">
-        <v>291</v>
+        <v>206</v>
       </c>
       <c r="C7" s="27">
         <v>80835955.199999988</v>
@@ -13485,20 +13230,20 @@
         <v>2024</v>
       </c>
       <c r="E7" s="24" t="s">
-        <v>287</v>
+        <v>202</v>
       </c>
       <c r="F7" s="28">
         <f t="shared" ca="1" si="0"/>
-        <v>16177318.039999999</v>
+        <v>16186026.039999999</v>
       </c>
       <c r="G7" s="27">
         <f t="shared" ca="1" si="1"/>
-        <v>64658637.159999989</v>
+        <v>64649929.159999989</v>
       </c>
     </row>
     <row r="8" spans="2:7">
       <c r="B8" s="26" t="s">
-        <v>292</v>
+        <v>207</v>
       </c>
       <c r="C8" s="27">
         <v>94305657.600000009</v>
@@ -13507,20 +13252,20 @@
         <v>2023</v>
       </c>
       <c r="E8" s="24" t="s">
-        <v>287</v>
+        <v>202</v>
       </c>
       <c r="F8" s="28">
         <f t="shared" ca="1" si="0"/>
-        <v>18877857.520000003</v>
+        <v>18870688.520000003</v>
       </c>
       <c r="G8" s="27">
         <f t="shared" ca="1" si="1"/>
-        <v>75427800.080000013</v>
+        <v>75434969.080000013</v>
       </c>
     </row>
     <row r="9" spans="2:7" ht="30" customHeight="1">
       <c r="B9" s="26" t="s">
-        <v>293</v>
+        <v>208</v>
       </c>
       <c r="C9" s="27">
         <v>107760576</v>
@@ -13529,20 +13274,20 @@
         <v>2022</v>
       </c>
       <c r="E9" s="24" t="s">
-        <v>287</v>
+        <v>202</v>
       </c>
       <c r="F9" s="28">
         <f t="shared" ca="1" si="0"/>
-        <v>21567359.200000003</v>
+        <v>21566719.200000003</v>
       </c>
       <c r="G9" s="27">
         <f t="shared" ca="1" si="1"/>
-        <v>86193216.799999997</v>
+        <v>86193856.799999997</v>
       </c>
     </row>
     <row r="10" spans="2:7">
       <c r="B10" s="26" t="s">
-        <v>294</v>
+        <v>209</v>
       </c>
       <c r="C10" s="27">
         <v>121082438.40000001</v>
@@ -13551,20 +13296,20 @@
         <v>2019</v>
       </c>
       <c r="E10" s="24" t="s">
-        <v>287</v>
+        <v>202</v>
       </c>
       <c r="F10" s="28">
         <f t="shared" ca="1" si="0"/>
-        <v>24234092.680000003</v>
+        <v>24235064.680000003</v>
       </c>
       <c r="G10" s="27">
         <f t="shared" ca="1" si="1"/>
-        <v>96848345.719999999</v>
+        <v>96847373.719999999</v>
       </c>
     </row>
     <row r="11" spans="2:7" ht="30" customHeight="1">
       <c r="B11" s="26" t="s">
-        <v>295</v>
+        <v>210</v>
       </c>
       <c r="C11" s="27">
         <v>133073740.8</v>
@@ -13573,20 +13318,20 @@
         <v>2024</v>
       </c>
       <c r="E11" s="24" t="s">
-        <v>287</v>
+        <v>202</v>
       </c>
       <c r="F11" s="28">
         <f t="shared" ca="1" si="0"/>
-        <v>26637616.16</v>
+        <v>26634208.16</v>
       </c>
       <c r="G11" s="27">
         <f t="shared" ca="1" si="1"/>
-        <v>106436124.64</v>
+        <v>106439532.64</v>
       </c>
     </row>
     <row r="12" spans="2:7">
       <c r="B12" s="26" t="s">
-        <v>296</v>
+        <v>211</v>
       </c>
       <c r="C12" s="27">
         <v>146543443.19999999</v>
@@ -13595,20 +13340,20 @@
         <v>2023</v>
       </c>
       <c r="E12" s="24" t="s">
-        <v>287</v>
+        <v>202</v>
       </c>
       <c r="F12" s="28">
         <f t="shared" ca="1" si="0"/>
-        <v>29316582.640000001</v>
+        <v>29329658.640000001</v>
       </c>
       <c r="G12" s="27">
         <f t="shared" ca="1" si="1"/>
-        <v>117226860.55999999</v>
+        <v>117213784.55999999</v>
       </c>
     </row>
     <row r="13" spans="2:7">
       <c r="B13" s="26" t="s">
-        <v>297</v>
+        <v>212</v>
       </c>
       <c r="C13" s="27">
         <v>16608345.6</v>
@@ -13617,20 +13362,20 @@
         <v>2022</v>
       </c>
       <c r="E13" s="24" t="s">
-        <v>287</v>
+        <v>202</v>
       </c>
       <c r="F13" s="28">
         <f t="shared" ca="1" si="0"/>
-        <v>3324733.12</v>
+        <v>3324934.12</v>
       </c>
       <c r="G13" s="27">
         <f t="shared" ca="1" si="1"/>
-        <v>13283612.48</v>
+        <v>13283411.48</v>
       </c>
     </row>
     <row r="14" spans="2:7">
       <c r="B14" s="26" t="s">
-        <v>298</v>
+        <v>213</v>
       </c>
       <c r="C14" s="27">
         <v>33034848</v>
@@ -13639,20 +13384,20 @@
         <v>2019</v>
       </c>
       <c r="E14" s="24" t="s">
-        <v>287</v>
+        <v>202</v>
       </c>
       <c r="F14" s="28">
         <f t="shared" ca="1" si="0"/>
-        <v>6628642.6000000006</v>
+        <v>6627187.6000000006</v>
       </c>
       <c r="G14" s="27">
         <f t="shared" ca="1" si="1"/>
-        <v>26406205.399999999</v>
+        <v>26407660.399999999</v>
       </c>
     </row>
     <row r="15" spans="2:7" ht="30" customHeight="1">
       <c r="B15" s="26" t="s">
-        <v>299</v>
+        <v>214</v>
       </c>
       <c r="C15" s="27">
         <v>49461350.399999999</v>
@@ -13661,20 +13406,20 @@
         <v>2020</v>
       </c>
       <c r="E15" s="24" t="s">
-        <v>287</v>
+        <v>202</v>
       </c>
       <c r="F15" s="28">
         <f t="shared" ca="1" si="0"/>
-        <v>9908380.0800000001</v>
+        <v>9907019.0800000001</v>
       </c>
       <c r="G15" s="27">
         <f t="shared" ca="1" si="1"/>
-        <v>39552970.32</v>
+        <v>39554331.32</v>
       </c>
     </row>
     <row r="16" spans="2:7">
       <c r="B16" s="26" t="s">
-        <v>300</v>
+        <v>215</v>
       </c>
       <c r="C16" s="27">
         <v>65887852.799999997</v>
@@ -13683,20 +13428,20 @@
         <v>2020</v>
       </c>
       <c r="E16" s="24" t="s">
-        <v>287</v>
+        <v>202</v>
       </c>
       <c r="F16" s="28">
         <f t="shared" ca="1" si="0"/>
-        <v>13178356.560000001</v>
+        <v>13196098.560000001</v>
       </c>
       <c r="G16" s="27">
         <f t="shared" ca="1" si="1"/>
-        <v>52709496.239999995</v>
+        <v>52691754.239999995</v>
       </c>
     </row>
     <row r="17" spans="2:7">
       <c r="B17" s="26" t="s">
-        <v>301</v>
+        <v>216</v>
       </c>
       <c r="C17" s="27">
         <v>82314355.199999988</v>
@@ -13705,20 +13450,20 @@
         <v>2020</v>
       </c>
       <c r="E17" s="24" t="s">
-        <v>287</v>
+        <v>202</v>
       </c>
       <c r="F17" s="28">
         <f t="shared" ca="1" si="0"/>
-        <v>16480705.039999999</v>
+        <v>16466596.039999999</v>
       </c>
       <c r="G17" s="27">
         <f t="shared" ca="1" si="1"/>
-        <v>65833650.159999989</v>
+        <v>65847759.159999989</v>
       </c>
     </row>
     <row r="18" spans="2:7">
       <c r="B18" s="26" t="s">
-        <v>302</v>
+        <v>217</v>
       </c>
       <c r="C18" s="27">
         <v>98740857.600000009</v>
@@ -13727,20 +13472,20 @@
         <v>2020</v>
       </c>
       <c r="E18" s="24" t="s">
-        <v>303</v>
+        <v>218</v>
       </c>
       <c r="F18" s="28">
         <f t="shared" ca="1" si="0"/>
-        <v>19764723.520000003</v>
+        <v>19754428.520000003</v>
       </c>
       <c r="G18" s="27">
         <f t="shared" ca="1" si="1"/>
-        <v>78976134.080000013</v>
+        <v>78986429.080000013</v>
       </c>
     </row>
     <row r="19" spans="2:7" ht="30" customHeight="1">
       <c r="B19" s="26" t="s">
-        <v>304</v>
+        <v>219</v>
       </c>
       <c r="C19" s="27">
         <v>115152576</v>
@@ -13749,20 +13494,20 @@
         <v>2020</v>
       </c>
       <c r="E19" s="24" t="s">
-        <v>287</v>
+        <v>202</v>
       </c>
       <c r="F19" s="28">
         <f t="shared" ca="1" si="0"/>
-        <v>23043798.200000003</v>
+        <v>23040187.200000003</v>
       </c>
       <c r="G19" s="27">
         <f t="shared" ca="1" si="1"/>
-        <v>92108777.799999997</v>
+        <v>92112388.799999997</v>
       </c>
     </row>
     <row r="20" spans="2:7">
       <c r="B20" s="26" t="s">
-        <v>305</v>
+        <v>220</v>
       </c>
       <c r="C20" s="27">
         <v>131431238.40000001</v>
@@ -13771,20 +13516,20 @@
         <v>2020</v>
       </c>
       <c r="E20" s="24" t="s">
-        <v>287</v>
+        <v>202</v>
       </c>
       <c r="F20" s="28">
         <f t="shared" ca="1" si="0"/>
-        <v>26300475.680000003</v>
+        <v>26301219.680000003</v>
       </c>
       <c r="G20" s="27">
         <f t="shared" ca="1" si="1"/>
-        <v>105130762.72</v>
+        <v>105130018.72</v>
       </c>
     </row>
     <row r="21" spans="2:7" ht="30" customHeight="1">
       <c r="B21" s="26" t="s">
-        <v>306</v>
+        <v>221</v>
       </c>
       <c r="C21" s="27">
         <v>146379340.80000001</v>
@@ -13793,20 +13538,20 @@
         <v>2017</v>
       </c>
       <c r="E21" s="24" t="s">
-        <v>303</v>
+        <v>218</v>
       </c>
       <c r="F21" s="28">
         <f t="shared" ca="1" si="0"/>
-        <v>29286678.160000004</v>
+        <v>29284149.160000004</v>
       </c>
       <c r="G21" s="27">
         <f t="shared" ca="1" si="1"/>
-        <v>117092662.64000002</v>
+        <v>117095191.64000002</v>
       </c>
     </row>
     <row r="22" spans="2:7">
       <c r="B22" s="26" t="s">
-        <v>307</v>
+        <v>222</v>
       </c>
       <c r="C22" s="27">
         <v>14965843.199999999</v>
@@ -13815,20 +13560,20 @@
         <v>2017</v>
       </c>
       <c r="E22" s="24" t="s">
-        <v>287</v>
+        <v>202</v>
       </c>
       <c r="F22" s="28">
         <f t="shared" ca="1" si="0"/>
-        <v>3006251.64</v>
+        <v>2997094.64</v>
       </c>
       <c r="G22" s="27">
         <f t="shared" ca="1" si="1"/>
-        <v>11959591.559999999</v>
+        <v>11968748.559999999</v>
       </c>
     </row>
     <row r="23" spans="2:7">
       <c r="B23" s="26" t="s">
-        <v>308</v>
+        <v>223</v>
       </c>
       <c r="C23" s="27">
         <v>31392345.600000001</v>
@@ -13837,20 +13582,20 @@
         <v>2017</v>
       </c>
       <c r="E23" s="24" t="s">
-        <v>303</v>
+        <v>218</v>
       </c>
       <c r="F23" s="28">
         <f t="shared" ca="1" si="0"/>
-        <v>6300390.120000001</v>
+        <v>6294266.120000001</v>
       </c>
       <c r="G23" s="27">
         <f t="shared" ca="1" si="1"/>
-        <v>25091955.48</v>
+        <v>25098079.48</v>
       </c>
     </row>
     <row r="24" spans="2:7">
       <c r="B24" s="26" t="s">
-        <v>309</v>
+        <v>224</v>
       </c>
       <c r="C24" s="27">
         <v>47818848</v>
@@ -13859,20 +13604,20 @@
         <v>2017</v>
       </c>
       <c r="E24" s="24" t="s">
-        <v>287</v>
+        <v>202</v>
       </c>
       <c r="F24" s="28">
         <f t="shared" ca="1" si="0"/>
-        <v>9567326.5999999996</v>
+        <v>9572206.5999999996</v>
       </c>
       <c r="G24" s="27">
         <f t="shared" ca="1" si="1"/>
-        <v>38251521.399999999</v>
+        <v>38246641.399999999</v>
       </c>
     </row>
     <row r="25" spans="2:7" ht="30" customHeight="1">
       <c r="B25" s="26" t="s">
-        <v>310</v>
+        <v>225</v>
       </c>
       <c r="C25" s="27">
         <v>64245350.399999999</v>
@@ -13881,20 +13626,20 @@
         <v>2017</v>
       </c>
       <c r="E25" s="24" t="s">
-        <v>287</v>
+        <v>202</v>
       </c>
       <c r="F25" s="28">
         <f t="shared" ca="1" si="0"/>
-        <v>12863647.08</v>
+        <v>12853776.08</v>
       </c>
       <c r="G25" s="27">
         <f t="shared" ca="1" si="1"/>
-        <v>51381703.32</v>
+        <v>51391574.32</v>
       </c>
     </row>
     <row r="26" spans="2:7">
       <c r="B26" s="26" t="s">
-        <v>311</v>
+        <v>226</v>
       </c>
       <c r="C26" s="27">
         <v>80671852.799999997</v>
@@ -13903,20 +13648,20 @@
         <v>2017</v>
       </c>
       <c r="E26" s="24" t="s">
-        <v>287</v>
+        <v>202</v>
       </c>
       <c r="F26" s="28">
         <f t="shared" ca="1" si="0"/>
-        <v>16155075.560000001</v>
+        <v>16143916.560000001</v>
       </c>
       <c r="G26" s="27">
         <f t="shared" ca="1" si="1"/>
-        <v>64516777.239999995</v>
+        <v>64527936.239999995</v>
       </c>
     </row>
     <row r="27" spans="2:7" ht="30" customHeight="1">
       <c r="B27" s="26" t="s">
-        <v>312</v>
+        <v>227</v>
       </c>
       <c r="C27" s="27">
         <v>97098355.199999988</v>
@@ -13925,20 +13670,20 @@
         <v>2017</v>
       </c>
       <c r="E27" s="24" t="s">
-        <v>287</v>
+        <v>202</v>
       </c>
       <c r="F27" s="28">
         <f t="shared" ca="1" si="0"/>
-        <v>19428449.039999999</v>
+        <v>19443087.039999999</v>
       </c>
       <c r="G27" s="27">
         <f t="shared" ca="1" si="1"/>
-        <v>77669906.159999996</v>
+        <v>77655268.159999996</v>
       </c>
     </row>
     <row r="28" spans="2:7">
       <c r="B28" s="26" t="s">
-        <v>313</v>
+        <v>228</v>
       </c>
       <c r="C28" s="27">
         <v>113524857.59999999</v>
@@ -13947,20 +13692,20 @@
         <v>2015</v>
       </c>
       <c r="E28" s="24" t="s">
-        <v>287</v>
+        <v>202</v>
       </c>
       <c r="F28" s="28">
         <f t="shared" ca="1" si="0"/>
-        <v>22710307.52</v>
+        <v>22723393.52</v>
       </c>
       <c r="G28" s="27">
         <f t="shared" ca="1" si="1"/>
-        <v>90814550.079999998</v>
+        <v>90801464.079999998</v>
       </c>
     </row>
     <row r="29" spans="2:7">
       <c r="B29" s="26" t="s">
-        <v>314</v>
+        <v>229</v>
       </c>
       <c r="C29" s="27">
         <v>129936576</v>
@@ -13969,20 +13714,20 @@
         <v>2015</v>
       </c>
       <c r="E29" s="24" t="s">
-        <v>303</v>
+        <v>218</v>
       </c>
       <c r="F29" s="28">
         <f t="shared" ca="1" si="0"/>
-        <v>26003191.200000003</v>
+        <v>26009470.200000003</v>
       </c>
       <c r="G29" s="27">
         <f t="shared" ca="1" si="1"/>
-        <v>103933384.8</v>
+        <v>103927105.8</v>
       </c>
     </row>
     <row r="30" spans="2:7" ht="30" customHeight="1">
       <c r="B30" s="26" t="s">
-        <v>315</v>
+        <v>230</v>
       </c>
       <c r="C30" s="27">
         <v>146215238.40000001</v>
@@ -13991,20 +13736,20 @@
         <v>2015</v>
       </c>
       <c r="E30" s="24" t="s">
-        <v>303</v>
+        <v>218</v>
       </c>
       <c r="F30" s="28">
         <f t="shared" ca="1" si="0"/>
-        <v>29256035.680000003</v>
+        <v>29247610.680000003</v>
       </c>
       <c r="G30" s="27">
         <f t="shared" ca="1" si="1"/>
-        <v>116959202.72</v>
+        <v>116967627.72</v>
       </c>
     </row>
     <row r="31" spans="2:7">
       <c r="B31" s="26" t="s">
-        <v>316</v>
+        <v>231</v>
       </c>
       <c r="C31" s="27">
         <v>28107340.800000001</v>
@@ -14013,20 +13758,20 @@
         <v>2015</v>
       </c>
       <c r="E31" s="24" t="s">
-        <v>303</v>
+        <v>218</v>
       </c>
       <c r="F31" s="28">
         <f t="shared" ca="1" si="0"/>
-        <v>5630150.1600000001</v>
+        <v>5643855.1600000001</v>
       </c>
       <c r="G31" s="27">
         <f t="shared" ca="1" si="1"/>
-        <v>22477190.640000001</v>
+        <v>22463485.640000001</v>
       </c>
     </row>
     <row r="32" spans="2:7">
       <c r="B32" s="26" t="s">
-        <v>317</v>
+        <v>232</v>
       </c>
       <c r="C32" s="27">
         <v>44533843.200000003</v>
@@ -14035,20 +13780,20 @@
         <v>2015</v>
       </c>
       <c r="E32" s="24" t="s">
-        <v>303</v>
+        <v>218</v>
       </c>
       <c r="F32" s="28">
         <f t="shared" ca="1" si="0"/>
-        <v>8912293.6400000006</v>
+        <v>8917918.6400000006</v>
       </c>
       <c r="G32" s="27">
         <f t="shared" ca="1" si="1"/>
-        <v>35621549.560000002</v>
+        <v>35615924.560000002</v>
       </c>
     </row>
     <row r="33" spans="2:7" ht="30" customHeight="1">
       <c r="B33" s="26" t="s">
-        <v>318</v>
+        <v>233</v>
       </c>
       <c r="C33" s="27">
         <v>60960345.599999987</v>
@@ -14057,20 +13802,20 @@
         <v>2015</v>
       </c>
       <c r="E33" s="24" t="s">
-        <v>287</v>
+        <v>202</v>
       </c>
       <c r="F33" s="28">
         <f t="shared" ca="1" si="0"/>
-        <v>12215958.119999997</v>
+        <v>12193375.119999997</v>
       </c>
       <c r="G33" s="27">
         <f t="shared" ca="1" si="1"/>
-        <v>48744387.479999989</v>
+        <v>48766970.479999989</v>
       </c>
     </row>
     <row r="34" spans="2:7">
       <c r="B34" s="26" t="s">
-        <v>319</v>
+        <v>234</v>
       </c>
       <c r="C34" s="27">
         <v>77386848</v>
@@ -14079,20 +13824,20 @@
         <v>2015</v>
       </c>
       <c r="E34" s="24" t="s">
-        <v>287</v>
+        <v>202</v>
       </c>
       <c r="F34" s="28">
         <f t="shared" ca="1" si="0"/>
-        <v>15501482.600000001</v>
+        <v>15495287.600000001</v>
       </c>
       <c r="G34" s="27">
         <f t="shared" ca="1" si="1"/>
-        <v>61885365.399999999</v>
+        <v>61891560.399999999</v>
       </c>
     </row>
     <row r="35" spans="2:7">
       <c r="B35" s="26" t="s">
-        <v>320</v>
+        <v>235</v>
       </c>
       <c r="C35" s="27">
         <v>93813350.399999991</v>
@@ -14101,20 +13846,20 @@
         <v>2015</v>
       </c>
       <c r="E35" s="24" t="s">
-        <v>287</v>
+        <v>202</v>
       </c>
       <c r="F35" s="28">
         <f t="shared" ca="1" si="0"/>
-        <v>18776769.079999998</v>
+        <v>18781152.079999998</v>
       </c>
       <c r="G35" s="27">
         <f t="shared" ca="1" si="1"/>
-        <v>75036581.319999993</v>
+        <v>75032198.319999993</v>
       </c>
     </row>
     <row r="36" spans="2:7" ht="30" customHeight="1">
       <c r="B36" s="26" t="s">
-        <v>321</v>
+        <v>236</v>
       </c>
       <c r="C36" s="27">
         <v>110239852.8</v>
@@ -14123,20 +13868,20 @@
         <v>2015</v>
       </c>
       <c r="E36" s="24" t="s">
-        <v>287</v>
+        <v>202</v>
       </c>
       <c r="F36" s="28">
         <f t="shared" ca="1" si="0"/>
-        <v>22055059.560000002</v>
+        <v>22049560.560000002</v>
       </c>
       <c r="G36" s="27">
         <f t="shared" ca="1" si="1"/>
-        <v>88184793.239999995</v>
+        <v>88190292.239999995</v>
       </c>
     </row>
     <row r="37" spans="2:7">
       <c r="B37" s="26" t="s">
-        <v>322</v>
+        <v>237</v>
       </c>
       <c r="C37" s="27">
         <v>126666355.2</v>
@@ -14145,20 +13890,20 @@
         <v>2015</v>
       </c>
       <c r="E37" s="24" t="s">
-        <v>287</v>
+        <v>202</v>
       </c>
       <c r="F37" s="28">
         <f t="shared" ca="1" si="0"/>
-        <v>25339602.040000003</v>
+        <v>25345077.040000003</v>
       </c>
       <c r="G37" s="27">
         <f t="shared" ca="1" si="1"/>
-        <v>101326753.16</v>
+        <v>101321278.16</v>
       </c>
     </row>
     <row r="38" spans="2:7">
       <c r="B38" s="26" t="s">
-        <v>323</v>
+        <v>238</v>
       </c>
       <c r="C38" s="27">
         <v>143092857.59999999</v>
@@ -14167,20 +13912,20 @@
         <v>2015</v>
       </c>
       <c r="E38" s="24" t="s">
-        <v>303</v>
+        <v>218</v>
       </c>
       <c r="F38" s="28">
         <f t="shared" ca="1" si="0"/>
-        <v>28625769.52</v>
+        <v>28622051.52</v>
       </c>
       <c r="G38" s="27">
         <f t="shared" ca="1" si="1"/>
-        <v>114467088.08</v>
+        <v>114470806.08</v>
       </c>
     </row>
     <row r="39" spans="2:7" ht="30" customHeight="1">
       <c r="B39" s="26" t="s">
-        <v>324</v>
+        <v>239</v>
       </c>
       <c r="C39" s="27">
         <v>26448576</v>
@@ -14189,20 +13934,20 @@
         <v>2015</v>
       </c>
       <c r="E39" s="24" t="s">
-        <v>303</v>
+        <v>218</v>
       </c>
       <c r="F39" s="28">
         <f t="shared" ca="1" si="0"/>
-        <v>5314335.2</v>
+        <v>5314585.2</v>
       </c>
       <c r="G39" s="27">
         <f t="shared" ca="1" si="1"/>
-        <v>21134240.800000001</v>
+        <v>21133990.800000001</v>
       </c>
     </row>
     <row r="40" spans="2:7">
       <c r="B40" s="26" t="s">
-        <v>325</v>
+        <v>240</v>
       </c>
       <c r="C40" s="27">
         <v>42727238.399999999</v>
@@ -14211,20 +13956,20 @@
         <v>2015</v>
       </c>
       <c r="E40" s="24" t="s">
-        <v>303</v>
+        <v>218</v>
       </c>
       <c r="F40" s="28">
         <f t="shared" ca="1" si="0"/>
-        <v>8551061.6799999997</v>
+        <v>8558823.6799999997</v>
       </c>
       <c r="G40" s="27">
         <f t="shared" ca="1" si="1"/>
-        <v>34176176.719999999</v>
+        <v>34168414.719999999</v>
       </c>
     </row>
     <row r="41" spans="2:7">
       <c r="B41" s="26" t="s">
-        <v>326</v>
+        <v>241</v>
       </c>
       <c r="C41" s="27">
         <v>57675340.799999997</v>
@@ -14233,20 +13978,20 @@
         <v>2015</v>
       </c>
       <c r="E41" s="24" t="s">
-        <v>303</v>
+        <v>218</v>
       </c>
       <c r="F41" s="28">
         <f t="shared" ca="1" si="0"/>
-        <v>11535473.16</v>
+        <v>11552864.16</v>
       </c>
       <c r="G41" s="27">
         <f t="shared" ca="1" si="1"/>
-        <v>46139867.640000001</v>
+        <v>46122476.640000001</v>
       </c>
     </row>
     <row r="42" spans="2:7">
       <c r="B42" s="26" t="s">
-        <v>327</v>
+        <v>242</v>
       </c>
       <c r="C42" s="27">
         <v>74101843.200000003</v>
@@ -14255,15 +14000,15 @@
         <v>2015</v>
       </c>
       <c r="E42" s="24" t="s">
-        <v>303</v>
+        <v>218</v>
       </c>
       <c r="F42" s="28">
         <f t="shared" ca="1" si="0"/>
-        <v>14826882.640000001</v>
+        <v>14829092.640000001</v>
       </c>
       <c r="G42" s="27">
         <f t="shared" ca="1" si="1"/>
-        <v>59274960.560000002</v>
+        <v>59272750.560000002</v>
       </c>
     </row>
   </sheetData>
@@ -14299,10 +14044,10 @@
         <v>94</v>
       </c>
       <c r="E2" s="30" t="s">
-        <v>328</v>
+        <v>243</v>
       </c>
       <c r="F2" s="30" t="s">
-        <v>329</v>
+        <v>244</v>
       </c>
     </row>
     <row r="3" spans="2:6">
@@ -14409,7 +14154,7 @@
     </row>
     <row r="43" spans="2:6">
       <c r="B43" s="29" t="s">
-        <v>330</v>
+        <v>245</v>
       </c>
       <c r="C43" s="29">
         <v>6</v>
@@ -14427,7 +14172,7 @@
     </row>
     <row r="44" spans="2:6">
       <c r="B44" s="29" t="s">
-        <v>331</v>
+        <v>246</v>
       </c>
       <c r="C44" s="29">
         <v>7</v>
@@ -14482,13 +14227,13 @@
         <v>99</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>332</v>
+        <v>247</v>
       </c>
       <c r="G1" s="8" t="s">
-        <v>333</v>
+        <v>248</v>
       </c>
       <c r="H1" s="8" t="s">
-        <v>334</v>
+        <v>249</v>
       </c>
     </row>
     <row r="2" spans="1:8">
@@ -14508,10 +14253,10 @@
         <v>4</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>335</v>
+        <v>250</v>
       </c>
       <c r="H2" t="s">
-        <v>336</v>
+        <v>251</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -14533,10 +14278,10 @@
       </c>
       <c r="F3" s="3"/>
       <c r="G3" t="s">
-        <v>335</v>
+        <v>250</v>
       </c>
       <c r="H3" t="s">
-        <v>336</v>
+        <v>251</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -14557,10 +14302,10 @@
         <v>10</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>337</v>
+        <v>252</v>
       </c>
       <c r="H4" t="s">
-        <v>338</v>
+        <v>253</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -14581,10 +14326,10 @@
         <v>11</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>335</v>
+        <v>250</v>
       </c>
       <c r="H5" t="s">
-        <v>339</v>
+        <v>254</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -14605,10 +14350,10 @@
         <v>13</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>337</v>
+        <v>252</v>
       </c>
       <c r="H6" t="s">
-        <v>338</v>
+        <v>253</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -14630,10 +14375,10 @@
         <v>5</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>340</v>
+        <v>255</v>
       </c>
       <c r="H7" t="s">
-        <v>339</v>
+        <v>254</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -14655,10 +14400,10 @@
         <v>7</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>335</v>
+        <v>250</v>
       </c>
       <c r="H8" t="s">
-        <v>341</v>
+        <v>256</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -14680,10 +14425,10 @@
         <v>10</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>335</v>
+        <v>250</v>
       </c>
       <c r="H9" t="s">
-        <v>339</v>
+        <v>254</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -14705,10 +14450,10 @@
         <v>11</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>335</v>
+        <v>250</v>
       </c>
       <c r="H10" t="s">
-        <v>339</v>
+        <v>254</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -14730,10 +14475,10 @@
         <v>13</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>340</v>
+        <v>255</v>
       </c>
       <c r="H11" t="s">
-        <v>339</v>
+        <v>254</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -14755,7 +14500,7 @@
         <v>6</v>
       </c>
       <c r="F12" s="3" t="s">
-        <v>342</v>
+        <v>257</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -14777,10 +14522,10 @@
         <v>7</v>
       </c>
       <c r="F13" s="3" t="s">
-        <v>335</v>
+        <v>250</v>
       </c>
       <c r="H13" t="s">
-        <v>336</v>
+        <v>251</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -14802,7 +14547,7 @@
         <v>10</v>
       </c>
       <c r="F14" s="3" t="s">
-        <v>343</v>
+        <v>258</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -14825,7 +14570,7 @@
       </c>
       <c r="F15" s="3"/>
       <c r="G15" t="s">
-        <v>343</v>
+        <v>258</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -14847,7 +14592,7 @@
         <v>13</v>
       </c>
       <c r="F16" s="3" t="s">
-        <v>342</v>
+        <v>257</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -14869,10 +14614,10 @@
         <v>6</v>
       </c>
       <c r="F17" s="3" t="s">
-        <v>335</v>
+        <v>250</v>
       </c>
       <c r="H17" t="s">
-        <v>336</v>
+        <v>251</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -14894,7 +14639,7 @@
         <v>8</v>
       </c>
       <c r="F18" s="3" t="s">
-        <v>342</v>
+        <v>257</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -14916,7 +14661,7 @@
         <v>10</v>
       </c>
       <c r="F19" s="3" t="s">
-        <v>344</v>
+        <v>259</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -14938,7 +14683,7 @@
         <v>11</v>
       </c>
       <c r="F20" s="3" t="s">
-        <v>345</v>
+        <v>260</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -14961,7 +14706,7 @@
       </c>
       <c r="F21" s="3"/>
       <c r="G21" t="s">
-        <v>346</v>
+        <v>261</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -14983,7 +14728,7 @@
         <v>5</v>
       </c>
       <c r="F22" s="3" t="s">
-        <v>342</v>
+        <v>257</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -15005,7 +14750,7 @@
         <v>8</v>
       </c>
       <c r="F23" s="3" t="s">
-        <v>335</v>
+        <v>250</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -15027,7 +14772,7 @@
         <v>10</v>
       </c>
       <c r="F24" s="3" t="s">
-        <v>342</v>
+        <v>257</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -15049,7 +14794,7 @@
         <v>11</v>
       </c>
       <c r="F25" s="3" t="s">
-        <v>347</v>
+        <v>262</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -15071,7 +14816,7 @@
         <v>13</v>
       </c>
       <c r="F26" s="3" t="s">
-        <v>343</v>
+        <v>258</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -15093,7 +14838,7 @@
         <v>6</v>
       </c>
       <c r="F27" s="3" t="s">
-        <v>342</v>
+        <v>257</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -15115,10 +14860,10 @@
         <v>8</v>
       </c>
       <c r="F28" s="3" t="s">
-        <v>335</v>
+        <v>250</v>
       </c>
       <c r="H28" t="s">
-        <v>339</v>
+        <v>254</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -15140,10 +14885,10 @@
         <v>10</v>
       </c>
       <c r="F29" s="3" t="s">
-        <v>335</v>
+        <v>250</v>
       </c>
       <c r="H29" t="s">
-        <v>339</v>
+        <v>254</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -15165,7 +14910,7 @@
         <v>12</v>
       </c>
       <c r="F30" s="3" t="s">
-        <v>343</v>
+        <v>258</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -15187,7 +14932,7 @@
         <v>13</v>
       </c>
       <c r="F31" s="3" t="s">
-        <v>335</v>
+        <v>250</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -15210,7 +14955,7 @@
       </c>
       <c r="F32" s="3"/>
       <c r="G32" t="s">
-        <v>343</v>
+        <v>258</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -15232,10 +14977,10 @@
         <v>8</v>
       </c>
       <c r="F33" s="3" t="s">
-        <v>335</v>
+        <v>250</v>
       </c>
       <c r="H33" t="s">
-        <v>336</v>
+        <v>251</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -15257,10 +15002,10 @@
         <v>10</v>
       </c>
       <c r="F34" s="3" t="s">
-        <v>335</v>
+        <v>250</v>
       </c>
       <c r="H34" t="s">
-        <v>336</v>
+        <v>251</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -15282,10 +15027,10 @@
         <v>12</v>
       </c>
       <c r="F35" s="3" t="s">
-        <v>335</v>
+        <v>250</v>
       </c>
       <c r="H35" t="s">
-        <v>336</v>
+        <v>251</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -15307,10 +15052,10 @@
         <v>13</v>
       </c>
       <c r="F36" s="3" t="s">
-        <v>335</v>
+        <v>250</v>
       </c>
       <c r="H36" t="s">
-        <v>339</v>
+        <v>254</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -15332,7 +15077,7 @@
         <v>6</v>
       </c>
       <c r="F37" s="3" t="s">
-        <v>335</v>
+        <v>250</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -15354,7 +15099,7 @@
         <v>8</v>
       </c>
       <c r="F38" s="3" t="s">
-        <v>342</v>
+        <v>257</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -15376,7 +15121,7 @@
         <v>10</v>
       </c>
       <c r="F39" s="3" t="s">
-        <v>335</v>
+        <v>250</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -15398,10 +15143,10 @@
         <v>12</v>
       </c>
       <c r="F40" s="3" t="s">
-        <v>335</v>
+        <v>250</v>
       </c>
       <c r="H40" t="s">
-        <v>339</v>
+        <v>254</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -15423,10 +15168,10 @@
         <v>13</v>
       </c>
       <c r="F41" s="3" t="s">
-        <v>335</v>
+        <v>250</v>
       </c>
       <c r="H41" t="s">
-        <v>339</v>
+        <v>254</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -15448,7 +15193,7 @@
         <v>4</v>
       </c>
       <c r="F42" s="3" t="s">
-        <v>343</v>
+        <v>258</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -15470,7 +15215,7 @@
         <v>9</v>
       </c>
       <c r="F43" s="3" t="s">
-        <v>342</v>
+        <v>257</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -15492,7 +15237,7 @@
         <v>10</v>
       </c>
       <c r="F44" s="3" t="s">
-        <v>345</v>
+        <v>260</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -15514,7 +15259,7 @@
         <v>12</v>
       </c>
       <c r="F45" s="3" t="s">
-        <v>335</v>
+        <v>250</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -15536,7 +15281,7 @@
         <v>13</v>
       </c>
       <c r="F46" s="3" t="s">
-        <v>342</v>
+        <v>257</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -15558,7 +15303,7 @@
         <v>5</v>
       </c>
       <c r="F47" s="3" t="s">
-        <v>345</v>
+        <v>260</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -15580,7 +15325,7 @@
         <v>9</v>
       </c>
       <c r="F48" s="3" t="s">
-        <v>348</v>
+        <v>263</v>
       </c>
     </row>
     <row r="49" spans="1:6">
@@ -15602,7 +15347,7 @@
         <v>10</v>
       </c>
       <c r="F49" s="3" t="s">
-        <v>342</v>
+        <v>257</v>
       </c>
     </row>
     <row r="50" spans="1:6">
@@ -15624,7 +15369,7 @@
         <v>12</v>
       </c>
       <c r="F50" s="3" t="s">
-        <v>344</v>
+        <v>259</v>
       </c>
     </row>
     <row r="51" spans="1:6">
@@ -15646,7 +15391,7 @@
         <v>13</v>
       </c>
       <c r="F51" s="3" t="s">
-        <v>343</v>
+        <v>258</v>
       </c>
     </row>
   </sheetData>
@@ -15666,30 +15411,30 @@
   <sheetData>
     <row r="1" spans="1:5" ht="30" customHeight="1">
       <c r="A1" s="32" t="s">
-        <v>349</v>
+        <v>264</v>
       </c>
       <c r="B1" s="32" t="s">
-        <v>350</v>
+        <v>265</v>
       </c>
       <c r="C1" s="32" t="s">
-        <v>351</v>
+        <v>266</v>
       </c>
       <c r="D1" s="32" t="s">
-        <v>352</v>
+        <v>267</v>
       </c>
       <c r="E1" s="33" t="s">
-        <v>353</v>
+        <v>268</v>
       </c>
     </row>
     <row r="2" spans="1:5">
       <c r="A2" t="s">
-        <v>354</v>
+        <v>269</v>
       </c>
       <c r="B2" t="s">
-        <v>355</v>
+        <v>270</v>
       </c>
       <c r="C2" t="s">
-        <v>354</v>
+        <v>269</v>
       </c>
       <c r="D2">
         <v>21</v>
@@ -15700,13 +15445,13 @@
     </row>
     <row r="3" spans="1:5">
       <c r="A3" t="s">
-        <v>356</v>
+        <v>271</v>
       </c>
       <c r="B3" t="s">
-        <v>357</v>
+        <v>272</v>
       </c>
       <c r="C3" t="s">
-        <v>356</v>
+        <v>271</v>
       </c>
       <c r="D3">
         <v>20</v>
@@ -15717,13 +15462,13 @@
     </row>
     <row r="4" spans="1:5">
       <c r="A4" t="s">
-        <v>347</v>
+        <v>262</v>
       </c>
       <c r="B4" t="s">
-        <v>358</v>
+        <v>273</v>
       </c>
       <c r="C4" t="s">
-        <v>347</v>
+        <v>262</v>
       </c>
       <c r="D4">
         <v>19</v>
@@ -15734,13 +15479,13 @@
     </row>
     <row r="5" spans="1:5">
       <c r="A5" t="s">
-        <v>337</v>
+        <v>252</v>
       </c>
       <c r="B5" t="s">
-        <v>338</v>
+        <v>253</v>
       </c>
       <c r="C5" t="s">
-        <v>337</v>
+        <v>252</v>
       </c>
       <c r="D5">
         <v>18</v>
@@ -15751,13 +15496,13 @@
     </row>
     <row r="6" spans="1:5">
       <c r="A6" t="s">
-        <v>340</v>
+        <v>255</v>
       </c>
       <c r="B6" t="s">
-        <v>339</v>
+        <v>254</v>
       </c>
       <c r="C6" t="s">
-        <v>340</v>
+        <v>255</v>
       </c>
       <c r="D6">
         <v>17</v>
@@ -15768,13 +15513,13 @@
     </row>
     <row r="7" spans="1:5">
       <c r="A7" t="s">
-        <v>335</v>
+        <v>250</v>
       </c>
       <c r="B7" t="s">
-        <v>336</v>
+        <v>251</v>
       </c>
       <c r="C7" t="s">
-        <v>335</v>
+        <v>250</v>
       </c>
       <c r="D7">
         <v>16</v>
@@ -15785,13 +15530,13 @@
     </row>
     <row r="8" spans="1:5">
       <c r="A8" t="s">
-        <v>344</v>
+        <v>259</v>
       </c>
       <c r="B8" t="s">
-        <v>341</v>
+        <v>256</v>
       </c>
       <c r="C8" t="s">
-        <v>344</v>
+        <v>259</v>
       </c>
       <c r="D8">
         <v>15</v>
@@ -15802,13 +15547,13 @@
     </row>
     <row r="9" spans="1:5">
       <c r="A9" t="s">
-        <v>343</v>
+        <v>258</v>
       </c>
       <c r="B9" t="s">
-        <v>359</v>
+        <v>274</v>
       </c>
       <c r="C9" t="s">
-        <v>343</v>
+        <v>258</v>
       </c>
       <c r="D9">
         <v>14</v>
@@ -15819,13 +15564,13 @@
     </row>
     <row r="10" spans="1:5">
       <c r="A10" t="s">
-        <v>342</v>
+        <v>257</v>
       </c>
       <c r="B10" t="s">
-        <v>360</v>
+        <v>275</v>
       </c>
       <c r="C10" t="s">
-        <v>342</v>
+        <v>257</v>
       </c>
       <c r="D10">
         <v>13</v>
@@ -15836,13 +15581,13 @@
     </row>
     <row r="11" spans="1:5">
       <c r="A11" t="s">
-        <v>361</v>
+        <v>276</v>
       </c>
       <c r="B11" t="s">
-        <v>362</v>
+        <v>277</v>
       </c>
       <c r="C11" t="s">
-        <v>361</v>
+        <v>276</v>
       </c>
       <c r="D11">
         <v>12</v>
@@ -15853,13 +15598,13 @@
     </row>
     <row r="12" spans="1:5">
       <c r="A12" t="s">
-        <v>348</v>
+        <v>263</v>
       </c>
       <c r="B12" t="s">
-        <v>363</v>
+        <v>278</v>
       </c>
       <c r="C12" t="s">
-        <v>348</v>
+        <v>263</v>
       </c>
       <c r="D12">
         <v>11</v>
@@ -15870,13 +15615,13 @@
     </row>
     <row r="13" spans="1:5">
       <c r="A13" t="s">
-        <v>364</v>
+        <v>279</v>
       </c>
       <c r="B13" t="s">
-        <v>365</v>
+        <v>280</v>
       </c>
       <c r="C13" t="s">
-        <v>364</v>
+        <v>279</v>
       </c>
       <c r="D13">
         <v>10</v>
@@ -15887,13 +15632,13 @@
     </row>
     <row r="14" spans="1:5">
       <c r="A14" t="s">
-        <v>366</v>
+        <v>281</v>
       </c>
       <c r="B14" t="s">
-        <v>367</v>
+        <v>282</v>
       </c>
       <c r="C14" t="s">
-        <v>366</v>
+        <v>281</v>
       </c>
       <c r="D14">
         <v>9</v>
@@ -15904,13 +15649,13 @@
     </row>
     <row r="15" spans="1:5">
       <c r="A15" t="s">
-        <v>346</v>
+        <v>261</v>
       </c>
       <c r="B15" t="s">
-        <v>368</v>
+        <v>283</v>
       </c>
       <c r="C15" t="s">
-        <v>346</v>
+        <v>261</v>
       </c>
       <c r="D15">
         <v>8</v>
@@ -15921,13 +15666,13 @@
     </row>
     <row r="16" spans="1:5">
       <c r="A16" t="s">
-        <v>369</v>
+        <v>284</v>
       </c>
       <c r="B16" t="s">
-        <v>370</v>
+        <v>285</v>
       </c>
       <c r="C16" t="s">
-        <v>369</v>
+        <v>284</v>
       </c>
       <c r="D16">
         <v>7</v>
@@ -15938,13 +15683,13 @@
     </row>
     <row r="17" spans="1:5">
       <c r="A17" t="s">
-        <v>371</v>
+        <v>286</v>
       </c>
       <c r="B17" t="s">
-        <v>372</v>
+        <v>287</v>
       </c>
       <c r="C17" t="s">
-        <v>371</v>
+        <v>286</v>
       </c>
       <c r="D17">
         <v>6</v>
@@ -15955,13 +15700,13 @@
     </row>
     <row r="18" spans="1:5">
       <c r="A18" t="s">
-        <v>373</v>
+        <v>288</v>
       </c>
       <c r="B18" t="s">
-        <v>374</v>
+        <v>289</v>
       </c>
       <c r="C18" t="s">
-        <v>373</v>
+        <v>288</v>
       </c>
       <c r="D18">
         <v>5</v>
@@ -15972,13 +15717,13 @@
     </row>
     <row r="19" spans="1:5">
       <c r="A19" t="s">
-        <v>375</v>
+        <v>290</v>
       </c>
       <c r="B19" t="s">
-        <v>376</v>
+        <v>291</v>
       </c>
       <c r="C19" t="s">
-        <v>375</v>
+        <v>290</v>
       </c>
       <c r="D19">
         <v>4</v>
@@ -15989,13 +15734,13 @@
     </row>
     <row r="20" spans="1:5">
       <c r="A20" t="s">
-        <v>377</v>
+        <v>292</v>
       </c>
       <c r="B20" t="s">
-        <v>378</v>
+        <v>293</v>
       </c>
       <c r="C20" t="s">
-        <v>377</v>
+        <v>292</v>
       </c>
       <c r="D20">
         <v>3</v>
@@ -16006,13 +15751,13 @@
     </row>
     <row r="21" spans="1:5">
       <c r="A21" t="s">
-        <v>379</v>
+        <v>294</v>
       </c>
       <c r="B21" t="s">
-        <v>380</v>
+        <v>295</v>
       </c>
       <c r="C21" t="s">
-        <v>379</v>
+        <v>294</v>
       </c>
       <c r="D21">
         <v>2</v>
@@ -16023,7 +15768,7 @@
     </row>
     <row r="22" spans="1:5">
       <c r="C22" t="s">
-        <v>381</v>
+        <v>296</v>
       </c>
       <c r="D22">
         <v>2</v>
@@ -16034,13 +15779,13 @@
     </row>
     <row r="23" spans="1:5">
       <c r="A23" t="s">
-        <v>382</v>
+        <v>297</v>
       </c>
       <c r="B23" t="s">
-        <v>381</v>
+        <v>296</v>
       </c>
       <c r="C23" t="s">
-        <v>383</v>
+        <v>298</v>
       </c>
       <c r="D23">
         <v>1</v>
@@ -16048,10 +15793,10 @@
     </row>
     <row r="24" spans="1:5">
       <c r="A24" t="s">
-        <v>384</v>
+        <v>299</v>
       </c>
       <c r="C24" t="s">
-        <v>385</v>
+        <v>300</v>
       </c>
       <c r="D24">
         <v>1</v>
@@ -16059,7 +15804,7 @@
     </row>
     <row r="25" spans="1:5">
       <c r="C25" t="s">
-        <v>384</v>
+        <v>299</v>
       </c>
       <c r="D25">
         <v>1</v>

--- a/Sample_Bank_Data/SEP 2024.xlsx
+++ b/Sample_Bank_Data/SEP 2024.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\91636\Downloads\data\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="3" documentId="13_ncr:1_{42FDEC2A-8242-4E00-8B33-4E96A87043E5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{766CC15E-1136-4BB7-9957-FB67927D6B7C}"/>
+  <xr:revisionPtr revIDLastSave="4" documentId="13_ncr:1_{42FDEC2A-8242-4E00-8B33-4E96A87043E5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{717D5E48-C3B4-4569-A993-C1A0BD25B675}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" firstSheet="3" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -50,7 +50,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1780" uniqueCount="308">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1780" uniqueCount="305">
   <si>
     <t>Collateral Types</t>
   </si>
@@ -424,9 +424,6 @@
     <t>Collateral Grade</t>
   </si>
   <si>
-    <t>Collatral Land &amp; Building</t>
-  </si>
-  <si>
     <t>50%</t>
   </si>
   <si>
@@ -448,9 +445,6 @@
     <t>Building2</t>
   </si>
   <si>
-    <t>Collatral Cash, Gold &amp; Other Riskfree Assests</t>
-  </si>
-  <si>
     <t>0%</t>
   </si>
   <si>
@@ -467,9 +461,6 @@
   </si>
   <si>
     <t>Building4</t>
-  </si>
-  <si>
-    <t>Collatral Shares &amp; Other Paper Assests</t>
   </si>
   <si>
     <t>75%</t>
@@ -1675,21 +1666,21 @@
   <sheetData>
     <row r="1" spans="1:4" ht="30" customHeight="1">
       <c r="A1" s="32" t="s">
+        <v>262</v>
+      </c>
+      <c r="B1" s="33" t="s">
         <v>265</v>
       </c>
-      <c r="B1" s="33" t="s">
-        <v>268</v>
-      </c>
       <c r="C1" s="32" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="D1" s="32" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="B2">
         <v>1</v>
@@ -1703,7 +1694,7 @@
     </row>
     <row r="3" spans="1:4">
       <c r="A3" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="B3">
         <v>2</v>
@@ -1717,7 +1708,7 @@
     </row>
     <row r="4" spans="1:4">
       <c r="A4" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="B4">
         <v>3</v>
@@ -1731,7 +1722,7 @@
     </row>
     <row r="5" spans="1:4">
       <c r="A5" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="B5">
         <v>4</v>
@@ -1745,7 +1736,7 @@
     </row>
     <row r="6" spans="1:4">
       <c r="A6" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="B6">
         <v>5</v>
@@ -1759,7 +1750,7 @@
     </row>
     <row r="7" spans="1:4">
       <c r="A7" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="B7">
         <v>6</v>
@@ -1773,7 +1764,7 @@
     </row>
     <row r="8" spans="1:4">
       <c r="A8" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="B8">
         <v>7</v>
@@ -1787,7 +1778,7 @@
     </row>
     <row r="9" spans="1:4">
       <c r="A9" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="B9">
         <v>8</v>
@@ -1801,7 +1792,7 @@
     </row>
     <row r="10" spans="1:4">
       <c r="A10" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="B10">
         <v>9</v>
@@ -1815,7 +1806,7 @@
     </row>
     <row r="11" spans="1:4">
       <c r="A11" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="B11">
         <v>10</v>
@@ -1829,7 +1820,7 @@
     </row>
     <row r="12" spans="1:4">
       <c r="A12" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="B12">
         <v>11</v>
@@ -1843,7 +1834,7 @@
     </row>
     <row r="13" spans="1:4">
       <c r="A13" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="B13">
         <v>12</v>
@@ -1857,7 +1848,7 @@
     </row>
     <row r="14" spans="1:4">
       <c r="A14" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="B14">
         <v>13</v>
@@ -1871,7 +1862,7 @@
     </row>
     <row r="15" spans="1:4">
       <c r="A15" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="B15">
         <v>14</v>
@@ -1885,7 +1876,7 @@
     </row>
     <row r="16" spans="1:4">
       <c r="A16" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="B16">
         <v>15</v>
@@ -1899,7 +1890,7 @@
     </row>
     <row r="17" spans="1:4">
       <c r="A17" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="B17">
         <v>16</v>
@@ -1913,7 +1904,7 @@
     </row>
     <row r="18" spans="1:4">
       <c r="A18" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="B18">
         <v>17</v>
@@ -1927,7 +1918,7 @@
     </row>
     <row r="19" spans="1:4">
       <c r="A19" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="B19">
         <v>17</v>
@@ -1941,7 +1932,7 @@
     </row>
     <row r="20" spans="1:4">
       <c r="A20" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="B20">
         <v>17</v>
@@ -1955,7 +1946,7 @@
     </row>
     <row r="21" spans="1:4">
       <c r="A21" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="B21">
         <v>17</v>
@@ -1969,7 +1960,7 @@
     </row>
     <row r="22" spans="1:4">
       <c r="A22" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="C22">
         <v>100</v>
@@ -2004,22 +1995,22 @@
   <sheetData>
     <row r="1" spans="1:10">
       <c r="A1" s="16" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="B1" s="16" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="E1" s="17" t="s">
         <v>28</v>
       </c>
       <c r="F1" s="17" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="I1" s="18" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="J1" s="18" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
     </row>
     <row r="2" spans="1:10">
@@ -8294,7 +8285,7 @@
   <dimension ref="A1:J148"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A148"/>
+      <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -8345,7 +8336,7 @@
         <v>6340719</v>
       </c>
       <c r="E2" t="s">
-        <v>124</v>
+        <v>4</v>
       </c>
       <c r="F2" t="s">
         <v>5</v>
@@ -8354,10 +8345,10 @@
         <v>7</v>
       </c>
       <c r="H2" t="s">
+        <v>124</v>
+      </c>
+      <c r="I2" t="s">
         <v>125</v>
-      </c>
-      <c r="I2" t="s">
-        <v>126</v>
       </c>
       <c r="J2">
         <v>4</v>
@@ -8377,7 +8368,7 @@
         <v>6340719</v>
       </c>
       <c r="E3" t="s">
-        <v>124</v>
+        <v>4</v>
       </c>
       <c r="F3" t="s">
         <v>9</v>
@@ -8386,10 +8377,10 @@
         <v>10</v>
       </c>
       <c r="H3" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="I3" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="J3">
         <v>1</v>
@@ -8418,10 +8409,10 @@
         <v>24</v>
       </c>
       <c r="H4" t="s">
+        <v>127</v>
+      </c>
+      <c r="I4" t="s">
         <v>128</v>
-      </c>
-      <c r="I4" t="s">
-        <v>129</v>
       </c>
       <c r="J4">
         <v>5</v>
@@ -8441,7 +8432,7 @@
         <v>12464229</v>
       </c>
       <c r="E5" t="s">
-        <v>124</v>
+        <v>4</v>
       </c>
       <c r="F5" t="s">
         <v>9</v>
@@ -8450,10 +8441,10 @@
         <v>11</v>
       </c>
       <c r="H5" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="I5" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="J5">
         <v>4</v>
@@ -8473,7 +8464,7 @@
         <v>12464229</v>
       </c>
       <c r="E6" t="s">
-        <v>124</v>
+        <v>4</v>
       </c>
       <c r="F6" t="s">
         <v>5</v>
@@ -8482,10 +8473,10 @@
         <v>8</v>
       </c>
       <c r="H6" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="I6" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="J6">
         <v>1</v>
@@ -8505,7 +8496,7 @@
         <v>49385640.5</v>
       </c>
       <c r="E7" t="s">
-        <v>132</v>
+        <v>13</v>
       </c>
       <c r="F7" t="s">
         <v>15</v>
@@ -8514,10 +8505,10 @@
         <v>15</v>
       </c>
       <c r="H7" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="I7" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="J7">
         <v>5</v>
@@ -8537,7 +8528,7 @@
         <v>49385640.5</v>
       </c>
       <c r="E8" t="s">
-        <v>132</v>
+        <v>13</v>
       </c>
       <c r="F8" t="s">
         <v>14</v>
@@ -8546,10 +8537,10 @@
         <v>14</v>
       </c>
       <c r="H8" t="s">
+        <v>131</v>
+      </c>
+      <c r="I8" t="s">
         <v>133</v>
-      </c>
-      <c r="I8" t="s">
-        <v>135</v>
       </c>
       <c r="J8">
         <v>2</v>
@@ -8578,10 +8569,10 @@
         <v>24</v>
       </c>
       <c r="H9" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="I9" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="J9">
         <v>2</v>
@@ -8601,7 +8592,7 @@
         <v>49397218</v>
       </c>
       <c r="E10" t="s">
-        <v>124</v>
+        <v>4</v>
       </c>
       <c r="F10" t="s">
         <v>5</v>
@@ -8610,10 +8601,10 @@
         <v>7</v>
       </c>
       <c r="H10" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="I10" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="J10">
         <v>4</v>
@@ -8633,7 +8624,7 @@
         <v>49397218</v>
       </c>
       <c r="E11" t="s">
-        <v>124</v>
+        <v>4</v>
       </c>
       <c r="F11" t="s">
         <v>5</v>
@@ -8642,10 +8633,10 @@
         <v>6</v>
       </c>
       <c r="H11" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="I11" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="J11">
         <v>1</v>
@@ -8665,7 +8656,7 @@
         <v>11735125.5</v>
       </c>
       <c r="E12" t="s">
-        <v>139</v>
+        <v>19</v>
       </c>
       <c r="F12" t="s">
         <v>20</v>
@@ -8674,10 +8665,10 @@
         <v>22</v>
       </c>
       <c r="H12" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="I12" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="J12">
         <v>2</v>
@@ -8697,7 +8688,7 @@
         <v>11735125.5</v>
       </c>
       <c r="E13" t="s">
-        <v>139</v>
+        <v>19</v>
       </c>
       <c r="F13" t="s">
         <v>20</v>
@@ -8706,10 +8697,10 @@
         <v>21</v>
       </c>
       <c r="H13" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="I13" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="J13">
         <v>5</v>
@@ -8729,7 +8720,7 @@
         <v>38281622.5</v>
       </c>
       <c r="E14" t="s">
-        <v>139</v>
+        <v>19</v>
       </c>
       <c r="F14" t="s">
         <v>20</v>
@@ -8738,10 +8729,10 @@
         <v>21</v>
       </c>
       <c r="H14" t="s">
+        <v>137</v>
+      </c>
+      <c r="I14" t="s">
         <v>140</v>
-      </c>
-      <c r="I14" t="s">
-        <v>143</v>
       </c>
       <c r="J14">
         <v>2</v>
@@ -8761,7 +8752,7 @@
         <v>38281622.5</v>
       </c>
       <c r="E15" t="s">
-        <v>139</v>
+        <v>19</v>
       </c>
       <c r="F15" t="s">
         <v>20</v>
@@ -8770,10 +8761,10 @@
         <v>22</v>
       </c>
       <c r="H15" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="I15" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="J15">
         <v>5</v>
@@ -8802,10 +8793,10 @@
         <v>24</v>
       </c>
       <c r="H16" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="I16" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="J16">
         <v>5</v>
@@ -8825,7 +8816,7 @@
         <v>28395100.5</v>
       </c>
       <c r="E17" t="s">
-        <v>124</v>
+        <v>4</v>
       </c>
       <c r="F17" t="s">
         <v>5</v>
@@ -8834,10 +8825,10 @@
         <v>6</v>
       </c>
       <c r="H17" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="I17" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="J17">
         <v>3</v>
@@ -8857,7 +8848,7 @@
         <v>28395100.5</v>
       </c>
       <c r="E18" t="s">
-        <v>124</v>
+        <v>4</v>
       </c>
       <c r="F18" t="s">
         <v>9</v>
@@ -8866,10 +8857,10 @@
         <v>11</v>
       </c>
       <c r="H18" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="I18" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="J18">
         <v>3</v>
@@ -8889,7 +8880,7 @@
         <v>43830362</v>
       </c>
       <c r="E19" t="s">
-        <v>132</v>
+        <v>13</v>
       </c>
       <c r="F19" t="s">
         <v>14</v>
@@ -8898,10 +8889,10 @@
         <v>14</v>
       </c>
       <c r="H19" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="I19" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="J19">
         <v>3</v>
@@ -8921,7 +8912,7 @@
         <v>43830362</v>
       </c>
       <c r="E20" t="s">
-        <v>132</v>
+        <v>13</v>
       </c>
       <c r="F20" t="s">
         <v>15</v>
@@ -8930,10 +8921,10 @@
         <v>15</v>
       </c>
       <c r="H20" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="I20" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="J20">
         <v>1</v>
@@ -8953,7 +8944,7 @@
         <v>27159850</v>
       </c>
       <c r="E21" t="s">
-        <v>124</v>
+        <v>4</v>
       </c>
       <c r="F21" t="s">
         <v>9</v>
@@ -8962,10 +8953,10 @@
         <v>10</v>
       </c>
       <c r="H21" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="I21" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="J21">
         <v>1</v>
@@ -8985,7 +8976,7 @@
         <v>27159850</v>
       </c>
       <c r="E22" t="s">
-        <v>124</v>
+        <v>4</v>
       </c>
       <c r="F22" t="s">
         <v>9</v>
@@ -8994,10 +8985,10 @@
         <v>12</v>
       </c>
       <c r="H22" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="I22" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="J22">
         <v>5</v>
@@ -9017,7 +9008,7 @@
         <v>11729834.5</v>
       </c>
       <c r="E23" t="s">
-        <v>132</v>
+        <v>13</v>
       </c>
       <c r="F23" t="s">
         <v>16</v>
@@ -9026,10 +9017,10 @@
         <v>18</v>
       </c>
       <c r="H23" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="I23" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="J23">
         <v>3</v>
@@ -9049,7 +9040,7 @@
         <v>11729834.5</v>
       </c>
       <c r="E24" t="s">
-        <v>132</v>
+        <v>13</v>
       </c>
       <c r="F24" t="s">
         <v>14</v>
@@ -9058,10 +9049,10 @@
         <v>14</v>
       </c>
       <c r="H24" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="I24" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="J24">
         <v>2</v>
@@ -9081,7 +9072,7 @@
         <v>33951660.5</v>
       </c>
       <c r="E25" t="s">
-        <v>139</v>
+        <v>19</v>
       </c>
       <c r="F25" t="s">
         <v>20</v>
@@ -9090,10 +9081,10 @@
         <v>21</v>
       </c>
       <c r="H25" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="I25" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="J25">
         <v>2</v>
@@ -9113,7 +9104,7 @@
         <v>33951660.5</v>
       </c>
       <c r="E26" t="s">
-        <v>139</v>
+        <v>19</v>
       </c>
       <c r="F26" t="s">
         <v>20</v>
@@ -9122,10 +9113,10 @@
         <v>22</v>
       </c>
       <c r="H26" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="I26" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="J26">
         <v>2</v>
@@ -9145,7 +9136,7 @@
         <v>16063108</v>
       </c>
       <c r="E27" t="s">
-        <v>124</v>
+        <v>4</v>
       </c>
       <c r="F27" t="s">
         <v>5</v>
@@ -9154,10 +9145,10 @@
         <v>6</v>
       </c>
       <c r="H27" t="s">
+        <v>124</v>
+      </c>
+      <c r="I27" t="s">
         <v>125</v>
-      </c>
-      <c r="I27" t="s">
-        <v>126</v>
       </c>
       <c r="J27">
         <v>2</v>
@@ -9177,7 +9168,7 @@
         <v>16063108</v>
       </c>
       <c r="E28" t="s">
-        <v>124</v>
+        <v>4</v>
       </c>
       <c r="F28" t="s">
         <v>9</v>
@@ -9186,10 +9177,10 @@
         <v>10</v>
       </c>
       <c r="H28" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="I28" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="J28">
         <v>5</v>
@@ -9209,7 +9200,7 @@
         <v>38276572</v>
       </c>
       <c r="E29" t="s">
-        <v>132</v>
+        <v>13</v>
       </c>
       <c r="F29" t="s">
         <v>16</v>
@@ -9218,10 +9209,10 @@
         <v>18</v>
       </c>
       <c r="H29" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="I29" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="J29">
         <v>5</v>
@@ -9241,7 +9232,7 @@
         <v>38276572</v>
       </c>
       <c r="E30" t="s">
-        <v>132</v>
+        <v>13</v>
       </c>
       <c r="F30" t="s">
         <v>14</v>
@@ -9250,10 +9241,10 @@
         <v>14</v>
       </c>
       <c r="H30" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="I30" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="J30">
         <v>2</v>
@@ -9282,10 +9273,10 @@
         <v>24</v>
       </c>
       <c r="H31" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="I31" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="J31">
         <v>3</v>
@@ -9305,7 +9296,7 @@
         <v>10548763</v>
       </c>
       <c r="E32" t="s">
-        <v>124</v>
+        <v>4</v>
       </c>
       <c r="F32" t="s">
         <v>9</v>
@@ -9314,10 +9305,10 @@
         <v>11</v>
       </c>
       <c r="H32" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="I32" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="J32">
         <v>5</v>
@@ -9337,7 +9328,7 @@
         <v>10548763</v>
       </c>
       <c r="E33" t="s">
-        <v>124</v>
+        <v>4</v>
       </c>
       <c r="F33" t="s">
         <v>9</v>
@@ -9346,10 +9337,10 @@
         <v>12</v>
       </c>
       <c r="H33" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="I33" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="J33">
         <v>2</v>
@@ -9369,7 +9360,7 @@
         <v>45073095.5</v>
       </c>
       <c r="E34" t="s">
-        <v>139</v>
+        <v>19</v>
       </c>
       <c r="F34" t="s">
         <v>20</v>
@@ -9378,10 +9369,10 @@
         <v>21</v>
       </c>
       <c r="H34" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="I34" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="J34">
         <v>2</v>
@@ -9401,7 +9392,7 @@
         <v>45073095.5</v>
       </c>
       <c r="E35" t="s">
-        <v>139</v>
+        <v>19</v>
       </c>
       <c r="F35" t="s">
         <v>20</v>
@@ -9410,10 +9401,10 @@
         <v>22</v>
       </c>
       <c r="H35" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="I35" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="J35">
         <v>2</v>
@@ -9442,10 +9433,10 @@
         <v>24</v>
       </c>
       <c r="H36" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="I36" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="J36">
         <v>4</v>
@@ -9465,7 +9456,7 @@
         <v>49385082.5</v>
       </c>
       <c r="E37" t="s">
-        <v>139</v>
+        <v>19</v>
       </c>
       <c r="F37" t="s">
         <v>20</v>
@@ -9474,10 +9465,10 @@
         <v>21</v>
       </c>
       <c r="H37" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="I37" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="J37">
         <v>2</v>
@@ -9497,7 +9488,7 @@
         <v>49385082.5</v>
       </c>
       <c r="E38" t="s">
-        <v>139</v>
+        <v>19</v>
       </c>
       <c r="F38" t="s">
         <v>20</v>
@@ -9506,10 +9497,10 @@
         <v>22</v>
       </c>
       <c r="H38" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="I38" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="J38">
         <v>2</v>
@@ -9538,10 +9529,10 @@
         <v>24</v>
       </c>
       <c r="H39" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="I39" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="J39">
         <v>5</v>
@@ -9561,7 +9552,7 @@
         <v>11731773</v>
       </c>
       <c r="E40" t="s">
-        <v>124</v>
+        <v>4</v>
       </c>
       <c r="F40" t="s">
         <v>5</v>
@@ -9570,10 +9561,10 @@
         <v>8</v>
       </c>
       <c r="H40" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="I40" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="J40">
         <v>4</v>
@@ -9593,7 +9584,7 @@
         <v>11731773</v>
       </c>
       <c r="E41" t="s">
-        <v>124</v>
+        <v>4</v>
       </c>
       <c r="F41" t="s">
         <v>9</v>
@@ -9602,10 +9593,10 @@
         <v>10</v>
       </c>
       <c r="H41" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="I41" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="J41">
         <v>4</v>
@@ -9625,7 +9616,7 @@
         <v>32716843.5</v>
       </c>
       <c r="E42" t="s">
-        <v>132</v>
+        <v>13</v>
       </c>
       <c r="F42" t="s">
         <v>15</v>
@@ -9634,10 +9625,10 @@
         <v>15</v>
       </c>
       <c r="H42" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="I42" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="J42">
         <v>5</v>
@@ -9657,7 +9648,7 @@
         <v>32716843.5</v>
       </c>
       <c r="E43" t="s">
-        <v>132</v>
+        <v>13</v>
       </c>
       <c r="F43" t="s">
         <v>16</v>
@@ -9666,10 +9657,10 @@
         <v>17</v>
       </c>
       <c r="H43" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="I43" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="J43">
         <v>3</v>
@@ -9698,10 +9689,10 @@
         <v>24</v>
       </c>
       <c r="H44" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="I44" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="J44">
         <v>5</v>
@@ -9721,7 +9712,7 @@
         <v>39444535</v>
       </c>
       <c r="E45" t="s">
-        <v>132</v>
+        <v>13</v>
       </c>
       <c r="F45" t="s">
         <v>15</v>
@@ -9730,10 +9721,10 @@
         <v>15</v>
       </c>
       <c r="H45" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="I45" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="J45">
         <v>2</v>
@@ -9753,7 +9744,7 @@
         <v>39444535</v>
       </c>
       <c r="E46" t="s">
-        <v>132</v>
+        <v>13</v>
       </c>
       <c r="F46" t="s">
         <v>16</v>
@@ -9762,10 +9753,10 @@
         <v>18</v>
       </c>
       <c r="H46" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="I46" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="J46">
         <v>4</v>
@@ -9794,10 +9785,10 @@
         <v>24</v>
       </c>
       <c r="H47" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="I47" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="J47">
         <v>3</v>
@@ -9817,7 +9808,7 @@
         <v>22844772.5</v>
       </c>
       <c r="E48" t="s">
-        <v>124</v>
+        <v>4</v>
       </c>
       <c r="F48" t="s">
         <v>9</v>
@@ -9826,10 +9817,10 @@
         <v>11</v>
       </c>
       <c r="H48" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="I48" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="J48">
         <v>4</v>
@@ -9849,7 +9840,7 @@
         <v>22844772.5</v>
       </c>
       <c r="E49" t="s">
-        <v>124</v>
+        <v>4</v>
       </c>
       <c r="F49" t="s">
         <v>9</v>
@@ -9858,10 +9849,10 @@
         <v>10</v>
       </c>
       <c r="H49" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="I49" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="J49">
         <v>4</v>
@@ -9890,10 +9881,10 @@
         <v>24</v>
       </c>
       <c r="H50" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="I50" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="J50">
         <v>2</v>
@@ -9913,7 +9904,7 @@
         <v>6182934.5</v>
       </c>
       <c r="E51" t="s">
-        <v>139</v>
+        <v>19</v>
       </c>
       <c r="F51" t="s">
         <v>20</v>
@@ -9922,10 +9913,10 @@
         <v>22</v>
       </c>
       <c r="H51" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="I51" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="J51">
         <v>2</v>
@@ -9945,7 +9936,7 @@
         <v>6182934.5</v>
       </c>
       <c r="E52" t="s">
-        <v>139</v>
+        <v>19</v>
       </c>
       <c r="F52" t="s">
         <v>20</v>
@@ -9954,10 +9945,10 @@
         <v>21</v>
       </c>
       <c r="H52" t="s">
+        <v>137</v>
+      </c>
+      <c r="I52" t="s">
         <v>140</v>
-      </c>
-      <c r="I52" t="s">
-        <v>143</v>
       </c>
       <c r="J52">
         <v>3</v>
@@ -9986,10 +9977,10 @@
         <v>24</v>
       </c>
       <c r="H53" t="s">
+        <v>127</v>
+      </c>
+      <c r="I53" t="s">
         <v>128</v>
-      </c>
-      <c r="I53" t="s">
-        <v>129</v>
       </c>
       <c r="J53">
         <v>2</v>
@@ -10009,7 +10000,7 @@
         <v>6185526</v>
       </c>
       <c r="E54" t="s">
-        <v>124</v>
+        <v>4</v>
       </c>
       <c r="F54" t="s">
         <v>9</v>
@@ -10018,10 +10009,10 @@
         <v>12</v>
       </c>
       <c r="H54" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="I54" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="J54">
         <v>2</v>
@@ -10041,7 +10032,7 @@
         <v>6185526</v>
       </c>
       <c r="E55" t="s">
-        <v>124</v>
+        <v>4</v>
       </c>
       <c r="F55" t="s">
         <v>5</v>
@@ -10050,10 +10041,10 @@
         <v>8</v>
       </c>
       <c r="H55" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="I55" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="J55">
         <v>5</v>
@@ -10082,10 +10073,10 @@
         <v>24</v>
       </c>
       <c r="H56" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="I56" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="J56">
         <v>3</v>
@@ -10105,7 +10096,7 @@
         <v>17286657</v>
       </c>
       <c r="E57" t="s">
-        <v>139</v>
+        <v>19</v>
       </c>
       <c r="F57" t="s">
         <v>20</v>
@@ -10114,10 +10105,10 @@
         <v>22</v>
       </c>
       <c r="H57" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="I57" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="J57">
         <v>3</v>
@@ -10137,7 +10128,7 @@
         <v>17286657</v>
       </c>
       <c r="E58" t="s">
-        <v>139</v>
+        <v>19</v>
       </c>
       <c r="F58" t="s">
         <v>20</v>
@@ -10146,10 +10137,10 @@
         <v>21</v>
       </c>
       <c r="H58" t="s">
+        <v>137</v>
+      </c>
+      <c r="I58" t="s">
         <v>140</v>
-      </c>
-      <c r="I58" t="s">
-        <v>143</v>
       </c>
       <c r="J58">
         <v>2</v>
@@ -10178,10 +10169,10 @@
         <v>24</v>
       </c>
       <c r="H59" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="I59" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="J59">
         <v>4</v>
@@ -10201,7 +10192,7 @@
         <v>38279975</v>
       </c>
       <c r="E60" t="s">
-        <v>124</v>
+        <v>4</v>
       </c>
       <c r="F60" t="s">
         <v>5</v>
@@ -10210,10 +10201,10 @@
         <v>8</v>
       </c>
       <c r="H60" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="I60" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="J60">
         <v>5</v>
@@ -10233,7 +10224,7 @@
         <v>38279975</v>
       </c>
       <c r="E61" t="s">
-        <v>124</v>
+        <v>4</v>
       </c>
       <c r="F61" t="s">
         <v>5</v>
@@ -10242,10 +10233,10 @@
         <v>7</v>
       </c>
       <c r="H61" t="s">
+        <v>124</v>
+      </c>
+      <c r="I61" t="s">
         <v>125</v>
-      </c>
-      <c r="I61" t="s">
-        <v>126</v>
       </c>
       <c r="J61">
         <v>1</v>
@@ -10274,10 +10265,10 @@
         <v>24</v>
       </c>
       <c r="H62" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="I62" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="J62">
         <v>1</v>
@@ -10297,7 +10288,7 @@
         <v>6183846</v>
       </c>
       <c r="E63" t="s">
-        <v>132</v>
+        <v>13</v>
       </c>
       <c r="F63" t="s">
         <v>15</v>
@@ -10306,10 +10297,10 @@
         <v>15</v>
       </c>
       <c r="H63" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="I63" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="J63">
         <v>2</v>
@@ -10329,7 +10320,7 @@
         <v>6183846</v>
       </c>
       <c r="E64" t="s">
-        <v>132</v>
+        <v>13</v>
       </c>
       <c r="F64" t="s">
         <v>14</v>
@@ -10338,10 +10329,10 @@
         <v>14</v>
       </c>
       <c r="H64" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="I64" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="J64">
         <v>2</v>
@@ -10370,10 +10361,10 @@
         <v>24</v>
       </c>
       <c r="H65" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="I65" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="J65">
         <v>2</v>
@@ -10393,7 +10384,7 @@
         <v>32716940.5</v>
       </c>
       <c r="E66" t="s">
-        <v>139</v>
+        <v>19</v>
       </c>
       <c r="F66" t="s">
         <v>20</v>
@@ -10402,10 +10393,10 @@
         <v>22</v>
       </c>
       <c r="H66" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="I66" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="J66">
         <v>5</v>
@@ -10425,7 +10416,7 @@
         <v>32716940.5</v>
       </c>
       <c r="E67" t="s">
-        <v>139</v>
+        <v>19</v>
       </c>
       <c r="F67" t="s">
         <v>20</v>
@@ -10434,10 +10425,10 @@
         <v>21</v>
       </c>
       <c r="H67" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="I67" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="J67">
         <v>4</v>
@@ -10466,10 +10457,10 @@
         <v>24</v>
       </c>
       <c r="H68" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="I68" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="J68">
         <v>2</v>
@@ -10489,7 +10480,7 @@
         <v>28399199</v>
       </c>
       <c r="E69" t="s">
-        <v>124</v>
+        <v>4</v>
       </c>
       <c r="F69" t="s">
         <v>5</v>
@@ -10498,10 +10489,10 @@
         <v>6</v>
       </c>
       <c r="H69" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="I69" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="J69">
         <v>4</v>
@@ -10521,7 +10512,7 @@
         <v>28399199</v>
       </c>
       <c r="E70" t="s">
-        <v>124</v>
+        <v>4</v>
       </c>
       <c r="F70" t="s">
         <v>5</v>
@@ -10530,10 +10521,10 @@
         <v>7</v>
       </c>
       <c r="H70" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="I70" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="J70">
         <v>2</v>
@@ -10553,7 +10544,7 @@
         <v>39461033</v>
       </c>
       <c r="E71" t="s">
-        <v>139</v>
+        <v>19</v>
       </c>
       <c r="F71" t="s">
         <v>20</v>
@@ -10562,10 +10553,10 @@
         <v>22</v>
       </c>
       <c r="H71" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="I71" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="J71">
         <v>2</v>
@@ -10585,7 +10576,7 @@
         <v>39461033</v>
       </c>
       <c r="E72" t="s">
-        <v>139</v>
+        <v>19</v>
       </c>
       <c r="F72" t="s">
         <v>20</v>
@@ -10594,10 +10585,10 @@
         <v>21</v>
       </c>
       <c r="H72" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="I72" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="J72">
         <v>2</v>
@@ -10626,10 +10617,10 @@
         <v>24</v>
       </c>
       <c r="H73" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="I73" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="J73">
         <v>4</v>
@@ -10658,10 +10649,10 @@
         <v>24</v>
       </c>
       <c r="H74" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="I74" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="J74">
         <v>5</v>
@@ -10690,10 +10681,10 @@
         <v>24</v>
       </c>
       <c r="H75" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="I75" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="J75">
         <v>5</v>
@@ -10713,7 +10704,7 @@
         <v>38277501.5</v>
       </c>
       <c r="E76" t="s">
-        <v>124</v>
+        <v>4</v>
       </c>
       <c r="F76" t="s">
         <v>9</v>
@@ -10722,10 +10713,10 @@
         <v>10</v>
       </c>
       <c r="H76" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="I76" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="J76">
         <v>3</v>
@@ -10745,7 +10736,7 @@
         <v>38277501.5</v>
       </c>
       <c r="E77" t="s">
-        <v>124</v>
+        <v>4</v>
       </c>
       <c r="F77" t="s">
         <v>5</v>
@@ -10754,10 +10745,10 @@
         <v>6</v>
       </c>
       <c r="H77" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="I77" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="J77">
         <v>1</v>
@@ -10777,7 +10768,7 @@
         <v>43834041.5</v>
       </c>
       <c r="E78" t="s">
-        <v>132</v>
+        <v>13</v>
       </c>
       <c r="F78" t="s">
         <v>14</v>
@@ -10786,10 +10777,10 @@
         <v>14</v>
       </c>
       <c r="H78" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="I78" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="J78">
         <v>1</v>
@@ -10809,7 +10800,7 @@
         <v>43834041.5</v>
       </c>
       <c r="E79" t="s">
-        <v>132</v>
+        <v>13</v>
       </c>
       <c r="F79" t="s">
         <v>16</v>
@@ -10818,10 +10809,10 @@
         <v>18</v>
       </c>
       <c r="H79" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="I79" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="J79">
         <v>5</v>
@@ -10850,10 +10841,10 @@
         <v>24</v>
       </c>
       <c r="H80" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="I80" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="J80">
         <v>1</v>
@@ -10873,7 +10864,7 @@
         <v>22841125</v>
       </c>
       <c r="E81" t="s">
-        <v>124</v>
+        <v>4</v>
       </c>
       <c r="F81" t="s">
         <v>5</v>
@@ -10882,10 +10873,10 @@
         <v>8</v>
       </c>
       <c r="H81" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="I81" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="J81">
         <v>2</v>
@@ -10905,7 +10896,7 @@
         <v>22841125</v>
       </c>
       <c r="E82" t="s">
-        <v>124</v>
+        <v>4</v>
       </c>
       <c r="F82" t="s">
         <v>9</v>
@@ -10914,10 +10905,10 @@
         <v>10</v>
       </c>
       <c r="H82" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="I82" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="J82">
         <v>3</v>
@@ -10937,7 +10928,7 @@
         <v>11744244</v>
       </c>
       <c r="E83" t="s">
-        <v>139</v>
+        <v>19</v>
       </c>
       <c r="F83" t="s">
         <v>20</v>
@@ -10946,10 +10937,10 @@
         <v>21</v>
       </c>
       <c r="H83" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="I83" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="J83">
         <v>1</v>
@@ -10969,7 +10960,7 @@
         <v>11744244</v>
       </c>
       <c r="E84" t="s">
-        <v>139</v>
+        <v>19</v>
       </c>
       <c r="F84" t="s">
         <v>20</v>
@@ -10978,10 +10969,10 @@
         <v>22</v>
       </c>
       <c r="H84" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="I84" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="J84">
         <v>5</v>
@@ -11010,10 +11001,10 @@
         <v>24</v>
       </c>
       <c r="H85" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="I85" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="J85">
         <v>4</v>
@@ -11042,10 +11033,10 @@
         <v>24</v>
       </c>
       <c r="H86" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="I86" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="J86">
         <v>3</v>
@@ -11065,7 +11056,7 @@
         <v>28397197.5</v>
       </c>
       <c r="E87" t="s">
-        <v>132</v>
+        <v>13</v>
       </c>
       <c r="F87" t="s">
         <v>15</v>
@@ -11074,10 +11065,10 @@
         <v>15</v>
       </c>
       <c r="H87" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="I87" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="J87">
         <v>4</v>
@@ -11097,7 +11088,7 @@
         <v>28397197.5</v>
       </c>
       <c r="E88" t="s">
-        <v>132</v>
+        <v>13</v>
       </c>
       <c r="F88" t="s">
         <v>14</v>
@@ -11106,10 +11097,10 @@
         <v>14</v>
       </c>
       <c r="H88" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="I88" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="J88">
         <v>3</v>
@@ -11129,7 +11120,7 @@
         <v>33943525.5</v>
       </c>
       <c r="E89" t="s">
-        <v>139</v>
+        <v>19</v>
       </c>
       <c r="F89" t="s">
         <v>20</v>
@@ -11138,10 +11129,10 @@
         <v>21</v>
       </c>
       <c r="H89" t="s">
+        <v>137</v>
+      </c>
+      <c r="I89" t="s">
         <v>140</v>
-      </c>
-      <c r="I89" t="s">
-        <v>143</v>
       </c>
       <c r="J89">
         <v>2</v>
@@ -11161,7 +11152,7 @@
         <v>33943525.5</v>
       </c>
       <c r="E90" t="s">
-        <v>139</v>
+        <v>19</v>
       </c>
       <c r="F90" t="s">
         <v>20</v>
@@ -11170,10 +11161,10 @@
         <v>22</v>
       </c>
       <c r="H90" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="I90" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="J90">
         <v>5</v>
@@ -11202,10 +11193,10 @@
         <v>24</v>
       </c>
       <c r="H91" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="I91" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="J91">
         <v>2</v>
@@ -11225,7 +11216,7 @@
         <v>5493306.5</v>
       </c>
       <c r="E92" t="s">
-        <v>124</v>
+        <v>4</v>
       </c>
       <c r="F92" t="s">
         <v>9</v>
@@ -11234,10 +11225,10 @@
         <v>12</v>
       </c>
       <c r="H92" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="I92" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="J92">
         <v>3</v>
@@ -11257,7 +11248,7 @@
         <v>5493306.5</v>
       </c>
       <c r="E93" t="s">
-        <v>124</v>
+        <v>4</v>
       </c>
       <c r="F93" t="s">
         <v>5</v>
@@ -11266,10 +11257,10 @@
         <v>6</v>
       </c>
       <c r="H93" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="I93" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="J93">
         <v>4</v>
@@ -11289,7 +11280,7 @@
         <v>5495852</v>
       </c>
       <c r="E94" t="s">
-        <v>132</v>
+        <v>13</v>
       </c>
       <c r="F94" t="s">
         <v>16</v>
@@ -11298,10 +11289,10 @@
         <v>18</v>
       </c>
       <c r="H94" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="I94" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="J94">
         <v>5</v>
@@ -11321,7 +11312,7 @@
         <v>5495852</v>
       </c>
       <c r="E95" t="s">
-        <v>132</v>
+        <v>13</v>
       </c>
       <c r="F95" t="s">
         <v>16</v>
@@ -11330,10 +11321,10 @@
         <v>17</v>
       </c>
       <c r="H95" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="I95" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="J95">
         <v>1</v>
@@ -11362,10 +11353,10 @@
         <v>24</v>
       </c>
       <c r="H96" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="I96" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="J96">
         <v>5</v>
@@ -11385,7 +11376,7 @@
         <v>43825918</v>
       </c>
       <c r="E97" t="s">
-        <v>139</v>
+        <v>19</v>
       </c>
       <c r="F97" t="s">
         <v>20</v>
@@ -11394,10 +11385,10 @@
         <v>22</v>
       </c>
       <c r="H97" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="I97" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="J97">
         <v>2</v>
@@ -11417,7 +11408,7 @@
         <v>43825918</v>
       </c>
       <c r="E98" t="s">
-        <v>139</v>
+        <v>19</v>
       </c>
       <c r="F98" t="s">
         <v>20</v>
@@ -11426,10 +11417,10 @@
         <v>21</v>
       </c>
       <c r="H98" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="I98" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="J98">
         <v>2</v>
@@ -11458,10 +11449,10 @@
         <v>24</v>
       </c>
       <c r="H99" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="I99" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="J99">
         <v>3</v>
@@ -11481,7 +11472,7 @@
         <v>11733448.5</v>
       </c>
       <c r="E100" t="s">
-        <v>132</v>
+        <v>13</v>
       </c>
       <c r="F100" t="s">
         <v>14</v>
@@ -11490,10 +11481,10 @@
         <v>14</v>
       </c>
       <c r="H100" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="I100" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="J100">
         <v>2</v>
@@ -11513,7 +11504,7 @@
         <v>11733448.5</v>
       </c>
       <c r="E101" t="s">
-        <v>132</v>
+        <v>13</v>
       </c>
       <c r="F101" t="s">
         <v>16</v>
@@ -11522,10 +11513,10 @@
         <v>17</v>
       </c>
       <c r="H101" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="I101" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="J101">
         <v>3</v>
@@ -11554,10 +11545,10 @@
         <v>24</v>
       </c>
       <c r="H102" t="s">
+        <v>127</v>
+      </c>
+      <c r="I102" t="s">
         <v>128</v>
-      </c>
-      <c r="I102" t="s">
-        <v>129</v>
       </c>
       <c r="J102">
         <v>4</v>
@@ -11577,7 +11568,7 @@
         <v>49382648</v>
       </c>
       <c r="E103" t="s">
-        <v>132</v>
+        <v>13</v>
       </c>
       <c r="F103" t="s">
         <v>16</v>
@@ -11586,10 +11577,10 @@
         <v>17</v>
       </c>
       <c r="H103" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="I103" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="J103">
         <v>3</v>
@@ -11609,7 +11600,7 @@
         <v>49382648</v>
       </c>
       <c r="E104" t="s">
-        <v>132</v>
+        <v>13</v>
       </c>
       <c r="F104" t="s">
         <v>16</v>
@@ -11618,10 +11609,10 @@
         <v>18</v>
       </c>
       <c r="H104" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="I104" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="J104">
         <v>3</v>
@@ -11641,7 +11632,7 @@
         <v>11736865.5</v>
       </c>
       <c r="E105" t="s">
-        <v>139</v>
+        <v>19</v>
       </c>
       <c r="F105" t="s">
         <v>20</v>
@@ -11650,10 +11641,10 @@
         <v>21</v>
       </c>
       <c r="H105" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="I105" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="J105">
         <v>1</v>
@@ -11673,7 +11664,7 @@
         <v>11736865.5</v>
       </c>
       <c r="E106" t="s">
-        <v>139</v>
+        <v>19</v>
       </c>
       <c r="F106" t="s">
         <v>20</v>
@@ -11682,10 +11673,10 @@
         <v>22</v>
       </c>
       <c r="H106" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="I106" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="J106">
         <v>4</v>
@@ -11714,10 +11705,10 @@
         <v>24</v>
       </c>
       <c r="H107" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="I107" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="J107">
         <v>5</v>
@@ -11737,7 +11728,7 @@
         <v>6181048</v>
       </c>
       <c r="E108" t="s">
-        <v>124</v>
+        <v>4</v>
       </c>
       <c r="F108" t="s">
         <v>9</v>
@@ -11746,10 +11737,10 @@
         <v>12</v>
       </c>
       <c r="H108" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="I108" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="J108">
         <v>1</v>
@@ -11769,7 +11760,7 @@
         <v>6181048</v>
       </c>
       <c r="E109" t="s">
-        <v>124</v>
+        <v>4</v>
       </c>
       <c r="F109" t="s">
         <v>5</v>
@@ -11778,10 +11769,10 @@
         <v>8</v>
       </c>
       <c r="H109" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="I109" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="J109">
         <v>5</v>
@@ -11801,7 +11792,7 @@
         <v>17284742</v>
       </c>
       <c r="E110" t="s">
-        <v>124</v>
+        <v>4</v>
       </c>
       <c r="F110" t="s">
         <v>9</v>
@@ -11810,10 +11801,10 @@
         <v>12</v>
       </c>
       <c r="H110" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="I110" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="J110">
         <v>3</v>
@@ -11833,7 +11824,7 @@
         <v>17284742</v>
       </c>
       <c r="E111" t="s">
-        <v>124</v>
+        <v>4</v>
       </c>
       <c r="F111" t="s">
         <v>5</v>
@@ -11842,10 +11833,10 @@
         <v>7</v>
       </c>
       <c r="H111" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="I111" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="J111">
         <v>1</v>
@@ -11865,7 +11856,7 @@
         <v>32717579</v>
       </c>
       <c r="E112" t="s">
-        <v>139</v>
+        <v>19</v>
       </c>
       <c r="F112" t="s">
         <v>20</v>
@@ -11874,10 +11865,10 @@
         <v>22</v>
       </c>
       <c r="H112" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="I112" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="J112">
         <v>4</v>
@@ -11897,7 +11888,7 @@
         <v>32717579</v>
       </c>
       <c r="E113" t="s">
-        <v>139</v>
+        <v>19</v>
       </c>
       <c r="F113" t="s">
         <v>20</v>
@@ -11906,10 +11897,10 @@
         <v>21</v>
       </c>
       <c r="H113" t="s">
+        <v>137</v>
+      </c>
+      <c r="I113" t="s">
         <v>140</v>
-      </c>
-      <c r="I113" t="s">
-        <v>143</v>
       </c>
       <c r="J113">
         <v>3</v>
@@ -11938,10 +11929,10 @@
         <v>24</v>
       </c>
       <c r="H114" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="I114" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="J114">
         <v>2</v>
@@ -11961,7 +11952,7 @@
         <v>38274812</v>
       </c>
       <c r="E115" t="s">
-        <v>124</v>
+        <v>4</v>
       </c>
       <c r="F115" t="s">
         <v>5</v>
@@ -11970,10 +11961,10 @@
         <v>6</v>
       </c>
       <c r="H115" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="I115" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="J115">
         <v>1</v>
@@ -11993,7 +11984,7 @@
         <v>38274812</v>
       </c>
       <c r="E116" t="s">
-        <v>124</v>
+        <v>4</v>
       </c>
       <c r="F116" t="s">
         <v>5</v>
@@ -12002,10 +11993,10 @@
         <v>7</v>
       </c>
       <c r="H116" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="I116" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="J116">
         <v>4</v>
@@ -12025,7 +12016,7 @@
         <v>49393248.5</v>
       </c>
       <c r="E117" t="s">
-        <v>132</v>
+        <v>13</v>
       </c>
       <c r="F117" t="s">
         <v>15</v>
@@ -12034,10 +12025,10 @@
         <v>15</v>
       </c>
       <c r="H117" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="I117" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="J117">
         <v>1</v>
@@ -12057,7 +12048,7 @@
         <v>49393248.5</v>
       </c>
       <c r="E118" t="s">
-        <v>132</v>
+        <v>13</v>
       </c>
       <c r="F118" t="s">
         <v>16</v>
@@ -12066,10 +12057,10 @@
         <v>17</v>
       </c>
       <c r="H118" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="I118" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="J118">
         <v>4</v>
@@ -12089,7 +12080,7 @@
         <v>22840563.5</v>
       </c>
       <c r="E119" t="s">
-        <v>124</v>
+        <v>4</v>
       </c>
       <c r="F119" t="s">
         <v>5</v>
@@ -12098,10 +12089,10 @@
         <v>6</v>
       </c>
       <c r="H119" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="I119" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="J119">
         <v>1</v>
@@ -12121,7 +12112,7 @@
         <v>22840563.5</v>
       </c>
       <c r="E120" t="s">
-        <v>124</v>
+        <v>4</v>
       </c>
       <c r="F120" t="s">
         <v>5</v>
@@ -12130,10 +12121,10 @@
         <v>7</v>
       </c>
       <c r="H120" t="s">
+        <v>124</v>
+      </c>
+      <c r="I120" t="s">
         <v>125</v>
-      </c>
-      <c r="I120" t="s">
-        <v>126</v>
       </c>
       <c r="J120">
         <v>5</v>
@@ -12153,7 +12144,7 @@
         <v>22842403.5</v>
       </c>
       <c r="E121" t="s">
-        <v>132</v>
+        <v>13</v>
       </c>
       <c r="F121" t="s">
         <v>15</v>
@@ -12162,10 +12153,10 @@
         <v>15</v>
       </c>
       <c r="H121" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="I121" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="J121">
         <v>3</v>
@@ -12185,7 +12176,7 @@
         <v>22842403.5</v>
       </c>
       <c r="E122" t="s">
-        <v>132</v>
+        <v>13</v>
       </c>
       <c r="F122" t="s">
         <v>16</v>
@@ -12194,10 +12185,10 @@
         <v>18</v>
       </c>
       <c r="H122" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="I122" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="J122">
         <v>3</v>
@@ -12217,7 +12208,7 @@
         <v>11726126</v>
       </c>
       <c r="E123" t="s">
-        <v>139</v>
+        <v>19</v>
       </c>
       <c r="F123" t="s">
         <v>20</v>
@@ -12226,10 +12217,10 @@
         <v>22</v>
       </c>
       <c r="H123" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="I123" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="J123">
         <v>3</v>
@@ -12249,7 +12240,7 @@
         <v>11726126</v>
       </c>
       <c r="E124" t="s">
-        <v>139</v>
+        <v>19</v>
       </c>
       <c r="F124" t="s">
         <v>20</v>
@@ -12258,10 +12249,10 @@
         <v>21</v>
       </c>
       <c r="H124" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="I124" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="J124">
         <v>5</v>
@@ -12281,7 +12272,7 @@
         <v>32710385.5</v>
       </c>
       <c r="E125" t="s">
-        <v>124</v>
+        <v>4</v>
       </c>
       <c r="F125" t="s">
         <v>5</v>
@@ -12290,10 +12281,10 @@
         <v>7</v>
       </c>
       <c r="H125" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="I125" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="J125">
         <v>4</v>
@@ -12313,7 +12304,7 @@
         <v>32710385.5</v>
       </c>
       <c r="E126" t="s">
-        <v>124</v>
+        <v>4</v>
       </c>
       <c r="F126" t="s">
         <v>5</v>
@@ -12322,10 +12313,10 @@
         <v>8</v>
       </c>
       <c r="H126" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="I126" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="J126">
         <v>4</v>
@@ -12354,10 +12345,10 @@
         <v>24</v>
       </c>
       <c r="H127" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="I127" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="J127">
         <v>1</v>
@@ -12377,7 +12368,7 @@
         <v>28392598</v>
       </c>
       <c r="E128" t="s">
-        <v>124</v>
+        <v>4</v>
       </c>
       <c r="F128" t="s">
         <v>5</v>
@@ -12386,10 +12377,10 @@
         <v>7</v>
       </c>
       <c r="H128" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="I128" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="J128">
         <v>2</v>
@@ -12409,7 +12400,7 @@
         <v>28392598</v>
       </c>
       <c r="E129" t="s">
-        <v>124</v>
+        <v>4</v>
       </c>
       <c r="F129" t="s">
         <v>9</v>
@@ -12418,10 +12409,10 @@
         <v>11</v>
       </c>
       <c r="H129" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="I129" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="J129">
         <v>3</v>
@@ -12441,7 +12432,7 @@
         <v>17280379</v>
       </c>
       <c r="E130" t="s">
-        <v>132</v>
+        <v>13</v>
       </c>
       <c r="F130" t="s">
         <v>15</v>
@@ -12450,10 +12441,10 @@
         <v>15</v>
       </c>
       <c r="H130" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="I130" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="J130">
         <v>5</v>
@@ -12473,7 +12464,7 @@
         <v>17280379</v>
       </c>
       <c r="E131" t="s">
-        <v>132</v>
+        <v>13</v>
       </c>
       <c r="F131" t="s">
         <v>14</v>
@@ -12482,10 +12473,10 @@
         <v>14</v>
       </c>
       <c r="H131" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="I131" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="J131">
         <v>4</v>
@@ -12505,7 +12496,7 @@
         <v>27160646</v>
       </c>
       <c r="E132" t="s">
-        <v>139</v>
+        <v>19</v>
       </c>
       <c r="F132" t="s">
         <v>20</v>
@@ -12514,10 +12505,10 @@
         <v>22</v>
       </c>
       <c r="H132" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="I132" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="J132">
         <v>3</v>
@@ -12537,7 +12528,7 @@
         <v>27160646</v>
       </c>
       <c r="E133" t="s">
-        <v>139</v>
+        <v>19</v>
       </c>
       <c r="F133" t="s">
         <v>20</v>
@@ -12546,10 +12537,10 @@
         <v>21</v>
       </c>
       <c r="H133" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="I133" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="J133">
         <v>3</v>
@@ -12578,10 +12569,10 @@
         <v>24</v>
       </c>
       <c r="H134" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="I134" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="J134">
         <v>2</v>
@@ -12601,7 +12592,7 @@
         <v>33949069</v>
       </c>
       <c r="E135" t="s">
-        <v>132</v>
+        <v>13</v>
       </c>
       <c r="F135" t="s">
         <v>15</v>
@@ -12610,10 +12601,10 @@
         <v>15</v>
       </c>
       <c r="H135" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="I135" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="J135">
         <v>2</v>
@@ -12633,7 +12624,7 @@
         <v>33949069</v>
       </c>
       <c r="E136" t="s">
-        <v>132</v>
+        <v>13</v>
       </c>
       <c r="F136" t="s">
         <v>16</v>
@@ -12642,10 +12633,10 @@
         <v>17</v>
       </c>
       <c r="H136" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="I136" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="J136">
         <v>3</v>
@@ -12674,10 +12665,10 @@
         <v>24</v>
       </c>
       <c r="H137" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="I137" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="J137">
         <v>2</v>
@@ -12697,7 +12688,7 @@
         <v>21612418</v>
       </c>
       <c r="E138" t="s">
-        <v>124</v>
+        <v>4</v>
       </c>
       <c r="F138" t="s">
         <v>5</v>
@@ -12706,10 +12697,10 @@
         <v>6</v>
       </c>
       <c r="H138" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="I138" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="J138">
         <v>1</v>
@@ -12729,7 +12720,7 @@
         <v>21612418</v>
       </c>
       <c r="E139" t="s">
-        <v>124</v>
+        <v>4</v>
       </c>
       <c r="F139" t="s">
         <v>9</v>
@@ -12738,10 +12729,10 @@
         <v>11</v>
       </c>
       <c r="H139" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="I139" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="J139">
         <v>1</v>
@@ -12761,7 +12752,7 @@
         <v>32712224</v>
       </c>
       <c r="E140" t="s">
-        <v>139</v>
+        <v>19</v>
       </c>
       <c r="F140" t="s">
         <v>20</v>
@@ -12770,10 +12761,10 @@
         <v>21</v>
       </c>
       <c r="H140" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="I140" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="J140">
         <v>2</v>
@@ -12793,7 +12784,7 @@
         <v>32712224</v>
       </c>
       <c r="E141" t="s">
-        <v>139</v>
+        <v>19</v>
       </c>
       <c r="F141" t="s">
         <v>20</v>
@@ -12802,10 +12793,10 @@
         <v>22</v>
       </c>
       <c r="H141" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="I141" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="J141">
         <v>1</v>
@@ -12825,7 +12816,7 @@
         <v>39460017</v>
       </c>
       <c r="E142" t="s">
-        <v>139</v>
+        <v>19</v>
       </c>
       <c r="F142" t="s">
         <v>20</v>
@@ -12834,10 +12825,10 @@
         <v>21</v>
       </c>
       <c r="H142" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="I142" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="J142">
         <v>3</v>
@@ -12857,7 +12848,7 @@
         <v>39460017</v>
       </c>
       <c r="E143" t="s">
-        <v>139</v>
+        <v>19</v>
       </c>
       <c r="F143" t="s">
         <v>20</v>
@@ -12866,10 +12857,10 @@
         <v>22</v>
       </c>
       <c r="H143" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="I143" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="J143">
         <v>5</v>
@@ -12898,10 +12889,10 @@
         <v>24</v>
       </c>
       <c r="H144" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="I144" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="J144">
         <v>2</v>
@@ -12921,7 +12912,7 @@
         <v>16063783.5</v>
       </c>
       <c r="E145" t="s">
-        <v>124</v>
+        <v>4</v>
       </c>
       <c r="F145" t="s">
         <v>5</v>
@@ -12930,10 +12921,10 @@
         <v>8</v>
       </c>
       <c r="H145" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="I145" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="J145">
         <v>2</v>
@@ -12953,7 +12944,7 @@
         <v>16063783.5</v>
       </c>
       <c r="E146" t="s">
-        <v>124</v>
+        <v>4</v>
       </c>
       <c r="F146" t="s">
         <v>9</v>
@@ -12962,10 +12953,10 @@
         <v>10</v>
       </c>
       <c r="H146" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="I146" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="J146">
         <v>2</v>
@@ -12985,7 +12976,7 @@
         <v>27165516</v>
       </c>
       <c r="E147" t="s">
-        <v>132</v>
+        <v>13</v>
       </c>
       <c r="F147" t="s">
         <v>14</v>
@@ -12994,10 +12985,10 @@
         <v>14</v>
       </c>
       <c r="H147" t="s">
+        <v>131</v>
+      </c>
+      <c r="I147" t="s">
         <v>133</v>
-      </c>
-      <c r="I147" t="s">
-        <v>135</v>
       </c>
       <c r="J147">
         <v>4</v>
@@ -13017,7 +13008,7 @@
         <v>27165516</v>
       </c>
       <c r="E148" t="s">
-        <v>132</v>
+        <v>13</v>
       </c>
       <c r="F148" t="s">
         <v>16</v>
@@ -13026,10 +13017,10 @@
         <v>17</v>
       </c>
       <c r="H148" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="I148" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="J148">
         <v>2</v>
@@ -13055,7 +13046,7 @@
   <sheetData>
     <row r="1" spans="2:2">
       <c r="B1" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
     </row>
     <row r="2" spans="2:2">
@@ -13085,7 +13076,7 @@
     </row>
     <row r="7" spans="2:2">
       <c r="B7" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
     </row>
   </sheetData>
@@ -13113,27 +13104,27 @@
   <sheetData>
     <row r="2" spans="2:7">
       <c r="B2" s="23" t="s">
+        <v>192</v>
+      </c>
+      <c r="C2" s="23" t="s">
+        <v>193</v>
+      </c>
+      <c r="D2" s="24" t="s">
+        <v>194</v>
+      </c>
+      <c r="E2" s="24" t="s">
         <v>195</v>
       </c>
-      <c r="C2" s="23" t="s">
+      <c r="F2" s="25" t="s">
         <v>196</v>
       </c>
-      <c r="D2" s="24" t="s">
+      <c r="G2" s="24" t="s">
         <v>197</v>
-      </c>
-      <c r="E2" s="24" t="s">
-        <v>198</v>
-      </c>
-      <c r="F2" s="25" t="s">
-        <v>199</v>
-      </c>
-      <c r="G2" s="24" t="s">
-        <v>200</v>
       </c>
     </row>
     <row r="3" spans="2:7" ht="41.25" customHeight="1">
       <c r="B3" s="26" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="C3" s="27">
         <v>26957145.600000001</v>
@@ -13142,20 +13133,20 @@
         <v>2024</v>
       </c>
       <c r="E3" s="24" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="F3" s="28">
         <f t="shared" ref="F3:F42" ca="1" si="0">(C3*0.2) + RANDBETWEEN(0, 25000)</f>
-        <v>5397441.120000001</v>
+        <v>5409543.120000001</v>
       </c>
       <c r="G3" s="27">
         <f t="shared" ref="G3:G42" ca="1" si="1">C3-F3</f>
-        <v>21559704.48</v>
+        <v>21547602.48</v>
       </c>
     </row>
     <row r="4" spans="2:7">
       <c r="B4" s="26" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="C4" s="27">
         <v>40426848</v>
@@ -13164,20 +13155,20 @@
         <v>2023</v>
       </c>
       <c r="E4" s="24" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="F4" s="28">
         <f t="shared" ca="1" si="0"/>
-        <v>8099573.6000000006</v>
+        <v>8090399.6000000006</v>
       </c>
       <c r="G4" s="27">
         <f t="shared" ca="1" si="1"/>
-        <v>32327274.399999999</v>
+        <v>32336448.399999999</v>
       </c>
     </row>
     <row r="5" spans="2:7">
       <c r="B5" s="26" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="C5" s="27">
         <v>53896550.399999999</v>
@@ -13186,20 +13177,20 @@
         <v>2022</v>
       </c>
       <c r="E5" s="24" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="F5" s="28">
         <f t="shared" ca="1" si="0"/>
-        <v>10789093.08</v>
+        <v>10780048.08</v>
       </c>
       <c r="G5" s="27">
         <f t="shared" ca="1" si="1"/>
-        <v>43107457.32</v>
+        <v>43116502.32</v>
       </c>
     </row>
     <row r="6" spans="2:7" ht="30" customHeight="1">
       <c r="B6" s="26" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="C6" s="27">
         <v>67366252.799999997</v>
@@ -13208,20 +13199,20 @@
         <v>2019</v>
       </c>
       <c r="E6" s="24" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="F6" s="28">
         <f t="shared" ca="1" si="0"/>
-        <v>13474779.560000001</v>
+        <v>13491218.560000001</v>
       </c>
       <c r="G6" s="27">
         <f t="shared" ca="1" si="1"/>
-        <v>53891473.239999995</v>
+        <v>53875034.239999995</v>
       </c>
     </row>
     <row r="7" spans="2:7" ht="30" customHeight="1">
       <c r="B7" s="26" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="C7" s="27">
         <v>80835955.199999988</v>
@@ -13230,20 +13221,20 @@
         <v>2024</v>
       </c>
       <c r="E7" s="24" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="F7" s="28">
         <f t="shared" ca="1" si="0"/>
-        <v>16186026.039999999</v>
+        <v>16181314.039999999</v>
       </c>
       <c r="G7" s="27">
         <f t="shared" ca="1" si="1"/>
-        <v>64649929.159999989</v>
+        <v>64654641.159999989</v>
       </c>
     </row>
     <row r="8" spans="2:7">
       <c r="B8" s="26" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="C8" s="27">
         <v>94305657.600000009</v>
@@ -13252,20 +13243,20 @@
         <v>2023</v>
       </c>
       <c r="E8" s="24" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="F8" s="28">
         <f t="shared" ca="1" si="0"/>
-        <v>18870688.520000003</v>
+        <v>18877425.520000003</v>
       </c>
       <c r="G8" s="27">
         <f t="shared" ca="1" si="1"/>
-        <v>75434969.080000013</v>
+        <v>75428232.080000013</v>
       </c>
     </row>
     <row r="9" spans="2:7" ht="30" customHeight="1">
       <c r="B9" s="26" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="C9" s="27">
         <v>107760576</v>
@@ -13274,20 +13265,20 @@
         <v>2022</v>
       </c>
       <c r="E9" s="24" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="F9" s="28">
         <f t="shared" ca="1" si="0"/>
-        <v>21566719.200000003</v>
+        <v>21565384.200000003</v>
       </c>
       <c r="G9" s="27">
         <f t="shared" ca="1" si="1"/>
-        <v>86193856.799999997</v>
+        <v>86195191.799999997</v>
       </c>
     </row>
     <row r="10" spans="2:7">
       <c r="B10" s="26" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="C10" s="27">
         <v>121082438.40000001</v>
@@ -13296,20 +13287,20 @@
         <v>2019</v>
       </c>
       <c r="E10" s="24" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="F10" s="28">
         <f t="shared" ca="1" si="0"/>
-        <v>24235064.680000003</v>
+        <v>24236519.680000003</v>
       </c>
       <c r="G10" s="27">
         <f t="shared" ca="1" si="1"/>
-        <v>96847373.719999999</v>
+        <v>96845918.719999999</v>
       </c>
     </row>
     <row r="11" spans="2:7" ht="30" customHeight="1">
       <c r="B11" s="26" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="C11" s="27">
         <v>133073740.8</v>
@@ -13318,20 +13309,20 @@
         <v>2024</v>
       </c>
       <c r="E11" s="24" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="F11" s="28">
         <f t="shared" ca="1" si="0"/>
-        <v>26634208.16</v>
+        <v>26639233.16</v>
       </c>
       <c r="G11" s="27">
         <f t="shared" ca="1" si="1"/>
-        <v>106439532.64</v>
+        <v>106434507.64</v>
       </c>
     </row>
     <row r="12" spans="2:7">
       <c r="B12" s="26" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="C12" s="27">
         <v>146543443.19999999</v>
@@ -13340,20 +13331,20 @@
         <v>2023</v>
       </c>
       <c r="E12" s="24" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="F12" s="28">
         <f t="shared" ca="1" si="0"/>
-        <v>29329658.640000001</v>
+        <v>29316033.640000001</v>
       </c>
       <c r="G12" s="27">
         <f t="shared" ca="1" si="1"/>
-        <v>117213784.55999999</v>
+        <v>117227409.55999999</v>
       </c>
     </row>
     <row r="13" spans="2:7">
       <c r="B13" s="26" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="C13" s="27">
         <v>16608345.6</v>
@@ -13362,20 +13353,20 @@
         <v>2022</v>
       </c>
       <c r="E13" s="24" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="F13" s="28">
         <f t="shared" ca="1" si="0"/>
-        <v>3324934.12</v>
+        <v>3322634.12</v>
       </c>
       <c r="G13" s="27">
         <f t="shared" ca="1" si="1"/>
-        <v>13283411.48</v>
+        <v>13285711.48</v>
       </c>
     </row>
     <row r="14" spans="2:7">
       <c r="B14" s="26" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="C14" s="27">
         <v>33034848</v>
@@ -13384,20 +13375,20 @@
         <v>2019</v>
       </c>
       <c r="E14" s="24" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="F14" s="28">
         <f t="shared" ca="1" si="0"/>
-        <v>6627187.6000000006</v>
+        <v>6610425.6000000006</v>
       </c>
       <c r="G14" s="27">
         <f t="shared" ca="1" si="1"/>
-        <v>26407660.399999999</v>
+        <v>26424422.399999999</v>
       </c>
     </row>
     <row r="15" spans="2:7" ht="30" customHeight="1">
       <c r="B15" s="26" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="C15" s="27">
         <v>49461350.399999999</v>
@@ -13406,20 +13397,20 @@
         <v>2020</v>
       </c>
       <c r="E15" s="24" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="F15" s="28">
         <f t="shared" ca="1" si="0"/>
-        <v>9907019.0800000001</v>
+        <v>9900409.0800000001</v>
       </c>
       <c r="G15" s="27">
         <f t="shared" ca="1" si="1"/>
-        <v>39554331.32</v>
+        <v>39560941.32</v>
       </c>
     </row>
     <row r="16" spans="2:7">
       <c r="B16" s="26" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="C16" s="27">
         <v>65887852.799999997</v>
@@ -13428,20 +13419,20 @@
         <v>2020</v>
       </c>
       <c r="E16" s="24" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="F16" s="28">
         <f t="shared" ca="1" si="0"/>
-        <v>13196098.560000001</v>
+        <v>13202503.560000001</v>
       </c>
       <c r="G16" s="27">
         <f t="shared" ca="1" si="1"/>
-        <v>52691754.239999995</v>
+        <v>52685349.239999995</v>
       </c>
     </row>
     <row r="17" spans="2:7">
       <c r="B17" s="26" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="C17" s="27">
         <v>82314355.199999988</v>
@@ -13450,20 +13441,20 @@
         <v>2020</v>
       </c>
       <c r="E17" s="24" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="F17" s="28">
         <f t="shared" ca="1" si="0"/>
-        <v>16466596.039999999</v>
+        <v>16479940.039999999</v>
       </c>
       <c r="G17" s="27">
         <f t="shared" ca="1" si="1"/>
-        <v>65847759.159999989</v>
+        <v>65834415.159999989</v>
       </c>
     </row>
     <row r="18" spans="2:7">
       <c r="B18" s="26" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="C18" s="27">
         <v>98740857.600000009</v>
@@ -13472,20 +13463,20 @@
         <v>2020</v>
       </c>
       <c r="E18" s="24" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="F18" s="28">
         <f t="shared" ca="1" si="0"/>
-        <v>19754428.520000003</v>
+        <v>19765757.520000003</v>
       </c>
       <c r="G18" s="27">
         <f t="shared" ca="1" si="1"/>
-        <v>78986429.080000013</v>
+        <v>78975100.080000013</v>
       </c>
     </row>
     <row r="19" spans="2:7" ht="30" customHeight="1">
       <c r="B19" s="26" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="C19" s="27">
         <v>115152576</v>
@@ -13494,20 +13485,20 @@
         <v>2020</v>
       </c>
       <c r="E19" s="24" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="F19" s="28">
         <f t="shared" ca="1" si="0"/>
-        <v>23040187.200000003</v>
+        <v>23052152.200000003</v>
       </c>
       <c r="G19" s="27">
         <f t="shared" ca="1" si="1"/>
-        <v>92112388.799999997</v>
+        <v>92100423.799999997</v>
       </c>
     </row>
     <row r="20" spans="2:7">
       <c r="B20" s="26" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="C20" s="27">
         <v>131431238.40000001</v>
@@ -13516,20 +13507,20 @@
         <v>2020</v>
       </c>
       <c r="E20" s="24" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="F20" s="28">
         <f t="shared" ca="1" si="0"/>
-        <v>26301219.680000003</v>
+        <v>26300200.680000003</v>
       </c>
       <c r="G20" s="27">
         <f t="shared" ca="1" si="1"/>
-        <v>105130018.72</v>
+        <v>105131037.72</v>
       </c>
     </row>
     <row r="21" spans="2:7" ht="30" customHeight="1">
       <c r="B21" s="26" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="C21" s="27">
         <v>146379340.80000001</v>
@@ -13538,20 +13529,20 @@
         <v>2017</v>
       </c>
       <c r="E21" s="24" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="F21" s="28">
         <f t="shared" ca="1" si="0"/>
-        <v>29284149.160000004</v>
+        <v>29283132.160000004</v>
       </c>
       <c r="G21" s="27">
         <f t="shared" ca="1" si="1"/>
-        <v>117095191.64000002</v>
+        <v>117096208.64000002</v>
       </c>
     </row>
     <row r="22" spans="2:7">
       <c r="B22" s="26" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="C22" s="27">
         <v>14965843.199999999</v>
@@ -13560,20 +13551,20 @@
         <v>2017</v>
       </c>
       <c r="E22" s="24" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="F22" s="28">
         <f t="shared" ca="1" si="0"/>
-        <v>2997094.64</v>
+        <v>3004758.64</v>
       </c>
       <c r="G22" s="27">
         <f t="shared" ca="1" si="1"/>
-        <v>11968748.559999999</v>
+        <v>11961084.559999999</v>
       </c>
     </row>
     <row r="23" spans="2:7">
       <c r="B23" s="26" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="C23" s="27">
         <v>31392345.600000001</v>
@@ -13582,20 +13573,20 @@
         <v>2017</v>
       </c>
       <c r="E23" s="24" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="F23" s="28">
         <f t="shared" ca="1" si="0"/>
-        <v>6294266.120000001</v>
+        <v>6303323.120000001</v>
       </c>
       <c r="G23" s="27">
         <f t="shared" ca="1" si="1"/>
-        <v>25098079.48</v>
+        <v>25089022.48</v>
       </c>
     </row>
     <row r="24" spans="2:7">
       <c r="B24" s="26" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="C24" s="27">
         <v>47818848</v>
@@ -13604,20 +13595,20 @@
         <v>2017</v>
       </c>
       <c r="E24" s="24" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="F24" s="28">
         <f t="shared" ca="1" si="0"/>
-        <v>9572206.5999999996</v>
+        <v>9576213.5999999996</v>
       </c>
       <c r="G24" s="27">
         <f t="shared" ca="1" si="1"/>
-        <v>38246641.399999999</v>
+        <v>38242634.399999999</v>
       </c>
     </row>
     <row r="25" spans="2:7" ht="30" customHeight="1">
       <c r="B25" s="26" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="C25" s="27">
         <v>64245350.399999999</v>
@@ -13626,20 +13617,20 @@
         <v>2017</v>
       </c>
       <c r="E25" s="24" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="F25" s="28">
         <f t="shared" ca="1" si="0"/>
-        <v>12853776.08</v>
+        <v>12856407.08</v>
       </c>
       <c r="G25" s="27">
         <f t="shared" ca="1" si="1"/>
-        <v>51391574.32</v>
+        <v>51388943.32</v>
       </c>
     </row>
     <row r="26" spans="2:7">
       <c r="B26" s="26" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="C26" s="27">
         <v>80671852.799999997</v>
@@ -13648,20 +13639,20 @@
         <v>2017</v>
       </c>
       <c r="E26" s="24" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="F26" s="28">
         <f t="shared" ca="1" si="0"/>
-        <v>16143916.560000001</v>
+        <v>16137132.560000001</v>
       </c>
       <c r="G26" s="27">
         <f t="shared" ca="1" si="1"/>
-        <v>64527936.239999995</v>
+        <v>64534720.239999995</v>
       </c>
     </row>
     <row r="27" spans="2:7" ht="30" customHeight="1">
       <c r="B27" s="26" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="C27" s="27">
         <v>97098355.199999988</v>
@@ -13670,20 +13661,20 @@
         <v>2017</v>
       </c>
       <c r="E27" s="24" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="F27" s="28">
         <f t="shared" ca="1" si="0"/>
-        <v>19443087.039999999</v>
+        <v>19444367.039999999</v>
       </c>
       <c r="G27" s="27">
         <f t="shared" ca="1" si="1"/>
-        <v>77655268.159999996</v>
+        <v>77653988.159999996</v>
       </c>
     </row>
     <row r="28" spans="2:7">
       <c r="B28" s="26" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="C28" s="27">
         <v>113524857.59999999</v>
@@ -13692,20 +13683,20 @@
         <v>2015</v>
       </c>
       <c r="E28" s="24" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="F28" s="28">
         <f t="shared" ca="1" si="0"/>
-        <v>22723393.52</v>
+        <v>22707767.52</v>
       </c>
       <c r="G28" s="27">
         <f t="shared" ca="1" si="1"/>
-        <v>90801464.079999998</v>
+        <v>90817090.079999998</v>
       </c>
     </row>
     <row r="29" spans="2:7">
       <c r="B29" s="26" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="C29" s="27">
         <v>129936576</v>
@@ -13714,20 +13705,20 @@
         <v>2015</v>
       </c>
       <c r="E29" s="24" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="F29" s="28">
         <f t="shared" ca="1" si="0"/>
-        <v>26009470.200000003</v>
+        <v>26002756.200000003</v>
       </c>
       <c r="G29" s="27">
         <f t="shared" ca="1" si="1"/>
-        <v>103927105.8</v>
+        <v>103933819.8</v>
       </c>
     </row>
     <row r="30" spans="2:7" ht="30" customHeight="1">
       <c r="B30" s="26" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="C30" s="27">
         <v>146215238.40000001</v>
@@ -13736,20 +13727,20 @@
         <v>2015</v>
       </c>
       <c r="E30" s="24" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="F30" s="28">
         <f t="shared" ca="1" si="0"/>
-        <v>29247610.680000003</v>
+        <v>29264596.680000003</v>
       </c>
       <c r="G30" s="27">
         <f t="shared" ca="1" si="1"/>
-        <v>116967627.72</v>
+        <v>116950641.72</v>
       </c>
     </row>
     <row r="31" spans="2:7">
       <c r="B31" s="26" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="C31" s="27">
         <v>28107340.800000001</v>
@@ -13758,20 +13749,20 @@
         <v>2015</v>
       </c>
       <c r="E31" s="24" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="F31" s="28">
         <f t="shared" ca="1" si="0"/>
-        <v>5643855.1600000001</v>
+        <v>5646002.1600000001</v>
       </c>
       <c r="G31" s="27">
         <f t="shared" ca="1" si="1"/>
-        <v>22463485.640000001</v>
+        <v>22461338.640000001</v>
       </c>
     </row>
     <row r="32" spans="2:7">
       <c r="B32" s="26" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="C32" s="27">
         <v>44533843.200000003</v>
@@ -13780,20 +13771,20 @@
         <v>2015</v>
       </c>
       <c r="E32" s="24" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="F32" s="28">
         <f t="shared" ca="1" si="0"/>
-        <v>8917918.6400000006</v>
+        <v>8929310.6400000006</v>
       </c>
       <c r="G32" s="27">
         <f t="shared" ca="1" si="1"/>
-        <v>35615924.560000002</v>
+        <v>35604532.560000002</v>
       </c>
     </row>
     <row r="33" spans="2:7" ht="30" customHeight="1">
       <c r="B33" s="26" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="C33" s="27">
         <v>60960345.599999987</v>
@@ -13802,20 +13793,20 @@
         <v>2015</v>
       </c>
       <c r="E33" s="24" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="F33" s="28">
         <f t="shared" ca="1" si="0"/>
-        <v>12193375.119999997</v>
+        <v>12204341.119999997</v>
       </c>
       <c r="G33" s="27">
         <f t="shared" ca="1" si="1"/>
-        <v>48766970.479999989</v>
+        <v>48756004.479999989</v>
       </c>
     </row>
     <row r="34" spans="2:7">
       <c r="B34" s="26" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="C34" s="27">
         <v>77386848</v>
@@ -13824,20 +13815,20 @@
         <v>2015</v>
       </c>
       <c r="E34" s="24" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="F34" s="28">
         <f t="shared" ca="1" si="0"/>
-        <v>15495287.600000001</v>
+        <v>15493056.600000001</v>
       </c>
       <c r="G34" s="27">
         <f t="shared" ca="1" si="1"/>
-        <v>61891560.399999999</v>
+        <v>61893791.399999999</v>
       </c>
     </row>
     <row r="35" spans="2:7">
       <c r="B35" s="26" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="C35" s="27">
         <v>93813350.399999991</v>
@@ -13846,20 +13837,20 @@
         <v>2015</v>
       </c>
       <c r="E35" s="24" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="F35" s="28">
         <f t="shared" ca="1" si="0"/>
-        <v>18781152.079999998</v>
+        <v>18776979.079999998</v>
       </c>
       <c r="G35" s="27">
         <f t="shared" ca="1" si="1"/>
-        <v>75032198.319999993</v>
+        <v>75036371.319999993</v>
       </c>
     </row>
     <row r="36" spans="2:7" ht="30" customHeight="1">
       <c r="B36" s="26" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="C36" s="27">
         <v>110239852.8</v>
@@ -13868,20 +13859,20 @@
         <v>2015</v>
       </c>
       <c r="E36" s="24" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="F36" s="28">
         <f t="shared" ca="1" si="0"/>
-        <v>22049560.560000002</v>
+        <v>22060903.560000002</v>
       </c>
       <c r="G36" s="27">
         <f t="shared" ca="1" si="1"/>
-        <v>88190292.239999995</v>
+        <v>88178949.239999995</v>
       </c>
     </row>
     <row r="37" spans="2:7">
       <c r="B37" s="26" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="C37" s="27">
         <v>126666355.2</v>
@@ -13890,20 +13881,20 @@
         <v>2015</v>
       </c>
       <c r="E37" s="24" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="F37" s="28">
         <f t="shared" ca="1" si="0"/>
-        <v>25345077.040000003</v>
+        <v>25354808.040000003</v>
       </c>
       <c r="G37" s="27">
         <f t="shared" ca="1" si="1"/>
-        <v>101321278.16</v>
+        <v>101311547.16</v>
       </c>
     </row>
     <row r="38" spans="2:7">
       <c r="B38" s="26" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="C38" s="27">
         <v>143092857.59999999</v>
@@ -13912,20 +13903,20 @@
         <v>2015</v>
       </c>
       <c r="E38" s="24" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="F38" s="28">
         <f t="shared" ca="1" si="0"/>
-        <v>28622051.52</v>
+        <v>28627071.52</v>
       </c>
       <c r="G38" s="27">
         <f t="shared" ca="1" si="1"/>
-        <v>114470806.08</v>
+        <v>114465786.08</v>
       </c>
     </row>
     <row r="39" spans="2:7" ht="30" customHeight="1">
       <c r="B39" s="26" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="C39" s="27">
         <v>26448576</v>
@@ -13934,20 +13925,20 @@
         <v>2015</v>
       </c>
       <c r="E39" s="24" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="F39" s="28">
         <f t="shared" ca="1" si="0"/>
-        <v>5314585.2</v>
+        <v>5300408.2</v>
       </c>
       <c r="G39" s="27">
         <f t="shared" ca="1" si="1"/>
-        <v>21133990.800000001</v>
+        <v>21148167.800000001</v>
       </c>
     </row>
     <row r="40" spans="2:7">
       <c r="B40" s="26" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="C40" s="27">
         <v>42727238.399999999</v>
@@ -13956,20 +13947,20 @@
         <v>2015</v>
       </c>
       <c r="E40" s="24" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="F40" s="28">
         <f t="shared" ca="1" si="0"/>
-        <v>8558823.6799999997</v>
+        <v>8568221.6799999997</v>
       </c>
       <c r="G40" s="27">
         <f t="shared" ca="1" si="1"/>
-        <v>34168414.719999999</v>
+        <v>34159016.719999999</v>
       </c>
     </row>
     <row r="41" spans="2:7">
       <c r="B41" s="26" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="C41" s="27">
         <v>57675340.799999997</v>
@@ -13978,20 +13969,20 @@
         <v>2015</v>
       </c>
       <c r="E41" s="24" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="F41" s="28">
         <f t="shared" ca="1" si="0"/>
-        <v>11552864.16</v>
+        <v>11539852.16</v>
       </c>
       <c r="G41" s="27">
         <f t="shared" ca="1" si="1"/>
-        <v>46122476.640000001</v>
+        <v>46135488.640000001</v>
       </c>
     </row>
     <row r="42" spans="2:7">
       <c r="B42" s="26" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="C42" s="27">
         <v>74101843.200000003</v>
@@ -14000,15 +13991,15 @@
         <v>2015</v>
       </c>
       <c r="E42" s="24" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="F42" s="28">
         <f t="shared" ca="1" si="0"/>
-        <v>14829092.640000001</v>
+        <v>14823813.640000001</v>
       </c>
       <c r="G42" s="27">
         <f t="shared" ca="1" si="1"/>
-        <v>59272750.560000002</v>
+        <v>59278029.560000002</v>
       </c>
     </row>
   </sheetData>
@@ -14044,10 +14035,10 @@
         <v>94</v>
       </c>
       <c r="E2" s="30" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="F2" s="30" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
     </row>
     <row r="3" spans="2:6">
@@ -14154,7 +14145,7 @@
     </row>
     <row r="43" spans="2:6">
       <c r="B43" s="29" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="C43" s="29">
         <v>6</v>
@@ -14172,7 +14163,7 @@
     </row>
     <row r="44" spans="2:6">
       <c r="B44" s="29" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="C44" s="29">
         <v>7</v>
@@ -14227,13 +14218,13 @@
         <v>99</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="G1" s="8" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="H1" s="8" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
     </row>
     <row r="2" spans="1:8">
@@ -14253,10 +14244,10 @@
         <v>4</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="H2" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -14278,10 +14269,10 @@
       </c>
       <c r="F3" s="3"/>
       <c r="G3" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="H3" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -14302,10 +14293,10 @@
         <v>10</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="H4" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -14326,10 +14317,10 @@
         <v>11</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="H5" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -14350,10 +14341,10 @@
         <v>13</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="H6" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -14375,10 +14366,10 @@
         <v>5</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="H7" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -14400,10 +14391,10 @@
         <v>7</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="H8" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -14425,10 +14416,10 @@
         <v>10</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="H9" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -14450,10 +14441,10 @@
         <v>11</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="H10" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -14475,10 +14466,10 @@
         <v>13</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="H11" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -14500,7 +14491,7 @@
         <v>6</v>
       </c>
       <c r="F12" s="3" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -14522,10 +14513,10 @@
         <v>7</v>
       </c>
       <c r="F13" s="3" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="H13" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -14547,7 +14538,7 @@
         <v>10</v>
       </c>
       <c r="F14" s="3" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -14570,7 +14561,7 @@
       </c>
       <c r="F15" s="3"/>
       <c r="G15" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -14592,7 +14583,7 @@
         <v>13</v>
       </c>
       <c r="F16" s="3" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -14614,10 +14605,10 @@
         <v>6</v>
       </c>
       <c r="F17" s="3" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="H17" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -14639,7 +14630,7 @@
         <v>8</v>
       </c>
       <c r="F18" s="3" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -14661,7 +14652,7 @@
         <v>10</v>
       </c>
       <c r="F19" s="3" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -14683,7 +14674,7 @@
         <v>11</v>
       </c>
       <c r="F20" s="3" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -14706,7 +14697,7 @@
       </c>
       <c r="F21" s="3"/>
       <c r="G21" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -14728,7 +14719,7 @@
         <v>5</v>
       </c>
       <c r="F22" s="3" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -14750,7 +14741,7 @@
         <v>8</v>
       </c>
       <c r="F23" s="3" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -14772,7 +14763,7 @@
         <v>10</v>
       </c>
       <c r="F24" s="3" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -14794,7 +14785,7 @@
         <v>11</v>
       </c>
       <c r="F25" s="3" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -14816,7 +14807,7 @@
         <v>13</v>
       </c>
       <c r="F26" s="3" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -14838,7 +14829,7 @@
         <v>6</v>
       </c>
       <c r="F27" s="3" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -14860,10 +14851,10 @@
         <v>8</v>
       </c>
       <c r="F28" s="3" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="H28" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -14885,10 +14876,10 @@
         <v>10</v>
       </c>
       <c r="F29" s="3" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="H29" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -14910,7 +14901,7 @@
         <v>12</v>
       </c>
       <c r="F30" s="3" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -14932,7 +14923,7 @@
         <v>13</v>
       </c>
       <c r="F31" s="3" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -14955,7 +14946,7 @@
       </c>
       <c r="F32" s="3"/>
       <c r="G32" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -14977,10 +14968,10 @@
         <v>8</v>
       </c>
       <c r="F33" s="3" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="H33" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -15002,10 +14993,10 @@
         <v>10</v>
       </c>
       <c r="F34" s="3" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="H34" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -15027,10 +15018,10 @@
         <v>12</v>
       </c>
       <c r="F35" s="3" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="H35" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -15052,10 +15043,10 @@
         <v>13</v>
       </c>
       <c r="F36" s="3" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="H36" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -15077,7 +15068,7 @@
         <v>6</v>
       </c>
       <c r="F37" s="3" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -15099,7 +15090,7 @@
         <v>8</v>
       </c>
       <c r="F38" s="3" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -15121,7 +15112,7 @@
         <v>10</v>
       </c>
       <c r="F39" s="3" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -15143,10 +15134,10 @@
         <v>12</v>
       </c>
       <c r="F40" s="3" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="H40" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -15168,10 +15159,10 @@
         <v>13</v>
       </c>
       <c r="F41" s="3" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="H41" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -15193,7 +15184,7 @@
         <v>4</v>
       </c>
       <c r="F42" s="3" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -15215,7 +15206,7 @@
         <v>9</v>
       </c>
       <c r="F43" s="3" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -15237,7 +15228,7 @@
         <v>10</v>
       </c>
       <c r="F44" s="3" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -15259,7 +15250,7 @@
         <v>12</v>
       </c>
       <c r="F45" s="3" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -15281,7 +15272,7 @@
         <v>13</v>
       </c>
       <c r="F46" s="3" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -15303,7 +15294,7 @@
         <v>5</v>
       </c>
       <c r="F47" s="3" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -15325,7 +15316,7 @@
         <v>9</v>
       </c>
       <c r="F48" s="3" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
     </row>
     <row r="49" spans="1:6">
@@ -15347,7 +15338,7 @@
         <v>10</v>
       </c>
       <c r="F49" s="3" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
     </row>
     <row r="50" spans="1:6">
@@ -15369,7 +15360,7 @@
         <v>12</v>
       </c>
       <c r="F50" s="3" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
     </row>
     <row r="51" spans="1:6">
@@ -15391,7 +15382,7 @@
         <v>13</v>
       </c>
       <c r="F51" s="3" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
     </row>
   </sheetData>
@@ -15411,30 +15402,30 @@
   <sheetData>
     <row r="1" spans="1:5" ht="30" customHeight="1">
       <c r="A1" s="32" t="s">
+        <v>261</v>
+      </c>
+      <c r="B1" s="32" t="s">
+        <v>262</v>
+      </c>
+      <c r="C1" s="32" t="s">
+        <v>263</v>
+      </c>
+      <c r="D1" s="32" t="s">
         <v>264</v>
       </c>
-      <c r="B1" s="32" t="s">
+      <c r="E1" s="33" t="s">
         <v>265</v>
-      </c>
-      <c r="C1" s="32" t="s">
-        <v>266</v>
-      </c>
-      <c r="D1" s="32" t="s">
-        <v>267</v>
-      </c>
-      <c r="E1" s="33" t="s">
-        <v>268</v>
       </c>
     </row>
     <row r="2" spans="1:5">
       <c r="A2" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="B2" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="C2" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="D2">
         <v>21</v>
@@ -15445,13 +15436,13 @@
     </row>
     <row r="3" spans="1:5">
       <c r="A3" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="B3" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="C3" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="D3">
         <v>20</v>
@@ -15462,13 +15453,13 @@
     </row>
     <row r="4" spans="1:5">
       <c r="A4" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="B4" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="C4" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="D4">
         <v>19</v>
@@ -15479,13 +15470,13 @@
     </row>
     <row r="5" spans="1:5">
       <c r="A5" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="B5" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="C5" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="D5">
         <v>18</v>
@@ -15496,13 +15487,13 @@
     </row>
     <row r="6" spans="1:5">
       <c r="A6" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="B6" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="C6" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="D6">
         <v>17</v>
@@ -15513,13 +15504,13 @@
     </row>
     <row r="7" spans="1:5">
       <c r="A7" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="B7" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="C7" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="D7">
         <v>16</v>
@@ -15530,13 +15521,13 @@
     </row>
     <row r="8" spans="1:5">
       <c r="A8" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="B8" t="s">
+        <v>253</v>
+      </c>
+      <c r="C8" t="s">
         <v>256</v>
-      </c>
-      <c r="C8" t="s">
-        <v>259</v>
       </c>
       <c r="D8">
         <v>15</v>
@@ -15547,13 +15538,13 @@
     </row>
     <row r="9" spans="1:5">
       <c r="A9" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="B9" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="C9" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="D9">
         <v>14</v>
@@ -15564,13 +15555,13 @@
     </row>
     <row r="10" spans="1:5">
       <c r="A10" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="B10" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="C10" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="D10">
         <v>13</v>
@@ -15581,13 +15572,13 @@
     </row>
     <row r="11" spans="1:5">
       <c r="A11" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="B11" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="C11" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="D11">
         <v>12</v>
@@ -15598,13 +15589,13 @@
     </row>
     <row r="12" spans="1:5">
       <c r="A12" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="B12" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="C12" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="D12">
         <v>11</v>
@@ -15615,13 +15606,13 @@
     </row>
     <row r="13" spans="1:5">
       <c r="A13" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="B13" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="C13" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="D13">
         <v>10</v>
@@ -15632,13 +15623,13 @@
     </row>
     <row r="14" spans="1:5">
       <c r="A14" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="B14" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="C14" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="D14">
         <v>9</v>
@@ -15649,13 +15640,13 @@
     </row>
     <row r="15" spans="1:5">
       <c r="A15" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="B15" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="C15" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="D15">
         <v>8</v>
@@ -15666,13 +15657,13 @@
     </row>
     <row r="16" spans="1:5">
       <c r="A16" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="B16" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="C16" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="D16">
         <v>7</v>
@@ -15683,13 +15674,13 @@
     </row>
     <row r="17" spans="1:5">
       <c r="A17" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="B17" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="C17" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="D17">
         <v>6</v>
@@ -15700,13 +15691,13 @@
     </row>
     <row r="18" spans="1:5">
       <c r="A18" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="B18" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="C18" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="D18">
         <v>5</v>
@@ -15717,13 +15708,13 @@
     </row>
     <row r="19" spans="1:5">
       <c r="A19" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="B19" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="C19" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="D19">
         <v>4</v>
@@ -15734,13 +15725,13 @@
     </row>
     <row r="20" spans="1:5">
       <c r="A20" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="B20" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="C20" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="D20">
         <v>3</v>
@@ -15751,13 +15742,13 @@
     </row>
     <row r="21" spans="1:5">
       <c r="A21" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="B21" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="C21" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="D21">
         <v>2</v>
@@ -15768,7 +15759,7 @@
     </row>
     <row r="22" spans="1:5">
       <c r="C22" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="D22">
         <v>2</v>
@@ -15779,13 +15770,13 @@
     </row>
     <row r="23" spans="1:5">
       <c r="A23" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="B23" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="C23" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="D23">
         <v>1</v>
@@ -15793,10 +15784,10 @@
     </row>
     <row r="24" spans="1:5">
       <c r="A24" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="C24" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="D24">
         <v>1</v>
@@ -15804,7 +15795,7 @@
     </row>
     <row r="25" spans="1:5">
       <c r="C25" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="D25">
         <v>1</v>

--- a/Sample_Bank_Data/SEP 2024.xlsx
+++ b/Sample_Bank_Data/SEP 2024.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\91636\Downloads\data\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="4" documentId="13_ncr:1_{42FDEC2A-8242-4E00-8B33-4E96A87043E5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{717D5E48-C3B4-4569-A993-C1A0BD25B675}"/>
+  <xr:revisionPtr revIDLastSave="9" documentId="13_ncr:1_{42FDEC2A-8242-4E00-8B33-4E96A87043E5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4E5D3CF1-F2D2-41FF-8577-69ACB6D2C8BD}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" firstSheet="3" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" firstSheet="3" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Collateral Types" sheetId="1" r:id="rId1"/>
@@ -50,7 +50,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1780" uniqueCount="305">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1828" uniqueCount="305">
   <si>
     <t>Collateral Types</t>
   </si>
@@ -8284,8 +8284,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
   <dimension ref="A1:J148"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1"/>
+    <sheetView topLeftCell="A15" workbookViewId="0">
+      <selection sqref="A1:A39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -13086,10 +13086,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="B2:G42"/>
+  <dimension ref="A2:G42"/>
   <sheetViews>
-    <sheetView topLeftCell="A39" workbookViewId="0">
-      <selection activeCell="F57" sqref="F57"/>
+    <sheetView topLeftCell="A27" workbookViewId="0">
+      <selection activeCell="A42" sqref="A38:A42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -13102,7 +13102,10 @@
     <col min="7" max="7" width="19.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:7">
+    <row r="2" spans="1:7">
+      <c r="A2" s="22" t="s">
+        <v>93</v>
+      </c>
       <c r="B2" s="23" t="s">
         <v>192</v>
       </c>
@@ -13122,7 +13125,10 @@
         <v>197</v>
       </c>
     </row>
-    <row r="3" spans="2:7" ht="41.25" customHeight="1">
+    <row r="3" spans="1:7" ht="41.25" customHeight="1">
+      <c r="A3" t="s">
+        <v>114</v>
+      </c>
       <c r="B3" s="26" t="s">
         <v>198</v>
       </c>
@@ -13137,14 +13143,17 @@
       </c>
       <c r="F3" s="28">
         <f t="shared" ref="F3:F42" ca="1" si="0">(C3*0.2) + RANDBETWEEN(0, 25000)</f>
-        <v>5409543.120000001</v>
+        <v>5397216.120000001</v>
       </c>
       <c r="G3" s="27">
         <f t="shared" ref="G3:G42" ca="1" si="1">C3-F3</f>
-        <v>21547602.48</v>
-      </c>
-    </row>
-    <row r="4" spans="2:7">
+        <v>21559929.48</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" t="s">
+        <v>114</v>
+      </c>
       <c r="B4" s="26" t="s">
         <v>200</v>
       </c>
@@ -13159,14 +13168,17 @@
       </c>
       <c r="F4" s="28">
         <f t="shared" ca="1" si="0"/>
-        <v>8090399.6000000006</v>
+        <v>8094084.6000000006</v>
       </c>
       <c r="G4" s="27">
         <f t="shared" ca="1" si="1"/>
-        <v>32336448.399999999</v>
-      </c>
-    </row>
-    <row r="5" spans="2:7">
+        <v>32332763.399999999</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" t="s">
+        <v>114</v>
+      </c>
       <c r="B5" s="26" t="s">
         <v>201</v>
       </c>
@@ -13181,14 +13193,17 @@
       </c>
       <c r="F5" s="28">
         <f t="shared" ca="1" si="0"/>
-        <v>10780048.08</v>
+        <v>10780838.08</v>
       </c>
       <c r="G5" s="27">
         <f t="shared" ca="1" si="1"/>
-        <v>43116502.32</v>
-      </c>
-    </row>
-    <row r="6" spans="2:7" ht="30" customHeight="1">
+        <v>43115712.32</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="30" customHeight="1">
+      <c r="A6" t="s">
+        <v>114</v>
+      </c>
       <c r="B6" s="26" t="s">
         <v>202</v>
       </c>
@@ -13203,14 +13218,17 @@
       </c>
       <c r="F6" s="28">
         <f t="shared" ca="1" si="0"/>
-        <v>13491218.560000001</v>
+        <v>13475364.560000001</v>
       </c>
       <c r="G6" s="27">
         <f t="shared" ca="1" si="1"/>
-        <v>53875034.239999995</v>
-      </c>
-    </row>
-    <row r="7" spans="2:7" ht="30" customHeight="1">
+        <v>53890888.239999995</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="30" customHeight="1">
+      <c r="A7" t="s">
+        <v>114</v>
+      </c>
       <c r="B7" s="26" t="s">
         <v>203</v>
       </c>
@@ -13225,14 +13243,17 @@
       </c>
       <c r="F7" s="28">
         <f t="shared" ca="1" si="0"/>
-        <v>16181314.039999999</v>
+        <v>16177643.039999999</v>
       </c>
       <c r="G7" s="27">
         <f t="shared" ca="1" si="1"/>
-        <v>64654641.159999989</v>
-      </c>
-    </row>
-    <row r="8" spans="2:7">
+        <v>64658312.159999989</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8" t="s">
+        <v>114</v>
+      </c>
       <c r="B8" s="26" t="s">
         <v>204</v>
       </c>
@@ -13247,14 +13268,17 @@
       </c>
       <c r="F8" s="28">
         <f t="shared" ca="1" si="0"/>
-        <v>18877425.520000003</v>
+        <v>18884899.520000003</v>
       </c>
       <c r="G8" s="27">
         <f t="shared" ca="1" si="1"/>
-        <v>75428232.080000013</v>
-      </c>
-    </row>
-    <row r="9" spans="2:7" ht="30" customHeight="1">
+        <v>75420758.080000013</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="30" customHeight="1">
+      <c r="A9" t="s">
+        <v>114</v>
+      </c>
       <c r="B9" s="26" t="s">
         <v>205</v>
       </c>
@@ -13269,14 +13293,17 @@
       </c>
       <c r="F9" s="28">
         <f t="shared" ca="1" si="0"/>
-        <v>21565384.200000003</v>
+        <v>21569452.200000003</v>
       </c>
       <c r="G9" s="27">
         <f t="shared" ca="1" si="1"/>
-        <v>86195191.799999997</v>
-      </c>
-    </row>
-    <row r="10" spans="2:7">
+        <v>86191123.799999997</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10" t="s">
+        <v>114</v>
+      </c>
       <c r="B10" s="26" t="s">
         <v>206</v>
       </c>
@@ -13291,14 +13318,17 @@
       </c>
       <c r="F10" s="28">
         <f t="shared" ca="1" si="0"/>
-        <v>24236519.680000003</v>
+        <v>24233085.680000003</v>
       </c>
       <c r="G10" s="27">
         <f t="shared" ca="1" si="1"/>
-        <v>96845918.719999999</v>
-      </c>
-    </row>
-    <row r="11" spans="2:7" ht="30" customHeight="1">
+        <v>96849352.719999999</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="30" customHeight="1">
+      <c r="A11" t="s">
+        <v>114</v>
+      </c>
       <c r="B11" s="26" t="s">
         <v>207</v>
       </c>
@@ -13313,14 +13343,17 @@
       </c>
       <c r="F11" s="28">
         <f t="shared" ca="1" si="0"/>
-        <v>26639233.16</v>
+        <v>26633496.16</v>
       </c>
       <c r="G11" s="27">
         <f t="shared" ca="1" si="1"/>
-        <v>106434507.64</v>
-      </c>
-    </row>
-    <row r="12" spans="2:7">
+        <v>106440244.64</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="A12" t="s">
+        <v>114</v>
+      </c>
       <c r="B12" s="26" t="s">
         <v>208</v>
       </c>
@@ -13335,14 +13368,17 @@
       </c>
       <c r="F12" s="28">
         <f t="shared" ca="1" si="0"/>
-        <v>29316033.640000001</v>
+        <v>29308995.640000001</v>
       </c>
       <c r="G12" s="27">
         <f t="shared" ca="1" si="1"/>
-        <v>117227409.55999999</v>
-      </c>
-    </row>
-    <row r="13" spans="2:7">
+        <v>117234447.55999999</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="A13" t="s">
+        <v>114</v>
+      </c>
       <c r="B13" s="26" t="s">
         <v>209</v>
       </c>
@@ -13357,14 +13393,17 @@
       </c>
       <c r="F13" s="28">
         <f t="shared" ca="1" si="0"/>
-        <v>3322634.12</v>
+        <v>3343461.12</v>
       </c>
       <c r="G13" s="27">
         <f t="shared" ca="1" si="1"/>
-        <v>13285711.48</v>
-      </c>
-    </row>
-    <row r="14" spans="2:7">
+        <v>13264884.48</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="A14" t="s">
+        <v>114</v>
+      </c>
       <c r="B14" s="26" t="s">
         <v>210</v>
       </c>
@@ -13379,14 +13418,17 @@
       </c>
       <c r="F14" s="28">
         <f t="shared" ca="1" si="0"/>
-        <v>6610425.6000000006</v>
+        <v>6608724.6000000006</v>
       </c>
       <c r="G14" s="27">
         <f t="shared" ca="1" si="1"/>
-        <v>26424422.399999999</v>
-      </c>
-    </row>
-    <row r="15" spans="2:7" ht="30" customHeight="1">
+        <v>26426123.399999999</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" ht="30" customHeight="1">
+      <c r="A15" t="s">
+        <v>114</v>
+      </c>
       <c r="B15" s="26" t="s">
         <v>211</v>
       </c>
@@ -13401,14 +13443,17 @@
       </c>
       <c r="F15" s="28">
         <f t="shared" ca="1" si="0"/>
-        <v>9900409.0800000001</v>
+        <v>9907007.0800000001</v>
       </c>
       <c r="G15" s="27">
         <f t="shared" ca="1" si="1"/>
-        <v>39560941.32</v>
-      </c>
-    </row>
-    <row r="16" spans="2:7">
+        <v>39554343.32</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
+      <c r="A16" t="s">
+        <v>114</v>
+      </c>
       <c r="B16" s="26" t="s">
         <v>212</v>
       </c>
@@ -13423,14 +13468,17 @@
       </c>
       <c r="F16" s="28">
         <f t="shared" ca="1" si="0"/>
-        <v>13202503.560000001</v>
+        <v>13185149.560000001</v>
       </c>
       <c r="G16" s="27">
         <f t="shared" ca="1" si="1"/>
-        <v>52685349.239999995</v>
-      </c>
-    </row>
-    <row r="17" spans="2:7">
+        <v>52702703.239999995</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
+      <c r="A17" t="s">
+        <v>114</v>
+      </c>
       <c r="B17" s="26" t="s">
         <v>213</v>
       </c>
@@ -13445,14 +13493,17 @@
       </c>
       <c r="F17" s="28">
         <f t="shared" ca="1" si="0"/>
-        <v>16479940.039999999</v>
+        <v>16472739.039999999</v>
       </c>
       <c r="G17" s="27">
         <f t="shared" ca="1" si="1"/>
-        <v>65834415.159999989</v>
-      </c>
-    </row>
-    <row r="18" spans="2:7">
+        <v>65841616.159999989</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
+      <c r="A18" t="s">
+        <v>114</v>
+      </c>
       <c r="B18" s="26" t="s">
         <v>214</v>
       </c>
@@ -13467,14 +13518,17 @@
       </c>
       <c r="F18" s="28">
         <f t="shared" ca="1" si="0"/>
-        <v>19765757.520000003</v>
+        <v>19751728.520000003</v>
       </c>
       <c r="G18" s="27">
         <f t="shared" ca="1" si="1"/>
-        <v>78975100.080000013</v>
-      </c>
-    </row>
-    <row r="19" spans="2:7" ht="30" customHeight="1">
+        <v>78989129.080000013</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" ht="30" customHeight="1">
+      <c r="A19" t="s">
+        <v>114</v>
+      </c>
       <c r="B19" s="26" t="s">
         <v>216</v>
       </c>
@@ -13489,14 +13543,17 @@
       </c>
       <c r="F19" s="28">
         <f t="shared" ca="1" si="0"/>
-        <v>23052152.200000003</v>
+        <v>23046288.200000003</v>
       </c>
       <c r="G19" s="27">
         <f t="shared" ca="1" si="1"/>
-        <v>92100423.799999997</v>
-      </c>
-    </row>
-    <row r="20" spans="2:7">
+        <v>92106287.799999997</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
+      <c r="A20" t="s">
+        <v>114</v>
+      </c>
       <c r="B20" s="26" t="s">
         <v>217</v>
       </c>
@@ -13511,14 +13568,17 @@
       </c>
       <c r="F20" s="28">
         <f t="shared" ca="1" si="0"/>
-        <v>26300200.680000003</v>
+        <v>26306649.680000003</v>
       </c>
       <c r="G20" s="27">
         <f t="shared" ca="1" si="1"/>
-        <v>105131037.72</v>
-      </c>
-    </row>
-    <row r="21" spans="2:7" ht="30" customHeight="1">
+        <v>105124588.72</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" ht="30" customHeight="1">
+      <c r="A21" t="s">
+        <v>114</v>
+      </c>
       <c r="B21" s="26" t="s">
         <v>218</v>
       </c>
@@ -13533,14 +13593,17 @@
       </c>
       <c r="F21" s="28">
         <f t="shared" ca="1" si="0"/>
-        <v>29283132.160000004</v>
+        <v>29295280.160000004</v>
       </c>
       <c r="G21" s="27">
         <f t="shared" ca="1" si="1"/>
-        <v>117096208.64000002</v>
-      </c>
-    </row>
-    <row r="22" spans="2:7">
+        <v>117084060.64000002</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
+      <c r="A22" t="s">
+        <v>114</v>
+      </c>
       <c r="B22" s="26" t="s">
         <v>219</v>
       </c>
@@ -13555,14 +13618,17 @@
       </c>
       <c r="F22" s="28">
         <f t="shared" ca="1" si="0"/>
-        <v>3004758.64</v>
+        <v>3017521.64</v>
       </c>
       <c r="G22" s="27">
         <f t="shared" ca="1" si="1"/>
-        <v>11961084.559999999</v>
-      </c>
-    </row>
-    <row r="23" spans="2:7">
+        <v>11948321.559999999</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
+      <c r="A23" t="s">
+        <v>114</v>
+      </c>
       <c r="B23" s="26" t="s">
         <v>220</v>
       </c>
@@ -13577,14 +13643,17 @@
       </c>
       <c r="F23" s="28">
         <f t="shared" ca="1" si="0"/>
-        <v>6303323.120000001</v>
+        <v>6302331.120000001</v>
       </c>
       <c r="G23" s="27">
         <f t="shared" ca="1" si="1"/>
-        <v>25089022.48</v>
-      </c>
-    </row>
-    <row r="24" spans="2:7">
+        <v>25090014.48</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7">
+      <c r="A24" t="s">
+        <v>114</v>
+      </c>
       <c r="B24" s="26" t="s">
         <v>221</v>
       </c>
@@ -13599,14 +13668,17 @@
       </c>
       <c r="F24" s="28">
         <f t="shared" ca="1" si="0"/>
-        <v>9576213.5999999996</v>
+        <v>9574869.5999999996</v>
       </c>
       <c r="G24" s="27">
         <f t="shared" ca="1" si="1"/>
-        <v>38242634.399999999</v>
-      </c>
-    </row>
-    <row r="25" spans="2:7" ht="30" customHeight="1">
+        <v>38243978.399999999</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" ht="30" customHeight="1">
+      <c r="A25" t="s">
+        <v>114</v>
+      </c>
       <c r="B25" s="26" t="s">
         <v>222</v>
       </c>
@@ -13621,14 +13693,17 @@
       </c>
       <c r="F25" s="28">
         <f t="shared" ca="1" si="0"/>
-        <v>12856407.08</v>
+        <v>12869430.08</v>
       </c>
       <c r="G25" s="27">
         <f t="shared" ca="1" si="1"/>
-        <v>51388943.32</v>
-      </c>
-    </row>
-    <row r="26" spans="2:7">
+        <v>51375920.32</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7">
+      <c r="A26" t="s">
+        <v>114</v>
+      </c>
       <c r="B26" s="26" t="s">
         <v>223</v>
       </c>
@@ -13643,14 +13718,17 @@
       </c>
       <c r="F26" s="28">
         <f t="shared" ca="1" si="0"/>
-        <v>16137132.560000001</v>
+        <v>16151022.560000001</v>
       </c>
       <c r="G26" s="27">
         <f t="shared" ca="1" si="1"/>
-        <v>64534720.239999995</v>
-      </c>
-    </row>
-    <row r="27" spans="2:7" ht="30" customHeight="1">
+        <v>64520830.239999995</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" ht="30" customHeight="1">
+      <c r="A27" t="s">
+        <v>114</v>
+      </c>
       <c r="B27" s="26" t="s">
         <v>224</v>
       </c>
@@ -13665,14 +13743,17 @@
       </c>
       <c r="F27" s="28">
         <f t="shared" ca="1" si="0"/>
-        <v>19444367.039999999</v>
+        <v>19437439.039999999</v>
       </c>
       <c r="G27" s="27">
         <f t="shared" ca="1" si="1"/>
-        <v>77653988.159999996</v>
-      </c>
-    </row>
-    <row r="28" spans="2:7">
+        <v>77660916.159999996</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7">
+      <c r="A28" t="s">
+        <v>114</v>
+      </c>
       <c r="B28" s="26" t="s">
         <v>225</v>
       </c>
@@ -13687,14 +13768,17 @@
       </c>
       <c r="F28" s="28">
         <f t="shared" ca="1" si="0"/>
-        <v>22707767.52</v>
+        <v>22715054.52</v>
       </c>
       <c r="G28" s="27">
         <f t="shared" ca="1" si="1"/>
-        <v>90817090.079999998</v>
-      </c>
-    </row>
-    <row r="29" spans="2:7">
+        <v>90809803.079999998</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7">
+      <c r="A29" t="s">
+        <v>114</v>
+      </c>
       <c r="B29" s="26" t="s">
         <v>226</v>
       </c>
@@ -13709,14 +13793,17 @@
       </c>
       <c r="F29" s="28">
         <f t="shared" ca="1" si="0"/>
-        <v>26002756.200000003</v>
+        <v>26010120.200000003</v>
       </c>
       <c r="G29" s="27">
         <f t="shared" ca="1" si="1"/>
-        <v>103933819.8</v>
-      </c>
-    </row>
-    <row r="30" spans="2:7" ht="30" customHeight="1">
+        <v>103926455.8</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" ht="30" customHeight="1">
+      <c r="A30" t="s">
+        <v>114</v>
+      </c>
       <c r="B30" s="26" t="s">
         <v>227</v>
       </c>
@@ -13731,14 +13818,17 @@
       </c>
       <c r="F30" s="28">
         <f t="shared" ca="1" si="0"/>
-        <v>29264596.680000003</v>
+        <v>29260482.680000003</v>
       </c>
       <c r="G30" s="27">
         <f t="shared" ca="1" si="1"/>
-        <v>116950641.72</v>
-      </c>
-    </row>
-    <row r="31" spans="2:7">
+        <v>116954755.72</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7">
+      <c r="A31" t="s">
+        <v>114</v>
+      </c>
       <c r="B31" s="26" t="s">
         <v>228</v>
       </c>
@@ -13753,14 +13843,17 @@
       </c>
       <c r="F31" s="28">
         <f t="shared" ca="1" si="0"/>
-        <v>5646002.1600000001</v>
+        <v>5638065.1600000001</v>
       </c>
       <c r="G31" s="27">
         <f t="shared" ca="1" si="1"/>
-        <v>22461338.640000001</v>
-      </c>
-    </row>
-    <row r="32" spans="2:7">
+        <v>22469275.640000001</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7">
+      <c r="A32" t="s">
+        <v>114</v>
+      </c>
       <c r="B32" s="26" t="s">
         <v>229</v>
       </c>
@@ -13775,14 +13868,17 @@
       </c>
       <c r="F32" s="28">
         <f t="shared" ca="1" si="0"/>
-        <v>8929310.6400000006</v>
+        <v>8917479.6400000006</v>
       </c>
       <c r="G32" s="27">
         <f t="shared" ca="1" si="1"/>
-        <v>35604532.560000002</v>
-      </c>
-    </row>
-    <row r="33" spans="2:7" ht="30" customHeight="1">
+        <v>35616363.560000002</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" ht="30" customHeight="1">
+      <c r="A33" t="s">
+        <v>114</v>
+      </c>
       <c r="B33" s="26" t="s">
         <v>230</v>
       </c>
@@ -13797,14 +13893,17 @@
       </c>
       <c r="F33" s="28">
         <f t="shared" ca="1" si="0"/>
-        <v>12204341.119999997</v>
+        <v>12192206.119999997</v>
       </c>
       <c r="G33" s="27">
         <f t="shared" ca="1" si="1"/>
-        <v>48756004.479999989</v>
-      </c>
-    </row>
-    <row r="34" spans="2:7">
+        <v>48768139.479999989</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7">
+      <c r="A34" t="s">
+        <v>114</v>
+      </c>
       <c r="B34" s="26" t="s">
         <v>231</v>
       </c>
@@ -13819,14 +13918,17 @@
       </c>
       <c r="F34" s="28">
         <f t="shared" ca="1" si="0"/>
-        <v>15493056.600000001</v>
+        <v>15498403.600000001</v>
       </c>
       <c r="G34" s="27">
         <f t="shared" ca="1" si="1"/>
-        <v>61893791.399999999</v>
-      </c>
-    </row>
-    <row r="35" spans="2:7">
+        <v>61888444.399999999</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7">
+      <c r="A35" t="s">
+        <v>114</v>
+      </c>
       <c r="B35" s="26" t="s">
         <v>232</v>
       </c>
@@ -13841,14 +13943,17 @@
       </c>
       <c r="F35" s="28">
         <f t="shared" ca="1" si="0"/>
-        <v>18776979.079999998</v>
+        <v>18769238.079999998</v>
       </c>
       <c r="G35" s="27">
         <f t="shared" ca="1" si="1"/>
-        <v>75036371.319999993</v>
-      </c>
-    </row>
-    <row r="36" spans="2:7" ht="30" customHeight="1">
+        <v>75044112.319999993</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" ht="30" customHeight="1">
+      <c r="A36" t="s">
+        <v>114</v>
+      </c>
       <c r="B36" s="26" t="s">
         <v>233</v>
       </c>
@@ -13863,14 +13968,17 @@
       </c>
       <c r="F36" s="28">
         <f t="shared" ca="1" si="0"/>
-        <v>22060903.560000002</v>
+        <v>22049968.560000002</v>
       </c>
       <c r="G36" s="27">
         <f t="shared" ca="1" si="1"/>
-        <v>88178949.239999995</v>
-      </c>
-    </row>
-    <row r="37" spans="2:7">
+        <v>88189884.239999995</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7">
+      <c r="A37" t="s">
+        <v>114</v>
+      </c>
       <c r="B37" s="26" t="s">
         <v>234</v>
       </c>
@@ -13885,14 +13993,17 @@
       </c>
       <c r="F37" s="28">
         <f t="shared" ca="1" si="0"/>
-        <v>25354808.040000003</v>
+        <v>25347692.040000003</v>
       </c>
       <c r="G37" s="27">
         <f t="shared" ca="1" si="1"/>
-        <v>101311547.16</v>
-      </c>
-    </row>
-    <row r="38" spans="2:7">
+        <v>101318663.16</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7">
+      <c r="A38" t="s">
+        <v>114</v>
+      </c>
       <c r="B38" s="26" t="s">
         <v>235</v>
       </c>
@@ -13907,14 +14018,17 @@
       </c>
       <c r="F38" s="28">
         <f t="shared" ca="1" si="0"/>
-        <v>28627071.52</v>
+        <v>28626438.52</v>
       </c>
       <c r="G38" s="27">
         <f t="shared" ca="1" si="1"/>
-        <v>114465786.08</v>
-      </c>
-    </row>
-    <row r="39" spans="2:7" ht="30" customHeight="1">
+        <v>114466419.08</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" ht="30" customHeight="1">
+      <c r="A39" t="s">
+        <v>114</v>
+      </c>
       <c r="B39" s="26" t="s">
         <v>236</v>
       </c>
@@ -13929,14 +14043,17 @@
       </c>
       <c r="F39" s="28">
         <f t="shared" ca="1" si="0"/>
-        <v>5300408.2</v>
+        <v>5308892.2</v>
       </c>
       <c r="G39" s="27">
         <f t="shared" ca="1" si="1"/>
-        <v>21148167.800000001</v>
-      </c>
-    </row>
-    <row r="40" spans="2:7">
+        <v>21139683.800000001</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7">
+      <c r="A40" t="s">
+        <v>114</v>
+      </c>
       <c r="B40" s="26" t="s">
         <v>237</v>
       </c>
@@ -13951,14 +14068,17 @@
       </c>
       <c r="F40" s="28">
         <f t="shared" ca="1" si="0"/>
-        <v>8568221.6799999997</v>
+        <v>8562736.6799999997</v>
       </c>
       <c r="G40" s="27">
         <f t="shared" ca="1" si="1"/>
-        <v>34159016.719999999</v>
-      </c>
-    </row>
-    <row r="41" spans="2:7">
+        <v>34164501.719999999</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7">
+      <c r="A41" t="s">
+        <v>114</v>
+      </c>
       <c r="B41" s="26" t="s">
         <v>238</v>
       </c>
@@ -13973,14 +14093,17 @@
       </c>
       <c r="F41" s="28">
         <f t="shared" ca="1" si="0"/>
-        <v>11539852.16</v>
+        <v>11546425.16</v>
       </c>
       <c r="G41" s="27">
         <f t="shared" ca="1" si="1"/>
-        <v>46135488.640000001</v>
-      </c>
-    </row>
-    <row r="42" spans="2:7">
+        <v>46128915.640000001</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7">
+      <c r="A42" t="s">
+        <v>114</v>
+      </c>
       <c r="B42" s="26" t="s">
         <v>239</v>
       </c>
@@ -13995,11 +14118,11 @@
       </c>
       <c r="F42" s="28">
         <f t="shared" ca="1" si="0"/>
-        <v>14823813.640000001</v>
+        <v>14822149.640000001</v>
       </c>
       <c r="G42" s="27">
         <f t="shared" ca="1" si="1"/>
-        <v>59278029.560000002</v>
+        <v>59279693.560000002</v>
       </c>
     </row>
   </sheetData>
@@ -14009,10 +14132,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
-  <dimension ref="B2:F44"/>
+  <dimension ref="A2:F44"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -14024,7 +14147,10 @@
     <col min="6" max="6" width="18.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:6">
+    <row r="2" spans="1:6">
+      <c r="A2" t="s">
+        <v>93</v>
+      </c>
       <c r="B2" s="29" t="s">
         <v>25</v>
       </c>
@@ -14041,7 +14167,10 @@
         <v>241</v>
       </c>
     </row>
-    <row r="3" spans="2:6">
+    <row r="3" spans="1:6">
+      <c r="A3" t="s">
+        <v>114</v>
+      </c>
       <c r="B3" s="29" t="s">
         <v>43</v>
       </c>
@@ -14059,7 +14188,10 @@
         <v>46250</v>
       </c>
     </row>
-    <row r="4" spans="2:6">
+    <row r="4" spans="1:6">
+      <c r="A4" t="s">
+        <v>114</v>
+      </c>
       <c r="B4" s="29" t="s">
         <v>46</v>
       </c>
@@ -14077,7 +14209,10 @@
         <v>46251</v>
       </c>
     </row>
-    <row r="5" spans="2:6">
+    <row r="5" spans="1:6">
+      <c r="A5" t="s">
+        <v>114</v>
+      </c>
       <c r="B5" s="29" t="s">
         <v>47</v>
       </c>
@@ -14093,7 +14228,10 @@
         <v>46221</v>
       </c>
     </row>
-    <row r="6" spans="2:6">
+    <row r="6" spans="1:6">
+      <c r="A6" t="s">
+        <v>114</v>
+      </c>
       <c r="B6" s="29" t="s">
         <v>48</v>
       </c>
@@ -14109,7 +14247,10 @@
         <v>44665</v>
       </c>
     </row>
-    <row r="7" spans="2:6">
+    <row r="7" spans="1:6">
+      <c r="A7" t="s">
+        <v>114</v>
+      </c>
       <c r="B7" s="29" t="s">
         <v>51</v>
       </c>
@@ -14127,7 +14268,10 @@
         <v>45123</v>
       </c>
     </row>
-    <row r="8" spans="2:6">
+    <row r="8" spans="1:6">
+      <c r="A8" t="s">
+        <v>114</v>
+      </c>
       <c r="B8" s="29" t="s">
         <v>52</v>
       </c>

--- a/Sample_Bank_Data/SEP 2024.xlsx
+++ b/Sample_Bank_Data/SEP 2024.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29010"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\91636\Downloads\data\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="9" documentId="13_ncr:1_{42FDEC2A-8242-4E00-8B33-4E96A87043E5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4E5D3CF1-F2D2-41FF-8577-69ACB6D2C8BD}"/>
+  <xr:revisionPtr revIDLastSave="10" documentId="13_ncr:1_{42FDEC2A-8242-4E00-8B33-4E96A87043E5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B67958C2-D4A9-4E28-A3BE-1C46D4E93DAD}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" firstSheet="3" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" firstSheet="6" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Collateral Types" sheetId="1" r:id="rId1"/>
@@ -376,13 +376,13 @@
     <t>Total Collateral</t>
   </si>
   <si>
-    <t>HC Collateral Building</t>
-  </si>
-  <si>
-    <t>HC Collateral Cash</t>
-  </si>
-  <si>
-    <t>HC Collateral Shares</t>
+    <t>HC Collateral Land &amp; Building</t>
+  </si>
+  <si>
+    <t>HC Collateral Cash, Gold &amp; Other Riskfree Assests</t>
+  </si>
+  <si>
+    <t>HC Collateral Shares &amp; Other Paper Assests</t>
   </si>
   <si>
     <t>HC Collateral Hawalat Haq</t>
@@ -3137,8 +3137,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:AD52"/>
   <sheetViews>
-    <sheetView topLeftCell="P1" workbookViewId="0">
-      <selection activeCell="P1" sqref="P1:Y1"/>
+    <sheetView tabSelected="1" topLeftCell="P1" workbookViewId="0">
+      <selection activeCell="Y1" sqref="Y1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -8285,7 +8285,7 @@
   <dimension ref="A1:J148"/>
   <sheetViews>
     <sheetView topLeftCell="A15" workbookViewId="0">
-      <selection sqref="A1:A39"/>
+      <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -13143,11 +13143,11 @@
       </c>
       <c r="F3" s="28">
         <f t="shared" ref="F3:F42" ca="1" si="0">(C3*0.2) + RANDBETWEEN(0, 25000)</f>
-        <v>5397216.120000001</v>
+        <v>5400083.120000001</v>
       </c>
       <c r="G3" s="27">
         <f t="shared" ref="G3:G42" ca="1" si="1">C3-F3</f>
-        <v>21559929.48</v>
+        <v>21557062.48</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -13168,11 +13168,11 @@
       </c>
       <c r="F4" s="28">
         <f t="shared" ca="1" si="0"/>
-        <v>8094084.6000000006</v>
+        <v>8094827.6000000006</v>
       </c>
       <c r="G4" s="27">
         <f t="shared" ca="1" si="1"/>
-        <v>32332763.399999999</v>
+        <v>32332020.399999999</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -13193,11 +13193,11 @@
       </c>
       <c r="F5" s="28">
         <f t="shared" ca="1" si="0"/>
-        <v>10780838.08</v>
+        <v>10796241.08</v>
       </c>
       <c r="G5" s="27">
         <f t="shared" ca="1" si="1"/>
-        <v>43115712.32</v>
+        <v>43100309.32</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="30" customHeight="1">
@@ -13218,11 +13218,11 @@
       </c>
       <c r="F6" s="28">
         <f t="shared" ca="1" si="0"/>
-        <v>13475364.560000001</v>
+        <v>13496249.560000001</v>
       </c>
       <c r="G6" s="27">
         <f t="shared" ca="1" si="1"/>
-        <v>53890888.239999995</v>
+        <v>53870003.239999995</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="30" customHeight="1">
@@ -13243,11 +13243,11 @@
       </c>
       <c r="F7" s="28">
         <f t="shared" ca="1" si="0"/>
-        <v>16177643.039999999</v>
+        <v>16182609.039999999</v>
       </c>
       <c r="G7" s="27">
         <f t="shared" ca="1" si="1"/>
-        <v>64658312.159999989</v>
+        <v>64653346.159999989</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -13268,11 +13268,11 @@
       </c>
       <c r="F8" s="28">
         <f t="shared" ca="1" si="0"/>
-        <v>18884899.520000003</v>
+        <v>18884618.520000003</v>
       </c>
       <c r="G8" s="27">
         <f t="shared" ca="1" si="1"/>
-        <v>75420758.080000013</v>
+        <v>75421039.080000013</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="30" customHeight="1">
@@ -13293,11 +13293,11 @@
       </c>
       <c r="F9" s="28">
         <f t="shared" ca="1" si="0"/>
-        <v>21569452.200000003</v>
+        <v>21562930.200000003</v>
       </c>
       <c r="G9" s="27">
         <f t="shared" ca="1" si="1"/>
-        <v>86191123.799999997</v>
+        <v>86197645.799999997</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -13318,11 +13318,11 @@
       </c>
       <c r="F10" s="28">
         <f t="shared" ca="1" si="0"/>
-        <v>24233085.680000003</v>
+        <v>24222325.680000003</v>
       </c>
       <c r="G10" s="27">
         <f t="shared" ca="1" si="1"/>
-        <v>96849352.719999999</v>
+        <v>96860112.719999999</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="30" customHeight="1">
@@ -13343,11 +13343,11 @@
       </c>
       <c r="F11" s="28">
         <f t="shared" ca="1" si="0"/>
-        <v>26633496.16</v>
+        <v>26621226.16</v>
       </c>
       <c r="G11" s="27">
         <f t="shared" ca="1" si="1"/>
-        <v>106440244.64</v>
+        <v>106452514.64</v>
       </c>
     </row>
     <row r="12" spans="1:7">
@@ -13368,11 +13368,11 @@
       </c>
       <c r="F12" s="28">
         <f t="shared" ca="1" si="0"/>
-        <v>29308995.640000001</v>
+        <v>29330515.640000001</v>
       </c>
       <c r="G12" s="27">
         <f t="shared" ca="1" si="1"/>
-        <v>117234447.55999999</v>
+        <v>117212927.55999999</v>
       </c>
     </row>
     <row r="13" spans="1:7">
@@ -13393,11 +13393,11 @@
       </c>
       <c r="F13" s="28">
         <f t="shared" ca="1" si="0"/>
-        <v>3343461.12</v>
+        <v>3335105.12</v>
       </c>
       <c r="G13" s="27">
         <f t="shared" ca="1" si="1"/>
-        <v>13264884.48</v>
+        <v>13273240.48</v>
       </c>
     </row>
     <row r="14" spans="1:7">
@@ -13418,11 +13418,11 @@
       </c>
       <c r="F14" s="28">
         <f t="shared" ca="1" si="0"/>
-        <v>6608724.6000000006</v>
+        <v>6618709.6000000006</v>
       </c>
       <c r="G14" s="27">
         <f t="shared" ca="1" si="1"/>
-        <v>26426123.399999999</v>
+        <v>26416138.399999999</v>
       </c>
     </row>
     <row r="15" spans="1:7" ht="30" customHeight="1">
@@ -13443,11 +13443,11 @@
       </c>
       <c r="F15" s="28">
         <f t="shared" ca="1" si="0"/>
-        <v>9907007.0800000001</v>
+        <v>9894374.0800000001</v>
       </c>
       <c r="G15" s="27">
         <f t="shared" ca="1" si="1"/>
-        <v>39554343.32</v>
+        <v>39566976.32</v>
       </c>
     </row>
     <row r="16" spans="1:7">
@@ -13468,11 +13468,11 @@
       </c>
       <c r="F16" s="28">
         <f t="shared" ca="1" si="0"/>
-        <v>13185149.560000001</v>
+        <v>13188468.560000001</v>
       </c>
       <c r="G16" s="27">
         <f t="shared" ca="1" si="1"/>
-        <v>52702703.239999995</v>
+        <v>52699384.239999995</v>
       </c>
     </row>
     <row r="17" spans="1:7">
@@ -13493,11 +13493,11 @@
       </c>
       <c r="F17" s="28">
         <f t="shared" ca="1" si="0"/>
-        <v>16472739.039999999</v>
+        <v>16484475.039999999</v>
       </c>
       <c r="G17" s="27">
         <f t="shared" ca="1" si="1"/>
-        <v>65841616.159999989</v>
+        <v>65829880.159999989</v>
       </c>
     </row>
     <row r="18" spans="1:7">
@@ -13518,11 +13518,11 @@
       </c>
       <c r="F18" s="28">
         <f t="shared" ca="1" si="0"/>
-        <v>19751728.520000003</v>
+        <v>19770106.520000003</v>
       </c>
       <c r="G18" s="27">
         <f t="shared" ca="1" si="1"/>
-        <v>78989129.080000013</v>
+        <v>78970751.080000013</v>
       </c>
     </row>
     <row r="19" spans="1:7" ht="30" customHeight="1">
@@ -13543,11 +13543,11 @@
       </c>
       <c r="F19" s="28">
         <f t="shared" ca="1" si="0"/>
-        <v>23046288.200000003</v>
+        <v>23041860.200000003</v>
       </c>
       <c r="G19" s="27">
         <f t="shared" ca="1" si="1"/>
-        <v>92106287.799999997</v>
+        <v>92110715.799999997</v>
       </c>
     </row>
     <row r="20" spans="1:7">
@@ -13568,11 +13568,11 @@
       </c>
       <c r="F20" s="28">
         <f t="shared" ca="1" si="0"/>
-        <v>26306649.680000003</v>
+        <v>26287440.680000003</v>
       </c>
       <c r="G20" s="27">
         <f t="shared" ca="1" si="1"/>
-        <v>105124588.72</v>
+        <v>105143797.72</v>
       </c>
     </row>
     <row r="21" spans="1:7" ht="30" customHeight="1">
@@ -13593,11 +13593,11 @@
       </c>
       <c r="F21" s="28">
         <f t="shared" ca="1" si="0"/>
-        <v>29295280.160000004</v>
+        <v>29294274.160000004</v>
       </c>
       <c r="G21" s="27">
         <f t="shared" ca="1" si="1"/>
-        <v>117084060.64000002</v>
+        <v>117085066.64000002</v>
       </c>
     </row>
     <row r="22" spans="1:7">
@@ -13618,11 +13618,11 @@
       </c>
       <c r="F22" s="28">
         <f t="shared" ca="1" si="0"/>
-        <v>3017521.64</v>
+        <v>2993589.64</v>
       </c>
       <c r="G22" s="27">
         <f t="shared" ca="1" si="1"/>
-        <v>11948321.559999999</v>
+        <v>11972253.559999999</v>
       </c>
     </row>
     <row r="23" spans="1:7">
@@ -13643,11 +13643,11 @@
       </c>
       <c r="F23" s="28">
         <f t="shared" ca="1" si="0"/>
-        <v>6302331.120000001</v>
+        <v>6301116.120000001</v>
       </c>
       <c r="G23" s="27">
         <f t="shared" ca="1" si="1"/>
-        <v>25090014.48</v>
+        <v>25091229.48</v>
       </c>
     </row>
     <row r="24" spans="1:7">
@@ -13668,11 +13668,11 @@
       </c>
       <c r="F24" s="28">
         <f t="shared" ca="1" si="0"/>
-        <v>9574869.5999999996</v>
+        <v>9575811.5999999996</v>
       </c>
       <c r="G24" s="27">
         <f t="shared" ca="1" si="1"/>
-        <v>38243978.399999999</v>
+        <v>38243036.399999999</v>
       </c>
     </row>
     <row r="25" spans="1:7" ht="30" customHeight="1">
@@ -13693,11 +13693,11 @@
       </c>
       <c r="F25" s="28">
         <f t="shared" ca="1" si="0"/>
-        <v>12869430.08</v>
+        <v>12866588.08</v>
       </c>
       <c r="G25" s="27">
         <f t="shared" ca="1" si="1"/>
-        <v>51375920.32</v>
+        <v>51378762.32</v>
       </c>
     </row>
     <row r="26" spans="1:7">
@@ -13718,11 +13718,11 @@
       </c>
       <c r="F26" s="28">
         <f t="shared" ca="1" si="0"/>
-        <v>16151022.560000001</v>
+        <v>16139529.560000001</v>
       </c>
       <c r="G26" s="27">
         <f t="shared" ca="1" si="1"/>
-        <v>64520830.239999995</v>
+        <v>64532323.239999995</v>
       </c>
     </row>
     <row r="27" spans="1:7" ht="30" customHeight="1">
@@ -13743,11 +13743,11 @@
       </c>
       <c r="F27" s="28">
         <f t="shared" ca="1" si="0"/>
-        <v>19437439.039999999</v>
+        <v>19432845.039999999</v>
       </c>
       <c r="G27" s="27">
         <f t="shared" ca="1" si="1"/>
-        <v>77660916.159999996</v>
+        <v>77665510.159999996</v>
       </c>
     </row>
     <row r="28" spans="1:7">
@@ -13768,11 +13768,11 @@
       </c>
       <c r="F28" s="28">
         <f t="shared" ca="1" si="0"/>
-        <v>22715054.52</v>
+        <v>22708774.52</v>
       </c>
       <c r="G28" s="27">
         <f t="shared" ca="1" si="1"/>
-        <v>90809803.079999998</v>
+        <v>90816083.079999998</v>
       </c>
     </row>
     <row r="29" spans="1:7">
@@ -13793,11 +13793,11 @@
       </c>
       <c r="F29" s="28">
         <f t="shared" ca="1" si="0"/>
-        <v>26010120.200000003</v>
+        <v>25997179.200000003</v>
       </c>
       <c r="G29" s="27">
         <f t="shared" ca="1" si="1"/>
-        <v>103926455.8</v>
+        <v>103939396.8</v>
       </c>
     </row>
     <row r="30" spans="1:7" ht="30" customHeight="1">
@@ -13818,11 +13818,11 @@
       </c>
       <c r="F30" s="28">
         <f t="shared" ca="1" si="0"/>
-        <v>29260482.680000003</v>
+        <v>29260184.680000003</v>
       </c>
       <c r="G30" s="27">
         <f t="shared" ca="1" si="1"/>
-        <v>116954755.72</v>
+        <v>116955053.72</v>
       </c>
     </row>
     <row r="31" spans="1:7">
@@ -13843,11 +13843,11 @@
       </c>
       <c r="F31" s="28">
         <f t="shared" ca="1" si="0"/>
-        <v>5638065.1600000001</v>
+        <v>5637017.1600000001</v>
       </c>
       <c r="G31" s="27">
         <f t="shared" ca="1" si="1"/>
-        <v>22469275.640000001</v>
+        <v>22470323.640000001</v>
       </c>
     </row>
     <row r="32" spans="1:7">
@@ -13868,11 +13868,11 @@
       </c>
       <c r="F32" s="28">
         <f t="shared" ca="1" si="0"/>
-        <v>8917479.6400000006</v>
+        <v>8908737.6400000006</v>
       </c>
       <c r="G32" s="27">
         <f t="shared" ca="1" si="1"/>
-        <v>35616363.560000002</v>
+        <v>35625105.560000002</v>
       </c>
     </row>
     <row r="33" spans="1:7" ht="30" customHeight="1">
@@ -13893,11 +13893,11 @@
       </c>
       <c r="F33" s="28">
         <f t="shared" ca="1" si="0"/>
-        <v>12192206.119999997</v>
+        <v>12197226.119999997</v>
       </c>
       <c r="G33" s="27">
         <f t="shared" ca="1" si="1"/>
-        <v>48768139.479999989</v>
+        <v>48763119.479999989</v>
       </c>
     </row>
     <row r="34" spans="1:7">
@@ -13918,11 +13918,11 @@
       </c>
       <c r="F34" s="28">
         <f t="shared" ca="1" si="0"/>
-        <v>15498403.600000001</v>
+        <v>15480486.600000001</v>
       </c>
       <c r="G34" s="27">
         <f t="shared" ca="1" si="1"/>
-        <v>61888444.399999999</v>
+        <v>61906361.399999999</v>
       </c>
     </row>
     <row r="35" spans="1:7">
@@ -13943,11 +13943,11 @@
       </c>
       <c r="F35" s="28">
         <f t="shared" ca="1" si="0"/>
-        <v>18769238.079999998</v>
+        <v>18764194.079999998</v>
       </c>
       <c r="G35" s="27">
         <f t="shared" ca="1" si="1"/>
-        <v>75044112.319999993</v>
+        <v>75049156.319999993</v>
       </c>
     </row>
     <row r="36" spans="1:7" ht="30" customHeight="1">
@@ -13968,11 +13968,11 @@
       </c>
       <c r="F36" s="28">
         <f t="shared" ca="1" si="0"/>
-        <v>22049968.560000002</v>
+        <v>22048956.560000002</v>
       </c>
       <c r="G36" s="27">
         <f t="shared" ca="1" si="1"/>
-        <v>88189884.239999995</v>
+        <v>88190896.239999995</v>
       </c>
     </row>
     <row r="37" spans="1:7">
@@ -13993,11 +13993,11 @@
       </c>
       <c r="F37" s="28">
         <f t="shared" ca="1" si="0"/>
-        <v>25347692.040000003</v>
+        <v>25344871.040000003</v>
       </c>
       <c r="G37" s="27">
         <f t="shared" ca="1" si="1"/>
-        <v>101318663.16</v>
+        <v>101321484.16</v>
       </c>
     </row>
     <row r="38" spans="1:7">
@@ -14018,11 +14018,11 @@
       </c>
       <c r="F38" s="28">
         <f t="shared" ca="1" si="0"/>
-        <v>28626438.52</v>
+        <v>28633476.52</v>
       </c>
       <c r="G38" s="27">
         <f t="shared" ca="1" si="1"/>
-        <v>114466419.08</v>
+        <v>114459381.08</v>
       </c>
     </row>
     <row r="39" spans="1:7" ht="30" customHeight="1">
@@ -14043,11 +14043,11 @@
       </c>
       <c r="F39" s="28">
         <f t="shared" ca="1" si="0"/>
-        <v>5308892.2</v>
+        <v>5300274.2</v>
       </c>
       <c r="G39" s="27">
         <f t="shared" ca="1" si="1"/>
-        <v>21139683.800000001</v>
+        <v>21148301.800000001</v>
       </c>
     </row>
     <row r="40" spans="1:7">
@@ -14068,11 +14068,11 @@
       </c>
       <c r="F40" s="28">
         <f t="shared" ca="1" si="0"/>
-        <v>8562736.6799999997</v>
+        <v>8551820.6799999997</v>
       </c>
       <c r="G40" s="27">
         <f t="shared" ca="1" si="1"/>
-        <v>34164501.719999999</v>
+        <v>34175417.719999999</v>
       </c>
     </row>
     <row r="41" spans="1:7">
@@ -14093,11 +14093,11 @@
       </c>
       <c r="F41" s="28">
         <f t="shared" ca="1" si="0"/>
-        <v>11546425.16</v>
+        <v>11551597.16</v>
       </c>
       <c r="G41" s="27">
         <f t="shared" ca="1" si="1"/>
-        <v>46128915.640000001</v>
+        <v>46123743.640000001</v>
       </c>
     </row>
     <row r="42" spans="1:7">
@@ -14118,11 +14118,11 @@
       </c>
       <c r="F42" s="28">
         <f t="shared" ca="1" si="0"/>
-        <v>14822149.640000001</v>
+        <v>14829707.640000001</v>
       </c>
       <c r="G42" s="27">
         <f t="shared" ca="1" si="1"/>
-        <v>59279693.560000002</v>
+        <v>59272135.560000002</v>
       </c>
     </row>
   </sheetData>
@@ -14134,7 +14134,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A2:F44"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
